--- a/趋势.xlsx
+++ b/趋势.xlsx
@@ -126,7 +126,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -152,6 +152,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -461,7 +464,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -586,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="M2" s="3">
-        <f t="shared" ref="M2:U3" si="0">C2/SUM($B2:$K2)</f>
+        <f t="shared" ref="M2:U2" si="0">C2/SUM($B2:$K2)</f>
         <v>0</v>
       </c>
       <c r="N2" s="3">
@@ -623,16 +626,79 @@
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
+      <c r="A3" s="1">
+        <v>42654</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>50</v>
+      </c>
+      <c r="F3">
+        <v>672</v>
+      </c>
+      <c r="G3" s="2">
+        <v>1426</v>
+      </c>
+      <c r="H3" s="9">
+        <v>391</v>
+      </c>
+      <c r="I3" s="9">
+        <v>78</v>
+      </c>
+      <c r="J3" s="9">
+        <v>29</v>
+      </c>
+      <c r="K3" s="9">
+        <v>32</v>
+      </c>
+      <c r="L3" s="3">
+        <f>B3/SUM($B3:$K3)</f>
+        <v>0</v>
+      </c>
+      <c r="M3" s="3">
+        <f t="shared" ref="M3" si="1">C3/SUM($B3:$K3)</f>
+        <v>0</v>
+      </c>
+      <c r="N3" s="3">
+        <f t="shared" ref="N3" si="2">D3/SUM($B3:$K3)</f>
+        <v>1.1189854531891085E-3</v>
+      </c>
+      <c r="O3" s="3">
+        <f t="shared" ref="O3" si="3">E3/SUM($B3:$K3)</f>
+        <v>1.8649757553151809E-2</v>
+      </c>
+      <c r="P3" s="3">
+        <f t="shared" ref="P3" si="4">F3/SUM($B3:$K3)</f>
+        <v>0.25065274151436029</v>
+      </c>
+      <c r="Q3" s="3">
+        <f t="shared" ref="Q3" si="5">G3/SUM($B3:$K3)</f>
+        <v>0.53189108541588959</v>
+      </c>
+      <c r="R3" s="3">
+        <f t="shared" ref="R3" si="6">H3/SUM($B3:$K3)</f>
+        <v>0.14584110406564715</v>
+      </c>
+      <c r="S3" s="3">
+        <f t="shared" ref="S3" si="7">I3/SUM($B3:$K3)</f>
+        <v>2.9093621782916822E-2</v>
+      </c>
+      <c r="T3" s="3">
+        <f t="shared" ref="T3" si="8">J3/SUM($B3:$K3)</f>
+        <v>1.081685938082805E-2</v>
+      </c>
+      <c r="U3" s="3">
+        <f t="shared" ref="U3" si="9">K3/SUM($B3:$K3)</f>
+        <v>1.1935844834017158E-2</v>
+      </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.15">
       <c r="L4" s="3"/>

--- a/趋势.xlsx
+++ b/趋势.xlsx
@@ -464,7 +464,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I9" sqref="I9"/>
+      <selection pane="bottomRight" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -701,16 +701,79 @@
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
+      <c r="A4" s="1">
+        <v>42655</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>38</v>
+      </c>
+      <c r="F4">
+        <v>700</v>
+      </c>
+      <c r="G4" s="2">
+        <v>1436</v>
+      </c>
+      <c r="H4" s="9">
+        <v>370</v>
+      </c>
+      <c r="I4" s="9">
+        <v>89</v>
+      </c>
+      <c r="J4" s="9">
+        <v>28</v>
+      </c>
+      <c r="K4" s="9">
+        <v>30</v>
+      </c>
+      <c r="L4" s="3">
+        <f>B4/SUM($B4:$K4)</f>
+        <v>0</v>
+      </c>
+      <c r="M4" s="3">
+        <f t="shared" ref="M4" si="10">C4/SUM($B4:$K4)</f>
+        <v>0</v>
+      </c>
+      <c r="N4" s="3">
+        <f t="shared" ref="N4" si="11">D4/SUM($B4:$K4)</f>
+        <v>1.1135857461024498E-3</v>
+      </c>
+      <c r="O4" s="3">
+        <f t="shared" ref="O4" si="12">E4/SUM($B4:$K4)</f>
+        <v>1.4105419450631032E-2</v>
+      </c>
+      <c r="P4" s="3">
+        <f t="shared" ref="P4" si="13">F4/SUM($B4:$K4)</f>
+        <v>0.25983667409057165</v>
+      </c>
+      <c r="Q4" s="3">
+        <f t="shared" ref="Q4" si="14">G4/SUM($B4:$K4)</f>
+        <v>0.53303637713437269</v>
+      </c>
+      <c r="R4" s="3">
+        <f t="shared" ref="R4" si="15">H4/SUM($B4:$K4)</f>
+        <v>0.13734224201930215</v>
+      </c>
+      <c r="S4" s="3">
+        <f t="shared" ref="S4" si="16">I4/SUM($B4:$K4)</f>
+        <v>3.3036377134372678E-2</v>
+      </c>
+      <c r="T4" s="3">
+        <f t="shared" ref="T4" si="17">J4/SUM($B4:$K4)</f>
+        <v>1.0393466963622866E-2</v>
+      </c>
+      <c r="U4" s="3">
+        <f t="shared" ref="U4" si="18">K4/SUM($B4:$K4)</f>
+        <v>1.1135857461024499E-2</v>
+      </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.15">
       <c r="L5" s="3"/>

--- a/趋势.xlsx
+++ b/趋势.xlsx
@@ -4,12 +4,10 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="90" windowWidth="27795" windowHeight="13230" tabRatio="505"/>
+    <workbookView xWindow="480" yWindow="150" windowWidth="27795" windowHeight="13170" tabRatio="505"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="趋势" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -66,7 +64,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -79,6 +77,23 @@
       <sz val="9"/>
       <name val="宋体"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -126,7 +141,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -155,6 +170,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -464,7 +485,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -585,43 +606,43 @@
         <v>21</v>
       </c>
       <c r="L2" s="3">
-        <f>B2/SUM($B2:$K2)</f>
+        <f t="shared" ref="L2:L8" si="0">B2/SUM($B2:$K2)</f>
         <v>0</v>
       </c>
       <c r="M2" s="3">
-        <f t="shared" ref="M2:U2" si="0">C2/SUM($B2:$K2)</f>
+        <f t="shared" ref="M2:U2" si="1">C2/SUM($B2:$K2)</f>
         <v>0</v>
       </c>
       <c r="N2" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.3569563595673255E-3</v>
       </c>
       <c r="O2" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.8720626631853787E-2</v>
       </c>
       <c r="P2" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.31629988810145471</v>
       </c>
       <c r="Q2" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.4867586721372622</v>
       </c>
       <c r="R2" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.12122342409548675</v>
       </c>
       <c r="S2" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.8720626631853787E-2</v>
       </c>
       <c r="T2" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.0869078701976873E-3</v>
       </c>
       <c r="U2" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.832898172323759E-3</v>
       </c>
     </row>
@@ -660,43 +681,43 @@
         <v>32</v>
       </c>
       <c r="L3" s="3">
-        <f>B3/SUM($B3:$K3)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M3" s="3">
-        <f t="shared" ref="M3" si="1">C3/SUM($B3:$K3)</f>
+        <f t="shared" ref="M3" si="2">C3/SUM($B3:$K3)</f>
         <v>0</v>
       </c>
       <c r="N3" s="3">
-        <f t="shared" ref="N3" si="2">D3/SUM($B3:$K3)</f>
+        <f t="shared" ref="N3" si="3">D3/SUM($B3:$K3)</f>
         <v>1.1189854531891085E-3</v>
       </c>
       <c r="O3" s="3">
-        <f t="shared" ref="O3" si="3">E3/SUM($B3:$K3)</f>
+        <f t="shared" ref="O3" si="4">E3/SUM($B3:$K3)</f>
         <v>1.8649757553151809E-2</v>
       </c>
       <c r="P3" s="3">
-        <f t="shared" ref="P3" si="4">F3/SUM($B3:$K3)</f>
+        <f t="shared" ref="P3" si="5">F3/SUM($B3:$K3)</f>
         <v>0.25065274151436029</v>
       </c>
       <c r="Q3" s="3">
-        <f t="shared" ref="Q3" si="5">G3/SUM($B3:$K3)</f>
+        <f t="shared" ref="Q3" si="6">G3/SUM($B3:$K3)</f>
         <v>0.53189108541588959</v>
       </c>
       <c r="R3" s="3">
-        <f t="shared" ref="R3" si="6">H3/SUM($B3:$K3)</f>
+        <f t="shared" ref="R3" si="7">H3/SUM($B3:$K3)</f>
         <v>0.14584110406564715</v>
       </c>
       <c r="S3" s="3">
-        <f t="shared" ref="S3" si="7">I3/SUM($B3:$K3)</f>
+        <f t="shared" ref="S3" si="8">I3/SUM($B3:$K3)</f>
         <v>2.9093621782916822E-2</v>
       </c>
       <c r="T3" s="3">
-        <f t="shared" ref="T3" si="8">J3/SUM($B3:$K3)</f>
+        <f t="shared" ref="T3" si="9">J3/SUM($B3:$K3)</f>
         <v>1.081685938082805E-2</v>
       </c>
       <c r="U3" s="3">
-        <f t="shared" ref="U3" si="9">K3/SUM($B3:$K3)</f>
+        <f t="shared" ref="U3" si="10">K3/SUM($B3:$K3)</f>
         <v>1.1935844834017158E-2</v>
       </c>
     </row>
@@ -735,93 +756,345 @@
         <v>30</v>
       </c>
       <c r="L4" s="3">
-        <f>B4/SUM($B4:$K4)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M4" s="3">
-        <f t="shared" ref="M4" si="10">C4/SUM($B4:$K4)</f>
+        <f t="shared" ref="M4" si="11">C4/SUM($B4:$K4)</f>
         <v>0</v>
       </c>
       <c r="N4" s="3">
-        <f t="shared" ref="N4" si="11">D4/SUM($B4:$K4)</f>
+        <f t="shared" ref="N4" si="12">D4/SUM($B4:$K4)</f>
         <v>1.1135857461024498E-3</v>
       </c>
       <c r="O4" s="3">
-        <f t="shared" ref="O4" si="12">E4/SUM($B4:$K4)</f>
+        <f t="shared" ref="O4" si="13">E4/SUM($B4:$K4)</f>
         <v>1.4105419450631032E-2</v>
       </c>
       <c r="P4" s="3">
-        <f t="shared" ref="P4" si="13">F4/SUM($B4:$K4)</f>
+        <f t="shared" ref="P4" si="14">F4/SUM($B4:$K4)</f>
         <v>0.25983667409057165</v>
       </c>
       <c r="Q4" s="3">
-        <f t="shared" ref="Q4" si="14">G4/SUM($B4:$K4)</f>
+        <f t="shared" ref="Q4" si="15">G4/SUM($B4:$K4)</f>
         <v>0.53303637713437269</v>
       </c>
       <c r="R4" s="3">
-        <f t="shared" ref="R4" si="15">H4/SUM($B4:$K4)</f>
+        <f t="shared" ref="R4" si="16">H4/SUM($B4:$K4)</f>
         <v>0.13734224201930215</v>
       </c>
       <c r="S4" s="3">
-        <f t="shared" ref="S4" si="16">I4/SUM($B4:$K4)</f>
+        <f t="shared" ref="S4" si="17">I4/SUM($B4:$K4)</f>
         <v>3.3036377134372678E-2</v>
       </c>
       <c r="T4" s="3">
-        <f t="shared" ref="T4" si="17">J4/SUM($B4:$K4)</f>
+        <f t="shared" ref="T4" si="18">J4/SUM($B4:$K4)</f>
         <v>1.0393466963622866E-2</v>
       </c>
       <c r="U4" s="3">
-        <f t="shared" ref="U4" si="18">K4/SUM($B4:$K4)</f>
+        <f t="shared" ref="U4" si="19">K4/SUM($B4:$K4)</f>
         <v>1.1135857461024499E-2</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="3"/>
+      <c r="A5" s="1">
+        <v>42656</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>46</v>
+      </c>
+      <c r="F5">
+        <v>612</v>
+      </c>
+      <c r="G5" s="2">
+        <v>1506</v>
+      </c>
+      <c r="H5" s="9">
+        <v>373</v>
+      </c>
+      <c r="I5" s="9">
+        <v>87</v>
+      </c>
+      <c r="J5" s="9">
+        <v>33</v>
+      </c>
+      <c r="K5" s="9">
+        <v>33</v>
+      </c>
+      <c r="L5" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M5" s="3">
+        <f t="shared" ref="M5" si="20">C5/SUM($B5:$K5)</f>
+        <v>0</v>
+      </c>
+      <c r="N5" s="3">
+        <f t="shared" ref="N5" si="21">D5/SUM($B5:$K5)</f>
+        <v>7.429420505200594E-4</v>
+      </c>
+      <c r="O5" s="3">
+        <f t="shared" ref="O5" si="22">E5/SUM($B5:$K5)</f>
+        <v>1.7087667161961365E-2</v>
+      </c>
+      <c r="P5" s="3">
+        <f t="shared" ref="P5" si="23">F5/SUM($B5:$K5)</f>
+        <v>0.22734026745913818</v>
+      </c>
+      <c r="Q5" s="3">
+        <f t="shared" ref="Q5" si="24">G5/SUM($B5:$K5)</f>
+        <v>0.55943536404160477</v>
+      </c>
+      <c r="R5" s="3">
+        <f t="shared" ref="R5" si="25">H5/SUM($B5:$K5)</f>
+        <v>0.13855869242199109</v>
+      </c>
+      <c r="S5" s="3">
+        <f t="shared" ref="S5" si="26">I5/SUM($B5:$K5)</f>
+        <v>3.2317979197622589E-2</v>
+      </c>
+      <c r="T5" s="3">
+        <f t="shared" ref="T5" si="27">J5/SUM($B5:$K5)</f>
+        <v>1.2258543833580981E-2</v>
+      </c>
+      <c r="U5" s="3">
+        <f t="shared" ref="U5" si="28">K5/SUM($B5:$K5)</f>
+        <v>1.2258543833580981E-2</v>
+      </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
-      <c r="U6" s="3"/>
+      <c r="A6" s="1">
+        <v>42657</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>42</v>
+      </c>
+      <c r="F6">
+        <v>647</v>
+      </c>
+      <c r="G6" s="2">
+        <v>1511</v>
+      </c>
+      <c r="H6" s="9">
+        <v>363</v>
+      </c>
+      <c r="I6" s="9">
+        <v>82</v>
+      </c>
+      <c r="J6" s="9">
+        <v>30</v>
+      </c>
+      <c r="K6" s="9">
+        <v>22</v>
+      </c>
+      <c r="L6" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M6" s="3">
+        <f t="shared" ref="M6:M8" si="29">C6/SUM($B6:$K6)</f>
+        <v>0</v>
+      </c>
+      <c r="N6" s="3">
+        <f t="shared" ref="N6:N8" si="30">D6/SUM($B6:$K6)</f>
+        <v>3.7064492216456633E-4</v>
+      </c>
+      <c r="O6" s="3">
+        <f t="shared" ref="O6:O8" si="31">E6/SUM($B6:$K6)</f>
+        <v>1.5567086730911787E-2</v>
+      </c>
+      <c r="P6" s="3">
+        <f t="shared" ref="P6:P8" si="32">F6/SUM($B6:$K6)</f>
+        <v>0.23980726464047442</v>
+      </c>
+      <c r="Q6" s="3">
+        <f t="shared" ref="Q6:Q8" si="33">G6/SUM($B6:$K6)</f>
+        <v>0.56004447739065977</v>
+      </c>
+      <c r="R6" s="3">
+        <f t="shared" ref="R6:R8" si="34">H6/SUM($B6:$K6)</f>
+        <v>0.13454410674573758</v>
+      </c>
+      <c r="S6" s="3">
+        <f t="shared" ref="S6:S8" si="35">I6/SUM($B6:$K6)</f>
+        <v>3.039288361749444E-2</v>
+      </c>
+      <c r="T6" s="3">
+        <f t="shared" ref="T6:T8" si="36">J6/SUM($B6:$K6)</f>
+        <v>1.1119347664936991E-2</v>
+      </c>
+      <c r="U6" s="3">
+        <f t="shared" ref="U6:U8" si="37">K6/SUM($B6:$K6)</f>
+        <v>8.1541882876204601E-3</v>
+      </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
-      <c r="U7" s="3"/>
+      <c r="A7" s="1">
+        <v>42660</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7">
+        <v>63</v>
+      </c>
+      <c r="F7">
+        <v>977</v>
+      </c>
+      <c r="G7" s="2">
+        <v>1307</v>
+      </c>
+      <c r="H7" s="9">
+        <v>237</v>
+      </c>
+      <c r="I7" s="9">
+        <v>67</v>
+      </c>
+      <c r="J7" s="9">
+        <v>27</v>
+      </c>
+      <c r="K7" s="9">
+        <v>20</v>
+      </c>
+      <c r="L7" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M7" s="3">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="N7" s="3">
+        <f t="shared" si="30"/>
+        <v>1.1106997408367272E-3</v>
+      </c>
+      <c r="O7" s="10">
+        <f t="shared" si="31"/>
+        <v>2.332469455757127E-2</v>
+      </c>
+      <c r="P7" s="10">
+        <f t="shared" si="32"/>
+        <v>0.36171788226582746</v>
+      </c>
+      <c r="Q7" s="3">
+        <f t="shared" si="33"/>
+        <v>0.48389485375786745</v>
+      </c>
+      <c r="R7" s="3">
+        <f t="shared" si="34"/>
+        <v>8.774527952610145E-2</v>
+      </c>
+      <c r="S7" s="3">
+        <f t="shared" si="35"/>
+        <v>2.4805627545353572E-2</v>
+      </c>
+      <c r="T7" s="3">
+        <f t="shared" si="36"/>
+        <v>9.9962976675305442E-3</v>
+      </c>
+      <c r="U7" s="3">
+        <f t="shared" si="37"/>
+        <v>7.4046649389115145E-3</v>
+      </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
-      <c r="U8" s="3"/>
+      <c r="A8" s="1">
+        <v>42661</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>26</v>
+      </c>
+      <c r="F8">
+        <v>464</v>
+      </c>
+      <c r="G8" s="2">
+        <v>1635</v>
+      </c>
+      <c r="H8" s="9">
+        <v>421</v>
+      </c>
+      <c r="I8" s="9">
+        <v>95</v>
+      </c>
+      <c r="J8" s="9">
+        <v>28</v>
+      </c>
+      <c r="K8" s="9">
+        <v>28</v>
+      </c>
+      <c r="L8" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
+        <f t="shared" si="30"/>
+        <v>3.7064492216456633E-4</v>
+      </c>
+      <c r="O8" s="3">
+        <f t="shared" si="31"/>
+        <v>9.6367679762787255E-3</v>
+      </c>
+      <c r="P8" s="3">
+        <f t="shared" si="32"/>
+        <v>0.17197924388435878</v>
+      </c>
+      <c r="Q8" s="11">
+        <f t="shared" si="33"/>
+        <v>0.60600444773906592</v>
+      </c>
+      <c r="R8" s="11">
+        <f t="shared" si="34"/>
+        <v>0.15604151223128243</v>
+      </c>
+      <c r="S8" s="3">
+        <f t="shared" si="35"/>
+        <v>3.5211267605633804E-2</v>
+      </c>
+      <c r="T8" s="3">
+        <f t="shared" si="36"/>
+        <v>1.0378057820607857E-2</v>
+      </c>
+      <c r="U8" s="3">
+        <f t="shared" si="37"/>
+        <v>1.0378057820607857E-2</v>
+      </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.15">
       <c r="L9" s="3"/>
@@ -3696,30 +3969,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/趋势.xlsx
+++ b/趋势.xlsx
@@ -485,7 +485,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomRight" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -606,7 +606,7 @@
         <v>21</v>
       </c>
       <c r="L2" s="3">
-        <f t="shared" ref="L2:L8" si="0">B2/SUM($B2:$K2)</f>
+        <f t="shared" ref="L2:L9" si="0">B2/SUM($B2:$K2)</f>
         <v>0</v>
       </c>
       <c r="M2" s="3">
@@ -910,39 +910,39 @@
         <v>0</v>
       </c>
       <c r="M6" s="3">
-        <f t="shared" ref="M6:M8" si="29">C6/SUM($B6:$K6)</f>
+        <f t="shared" ref="M6:M9" si="29">C6/SUM($B6:$K6)</f>
         <v>0</v>
       </c>
       <c r="N6" s="3">
-        <f t="shared" ref="N6:N8" si="30">D6/SUM($B6:$K6)</f>
+        <f t="shared" ref="N6:N9" si="30">D6/SUM($B6:$K6)</f>
         <v>3.7064492216456633E-4</v>
       </c>
       <c r="O6" s="3">
-        <f t="shared" ref="O6:O8" si="31">E6/SUM($B6:$K6)</f>
+        <f t="shared" ref="O6:O9" si="31">E6/SUM($B6:$K6)</f>
         <v>1.5567086730911787E-2</v>
       </c>
       <c r="P6" s="3">
-        <f t="shared" ref="P6:P8" si="32">F6/SUM($B6:$K6)</f>
+        <f t="shared" ref="P6:P9" si="32">F6/SUM($B6:$K6)</f>
         <v>0.23980726464047442</v>
       </c>
       <c r="Q6" s="3">
-        <f t="shared" ref="Q6:Q8" si="33">G6/SUM($B6:$K6)</f>
+        <f t="shared" ref="Q6:Q9" si="33">G6/SUM($B6:$K6)</f>
         <v>0.56004447739065977</v>
       </c>
       <c r="R6" s="3">
-        <f t="shared" ref="R6:R8" si="34">H6/SUM($B6:$K6)</f>
+        <f t="shared" ref="R6:R9" si="34">H6/SUM($B6:$K6)</f>
         <v>0.13454410674573758</v>
       </c>
       <c r="S6" s="3">
-        <f t="shared" ref="S6:S8" si="35">I6/SUM($B6:$K6)</f>
+        <f t="shared" ref="S6:S9" si="35">I6/SUM($B6:$K6)</f>
         <v>3.039288361749444E-2</v>
       </c>
       <c r="T6" s="3">
-        <f t="shared" ref="T6:T8" si="36">J6/SUM($B6:$K6)</f>
+        <f t="shared" ref="T6:T9" si="36">J6/SUM($B6:$K6)</f>
         <v>1.1119347664936991E-2</v>
       </c>
       <c r="U6" s="3">
-        <f t="shared" ref="U6:U8" si="37">K6/SUM($B6:$K6)</f>
+        <f t="shared" ref="U6:U9" si="37">K6/SUM($B6:$K6)</f>
         <v>8.1541882876204601E-3</v>
       </c>
     </row>
@@ -1097,16 +1097,79 @@
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
-      <c r="S9" s="3"/>
-      <c r="T9" s="3"/>
-      <c r="U9" s="3"/>
+      <c r="A9" s="1">
+        <v>42662</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>22</v>
+      </c>
+      <c r="F9">
+        <v>528</v>
+      </c>
+      <c r="G9" s="2">
+        <v>1619</v>
+      </c>
+      <c r="H9" s="9">
+        <v>376</v>
+      </c>
+      <c r="I9" s="9">
+        <v>90</v>
+      </c>
+      <c r="J9" s="9">
+        <v>28</v>
+      </c>
+      <c r="K9" s="9">
+        <v>37</v>
+      </c>
+      <c r="L9" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M9" s="3">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="N9" s="3">
+        <f t="shared" si="30"/>
+        <v>3.7023324694557573E-4</v>
+      </c>
+      <c r="O9" s="3">
+        <f t="shared" si="31"/>
+        <v>8.1451314328026651E-3</v>
+      </c>
+      <c r="P9" s="10">
+        <f t="shared" si="32"/>
+        <v>0.19548315438726396</v>
+      </c>
+      <c r="Q9" s="10">
+        <f t="shared" si="33"/>
+        <v>0.59940762680488713</v>
+      </c>
+      <c r="R9" s="10">
+        <f t="shared" si="34"/>
+        <v>0.13920770085153647</v>
+      </c>
+      <c r="S9" s="3">
+        <f t="shared" si="35"/>
+        <v>3.3320992225101813E-2</v>
+      </c>
+      <c r="T9" s="3">
+        <f t="shared" si="36"/>
+        <v>1.036653091447612E-2</v>
+      </c>
+      <c r="U9" s="3">
+        <f t="shared" si="37"/>
+        <v>1.3698630136986301E-2</v>
+      </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.15">
       <c r="L10" s="3"/>

--- a/趋势.xlsx
+++ b/趋势.xlsx
@@ -485,7 +485,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomRight" activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -606,7 +606,7 @@
         <v>21</v>
       </c>
       <c r="L2" s="3">
-        <f t="shared" ref="L2:L9" si="0">B2/SUM($B2:$K2)</f>
+        <f t="shared" ref="L2:L12" si="0">B2/SUM($B2:$K2)</f>
         <v>0</v>
       </c>
       <c r="M2" s="3">
@@ -910,39 +910,39 @@
         <v>0</v>
       </c>
       <c r="M6" s="3">
-        <f t="shared" ref="M6:M9" si="29">C6/SUM($B6:$K6)</f>
+        <f t="shared" ref="M6:M12" si="29">C6/SUM($B6:$K6)</f>
         <v>0</v>
       </c>
       <c r="N6" s="3">
-        <f t="shared" ref="N6:N9" si="30">D6/SUM($B6:$K6)</f>
+        <f t="shared" ref="N6:N12" si="30">D6/SUM($B6:$K6)</f>
         <v>3.7064492216456633E-4</v>
       </c>
       <c r="O6" s="3">
-        <f t="shared" ref="O6:O9" si="31">E6/SUM($B6:$K6)</f>
+        <f t="shared" ref="O6:O12" si="31">E6/SUM($B6:$K6)</f>
         <v>1.5567086730911787E-2</v>
       </c>
       <c r="P6" s="3">
-        <f t="shared" ref="P6:P9" si="32">F6/SUM($B6:$K6)</f>
+        <f t="shared" ref="P6:P12" si="32">F6/SUM($B6:$K6)</f>
         <v>0.23980726464047442</v>
       </c>
       <c r="Q6" s="3">
-        <f t="shared" ref="Q6:Q9" si="33">G6/SUM($B6:$K6)</f>
+        <f t="shared" ref="Q6:Q12" si="33">G6/SUM($B6:$K6)</f>
         <v>0.56004447739065977</v>
       </c>
       <c r="R6" s="3">
-        <f t="shared" ref="R6:R9" si="34">H6/SUM($B6:$K6)</f>
+        <f t="shared" ref="R6:R12" si="34">H6/SUM($B6:$K6)</f>
         <v>0.13454410674573758</v>
       </c>
       <c r="S6" s="3">
-        <f t="shared" ref="S6:S9" si="35">I6/SUM($B6:$K6)</f>
+        <f t="shared" ref="S6:S12" si="35">I6/SUM($B6:$K6)</f>
         <v>3.039288361749444E-2</v>
       </c>
       <c r="T6" s="3">
-        <f t="shared" ref="T6:T9" si="36">J6/SUM($B6:$K6)</f>
+        <f t="shared" ref="T6:T12" si="36">J6/SUM($B6:$K6)</f>
         <v>1.1119347664936991E-2</v>
       </c>
       <c r="U6" s="3">
-        <f t="shared" ref="U6:U9" si="37">K6/SUM($B6:$K6)</f>
+        <f t="shared" ref="U6:U12" si="37">K6/SUM($B6:$K6)</f>
         <v>8.1541882876204601E-3</v>
       </c>
     </row>
@@ -1172,40 +1172,229 @@
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
-      <c r="S10" s="3"/>
-      <c r="T10" s="3"/>
-      <c r="U10" s="3"/>
+      <c r="A10" s="1">
+        <v>42663</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>16</v>
+      </c>
+      <c r="F10">
+        <v>492</v>
+      </c>
+      <c r="G10" s="2">
+        <v>1675</v>
+      </c>
+      <c r="H10" s="9">
+        <v>375</v>
+      </c>
+      <c r="I10" s="9">
+        <v>86</v>
+      </c>
+      <c r="J10" s="9">
+        <v>28</v>
+      </c>
+      <c r="K10" s="9">
+        <v>29</v>
+      </c>
+      <c r="L10" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M10" s="3">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="N10" s="3">
+        <f t="shared" si="30"/>
+        <v>3.7009622501850479E-4</v>
+      </c>
+      <c r="O10" s="3">
+        <f t="shared" si="31"/>
+        <v>5.9215396002960767E-3</v>
+      </c>
+      <c r="P10" s="3">
+        <f t="shared" si="32"/>
+        <v>0.18208734270910437</v>
+      </c>
+      <c r="Q10" s="3">
+        <f t="shared" si="33"/>
+        <v>0.61991117690599551</v>
+      </c>
+      <c r="R10" s="3">
+        <f t="shared" si="34"/>
+        <v>0.13878608438193932</v>
+      </c>
+      <c r="S10" s="3">
+        <f t="shared" si="35"/>
+        <v>3.1828275351591412E-2</v>
+      </c>
+      <c r="T10" s="3">
+        <f t="shared" si="36"/>
+        <v>1.0362694300518135E-2</v>
+      </c>
+      <c r="U10" s="3">
+        <f t="shared" si="37"/>
+        <v>1.0732790525536639E-2</v>
+      </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
-      <c r="S11" s="3"/>
-      <c r="T11" s="3"/>
-      <c r="U11" s="3"/>
+      <c r="A11" s="1">
+        <v>42664</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>29</v>
+      </c>
+      <c r="F11">
+        <v>709</v>
+      </c>
+      <c r="G11" s="2">
+        <v>1525</v>
+      </c>
+      <c r="H11" s="9">
+        <v>318</v>
+      </c>
+      <c r="I11" s="9">
+        <v>62</v>
+      </c>
+      <c r="J11" s="9">
+        <v>23</v>
+      </c>
+      <c r="K11" s="9">
+        <v>36</v>
+      </c>
+      <c r="L11" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M11" s="3">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="N11" s="3">
+        <f t="shared" si="30"/>
+        <v>3.6995930447650759E-4</v>
+      </c>
+      <c r="O11" s="3">
+        <f t="shared" si="31"/>
+        <v>1.0728819829818719E-2</v>
+      </c>
+      <c r="P11" s="10">
+        <f t="shared" si="32"/>
+        <v>0.26230114687384387</v>
+      </c>
+      <c r="Q11" s="3">
+        <f t="shared" si="33"/>
+        <v>0.5641879393266741</v>
+      </c>
+      <c r="R11" s="3">
+        <f t="shared" si="34"/>
+        <v>0.11764705882352941</v>
+      </c>
+      <c r="S11" s="3">
+        <f t="shared" si="35"/>
+        <v>2.293747687754347E-2</v>
+      </c>
+      <c r="T11" s="3">
+        <f t="shared" si="36"/>
+        <v>8.5090640029596744E-3</v>
+      </c>
+      <c r="U11" s="3">
+        <f t="shared" si="37"/>
+        <v>1.3318534961154272E-2</v>
+      </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
-      <c r="S12" s="3"/>
-      <c r="T12" s="3"/>
-      <c r="U12" s="3"/>
+      <c r="A12" s="1">
+        <v>42665</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>19</v>
+      </c>
+      <c r="F12">
+        <v>503</v>
+      </c>
+      <c r="G12" s="2">
+        <v>1632</v>
+      </c>
+      <c r="H12" s="9">
+        <v>395</v>
+      </c>
+      <c r="I12" s="9">
+        <v>91</v>
+      </c>
+      <c r="J12" s="9">
+        <v>29</v>
+      </c>
+      <c r="K12" s="9">
+        <v>41</v>
+      </c>
+      <c r="L12" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M12" s="3">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="N12" s="3">
+        <f t="shared" si="30"/>
+        <v>7.3746312684365781E-4</v>
+      </c>
+      <c r="O12" s="3">
+        <f t="shared" si="31"/>
+        <v>7.0058997050147492E-3</v>
+      </c>
+      <c r="P12" s="11">
+        <f t="shared" si="32"/>
+        <v>0.18547197640117993</v>
+      </c>
+      <c r="Q12" s="11">
+        <f t="shared" si="33"/>
+        <v>0.60176991150442483</v>
+      </c>
+      <c r="R12" s="11">
+        <f t="shared" si="34"/>
+        <v>0.14564896755162243</v>
+      </c>
+      <c r="S12" s="3">
+        <f t="shared" si="35"/>
+        <v>3.3554572271386432E-2</v>
+      </c>
+      <c r="T12" s="3">
+        <f t="shared" si="36"/>
+        <v>1.0693215339233038E-2</v>
+      </c>
+      <c r="U12" s="3">
+        <f t="shared" si="37"/>
+        <v>1.5117994100294985E-2</v>
+      </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.15">
       <c r="L13" s="3"/>

--- a/趋势.xlsx
+++ b/趋势.xlsx
@@ -485,7 +485,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N12" sqref="N12"/>
+      <selection pane="bottomRight" activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -606,7 +606,7 @@
         <v>21</v>
       </c>
       <c r="L2" s="3">
-        <f t="shared" ref="L2:L12" si="0">B2/SUM($B2:$K2)</f>
+        <f t="shared" ref="L2:L13" si="0">B2/SUM($B2:$K2)</f>
         <v>0</v>
       </c>
       <c r="M2" s="3">
@@ -910,39 +910,39 @@
         <v>0</v>
       </c>
       <c r="M6" s="3">
-        <f t="shared" ref="M6:M12" si="29">C6/SUM($B6:$K6)</f>
+        <f t="shared" ref="M6:M13" si="29">C6/SUM($B6:$K6)</f>
         <v>0</v>
       </c>
       <c r="N6" s="3">
-        <f t="shared" ref="N6:N12" si="30">D6/SUM($B6:$K6)</f>
+        <f t="shared" ref="N6:N13" si="30">D6/SUM($B6:$K6)</f>
         <v>3.7064492216456633E-4</v>
       </c>
       <c r="O6" s="3">
-        <f t="shared" ref="O6:O12" si="31">E6/SUM($B6:$K6)</f>
+        <f t="shared" ref="O6:O13" si="31">E6/SUM($B6:$K6)</f>
         <v>1.5567086730911787E-2</v>
       </c>
       <c r="P6" s="3">
-        <f t="shared" ref="P6:P12" si="32">F6/SUM($B6:$K6)</f>
+        <f t="shared" ref="P6:P13" si="32">F6/SUM($B6:$K6)</f>
         <v>0.23980726464047442</v>
       </c>
       <c r="Q6" s="3">
-        <f t="shared" ref="Q6:Q12" si="33">G6/SUM($B6:$K6)</f>
+        <f t="shared" ref="Q6:Q13" si="33">G6/SUM($B6:$K6)</f>
         <v>0.56004447739065977</v>
       </c>
       <c r="R6" s="3">
-        <f t="shared" ref="R6:R12" si="34">H6/SUM($B6:$K6)</f>
+        <f t="shared" ref="R6:R13" si="34">H6/SUM($B6:$K6)</f>
         <v>0.13454410674573758</v>
       </c>
       <c r="S6" s="3">
-        <f t="shared" ref="S6:S12" si="35">I6/SUM($B6:$K6)</f>
+        <f t="shared" ref="S6:S13" si="35">I6/SUM($B6:$K6)</f>
         <v>3.039288361749444E-2</v>
       </c>
       <c r="T6" s="3">
-        <f t="shared" ref="T6:T12" si="36">J6/SUM($B6:$K6)</f>
+        <f t="shared" ref="T6:T13" si="36">J6/SUM($B6:$K6)</f>
         <v>1.1119347664936991E-2</v>
       </c>
       <c r="U6" s="3">
-        <f t="shared" ref="U6:U12" si="37">K6/SUM($B6:$K6)</f>
+        <f t="shared" ref="U6:U13" si="37">K6/SUM($B6:$K6)</f>
         <v>8.1541882876204601E-3</v>
       </c>
     </row>
@@ -1323,7 +1323,7 @@
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
-        <v>42665</v>
+        <v>42667</v>
       </c>
       <c r="B12" s="2">
         <v>0</v>
@@ -1397,16 +1397,79 @@
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
-      <c r="S13" s="3"/>
-      <c r="T13" s="3"/>
-      <c r="U13" s="3"/>
+      <c r="A13" s="1">
+        <v>42668</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <v>14</v>
+      </c>
+      <c r="F13">
+        <v>425</v>
+      </c>
+      <c r="G13" s="2">
+        <v>1704</v>
+      </c>
+      <c r="H13" s="9">
+        <v>393</v>
+      </c>
+      <c r="I13" s="9">
+        <v>99</v>
+      </c>
+      <c r="J13" s="9">
+        <v>35</v>
+      </c>
+      <c r="K13" s="9">
+        <v>42</v>
+      </c>
+      <c r="L13" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <f t="shared" si="30"/>
+        <v>1.1049723756906078E-3</v>
+      </c>
+      <c r="O13" s="3">
+        <f t="shared" si="31"/>
+        <v>5.1565377532228358E-3</v>
+      </c>
+      <c r="P13" s="3">
+        <f t="shared" si="32"/>
+        <v>0.15653775322283608</v>
+      </c>
+      <c r="Q13" s="3">
+        <f t="shared" si="33"/>
+        <v>0.62762430939226521</v>
+      </c>
+      <c r="R13" s="3">
+        <f t="shared" si="34"/>
+        <v>0.14475138121546963</v>
+      </c>
+      <c r="S13" s="3">
+        <f t="shared" si="35"/>
+        <v>3.6464088397790057E-2</v>
+      </c>
+      <c r="T13" s="3">
+        <f t="shared" si="36"/>
+        <v>1.289134438305709E-2</v>
+      </c>
+      <c r="U13" s="3">
+        <f t="shared" si="37"/>
+        <v>1.5469613259668509E-2</v>
+      </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.15">
       <c r="L14" s="3"/>

--- a/趋势.xlsx
+++ b/趋势.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="150" windowWidth="27795" windowHeight="13170" tabRatio="505"/>
+    <workbookView xWindow="480" yWindow="210" windowWidth="27795" windowHeight="13110" tabRatio="505"/>
   </bookViews>
   <sheets>
     <sheet name="趋势" sheetId="1" r:id="rId1"/>
@@ -485,7 +485,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A13" sqref="A13"/>
+      <selection pane="bottomRight" activeCell="R21" sqref="R21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -606,7 +606,7 @@
         <v>21</v>
       </c>
       <c r="L2" s="3">
-        <f t="shared" ref="L2:L13" si="0">B2/SUM($B2:$K2)</f>
+        <f t="shared" ref="L2:L14" si="0">B2/SUM($B2:$K2)</f>
         <v>0</v>
       </c>
       <c r="M2" s="3">
@@ -910,39 +910,39 @@
         <v>0</v>
       </c>
       <c r="M6" s="3">
-        <f t="shared" ref="M6:M13" si="29">C6/SUM($B6:$K6)</f>
+        <f t="shared" ref="M6:M14" si="29">C6/SUM($B6:$K6)</f>
         <v>0</v>
       </c>
       <c r="N6" s="3">
-        <f t="shared" ref="N6:N13" si="30">D6/SUM($B6:$K6)</f>
+        <f t="shared" ref="N6:N14" si="30">D6/SUM($B6:$K6)</f>
         <v>3.7064492216456633E-4</v>
       </c>
       <c r="O6" s="3">
-        <f t="shared" ref="O6:O13" si="31">E6/SUM($B6:$K6)</f>
+        <f t="shared" ref="O6:O14" si="31">E6/SUM($B6:$K6)</f>
         <v>1.5567086730911787E-2</v>
       </c>
       <c r="P6" s="3">
-        <f t="shared" ref="P6:P13" si="32">F6/SUM($B6:$K6)</f>
+        <f t="shared" ref="P6:P14" si="32">F6/SUM($B6:$K6)</f>
         <v>0.23980726464047442</v>
       </c>
       <c r="Q6" s="3">
-        <f t="shared" ref="Q6:Q13" si="33">G6/SUM($B6:$K6)</f>
+        <f t="shared" ref="Q6:Q14" si="33">G6/SUM($B6:$K6)</f>
         <v>0.56004447739065977</v>
       </c>
       <c r="R6" s="3">
-        <f t="shared" ref="R6:R13" si="34">H6/SUM($B6:$K6)</f>
+        <f t="shared" ref="R6:R14" si="34">H6/SUM($B6:$K6)</f>
         <v>0.13454410674573758</v>
       </c>
       <c r="S6" s="3">
-        <f t="shared" ref="S6:S13" si="35">I6/SUM($B6:$K6)</f>
+        <f t="shared" ref="S6:S14" si="35">I6/SUM($B6:$K6)</f>
         <v>3.039288361749444E-2</v>
       </c>
       <c r="T6" s="3">
-        <f t="shared" ref="T6:T13" si="36">J6/SUM($B6:$K6)</f>
+        <f t="shared" ref="T6:T14" si="36">J6/SUM($B6:$K6)</f>
         <v>1.1119347664936991E-2</v>
       </c>
       <c r="U6" s="3">
-        <f t="shared" ref="U6:U13" si="37">K6/SUM($B6:$K6)</f>
+        <f t="shared" ref="U6:U14" si="37">K6/SUM($B6:$K6)</f>
         <v>8.1541882876204601E-3</v>
       </c>
     </row>
@@ -1472,16 +1472,79 @@
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="3"/>
-      <c r="S14" s="3"/>
-      <c r="T14" s="3"/>
-      <c r="U14" s="3"/>
+      <c r="A14" s="1">
+        <v>42669</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>4</v>
+      </c>
+      <c r="E14">
+        <v>24</v>
+      </c>
+      <c r="F14">
+        <v>584</v>
+      </c>
+      <c r="G14" s="2">
+        <v>1618</v>
+      </c>
+      <c r="H14" s="9">
+        <v>345</v>
+      </c>
+      <c r="I14" s="9">
+        <v>82</v>
+      </c>
+      <c r="J14" s="9">
+        <v>21</v>
+      </c>
+      <c r="K14" s="9">
+        <v>42</v>
+      </c>
+      <c r="L14" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <f t="shared" si="30"/>
+        <v>1.4705882352941176E-3</v>
+      </c>
+      <c r="O14" s="3">
+        <f t="shared" si="31"/>
+        <v>8.8235294117647058E-3</v>
+      </c>
+      <c r="P14" s="10">
+        <f t="shared" si="32"/>
+        <v>0.21470588235294116</v>
+      </c>
+      <c r="Q14" s="10">
+        <f t="shared" si="33"/>
+        <v>0.59485294117647058</v>
+      </c>
+      <c r="R14" s="10">
+        <f t="shared" si="34"/>
+        <v>0.12683823529411764</v>
+      </c>
+      <c r="S14" s="3">
+        <f t="shared" si="35"/>
+        <v>3.0147058823529412E-2</v>
+      </c>
+      <c r="T14" s="10">
+        <f t="shared" si="36"/>
+        <v>7.720588235294118E-3</v>
+      </c>
+      <c r="U14" s="3">
+        <f t="shared" si="37"/>
+        <v>1.5441176470588236E-2</v>
+      </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.15">
       <c r="L15" s="3"/>

--- a/趋势.xlsx
+++ b/趋势.xlsx
@@ -64,7 +64,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -92,6 +92,15 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF00B050"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -141,7 +150,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -176,6 +185,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -485,7 +497,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R21" sqref="R21"/>
+      <selection pane="bottomRight" activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -606,7 +618,7 @@
         <v>21</v>
       </c>
       <c r="L2" s="3">
-        <f t="shared" ref="L2:L14" si="0">B2/SUM($B2:$K2)</f>
+        <f t="shared" ref="L2:L15" si="0">B2/SUM($B2:$K2)</f>
         <v>0</v>
       </c>
       <c r="M2" s="3">
@@ -910,15 +922,15 @@
         <v>0</v>
       </c>
       <c r="M6" s="3">
-        <f t="shared" ref="M6:M14" si="29">C6/SUM($B6:$K6)</f>
+        <f t="shared" ref="M6:M15" si="29">C6/SUM($B6:$K6)</f>
         <v>0</v>
       </c>
       <c r="N6" s="3">
-        <f t="shared" ref="N6:N14" si="30">D6/SUM($B6:$K6)</f>
+        <f t="shared" ref="N6:N15" si="30">D6/SUM($B6:$K6)</f>
         <v>3.7064492216456633E-4</v>
       </c>
       <c r="O6" s="3">
-        <f t="shared" ref="O6:O14" si="31">E6/SUM($B6:$K6)</f>
+        <f t="shared" ref="O6:P15" si="31">E6/SUM($B6:$K6)</f>
         <v>1.5567086730911787E-2</v>
       </c>
       <c r="P6" s="3">
@@ -926,23 +938,23 @@
         <v>0.23980726464047442</v>
       </c>
       <c r="Q6" s="3">
-        <f t="shared" ref="Q6:Q14" si="33">G6/SUM($B6:$K6)</f>
+        <f t="shared" ref="Q6:Q15" si="33">G6/SUM($B6:$K6)</f>
         <v>0.56004447739065977</v>
       </c>
       <c r="R6" s="3">
-        <f t="shared" ref="R6:R14" si="34">H6/SUM($B6:$K6)</f>
+        <f t="shared" ref="R6:R15" si="34">H6/SUM($B6:$K6)</f>
         <v>0.13454410674573758</v>
       </c>
       <c r="S6" s="3">
-        <f t="shared" ref="S6:S14" si="35">I6/SUM($B6:$K6)</f>
+        <f t="shared" ref="S6:S15" si="35">I6/SUM($B6:$K6)</f>
         <v>3.039288361749444E-2</v>
       </c>
       <c r="T6" s="3">
-        <f t="shared" ref="T6:T14" si="36">J6/SUM($B6:$K6)</f>
+        <f t="shared" ref="T6:T15" si="36">J6/SUM($B6:$K6)</f>
         <v>1.1119347664936991E-2</v>
       </c>
       <c r="U6" s="3">
-        <f t="shared" ref="U6:U14" si="37">K6/SUM($B6:$K6)</f>
+        <f t="shared" ref="U6:U15" si="37">K6/SUM($B6:$K6)</f>
         <v>8.1541882876204601E-3</v>
       </c>
     </row>
@@ -1547,16 +1559,79 @@
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
-      <c r="S15" s="3"/>
-      <c r="T15" s="3"/>
-      <c r="U15" s="3"/>
+      <c r="A15" s="1">
+        <v>42670</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="E15">
+        <v>31</v>
+      </c>
+      <c r="F15">
+        <v>644</v>
+      </c>
+      <c r="G15" s="2">
+        <v>1564</v>
+      </c>
+      <c r="H15" s="9">
+        <v>330</v>
+      </c>
+      <c r="I15" s="9">
+        <v>85</v>
+      </c>
+      <c r="J15" s="9">
+        <v>27</v>
+      </c>
+      <c r="K15" s="9">
+        <v>35</v>
+      </c>
+      <c r="L15" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M15" s="12">
+        <f t="shared" si="29"/>
+        <v>3.6764705882352941E-4</v>
+      </c>
+      <c r="N15" s="3">
+        <f t="shared" si="30"/>
+        <v>1.1029411764705882E-3</v>
+      </c>
+      <c r="O15" s="3">
+        <f t="shared" si="31"/>
+        <v>1.1397058823529411E-2</v>
+      </c>
+      <c r="P15" s="3">
+        <f t="shared" si="31"/>
+        <v>0.23676470588235293</v>
+      </c>
+      <c r="Q15" s="3">
+        <f t="shared" si="33"/>
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="R15" s="3">
+        <f t="shared" si="34"/>
+        <v>0.12132352941176471</v>
+      </c>
+      <c r="S15" s="3">
+        <f t="shared" si="35"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="T15" s="3">
+        <f t="shared" si="36"/>
+        <v>9.9264705882352935E-3</v>
+      </c>
+      <c r="U15" s="3">
+        <f t="shared" si="37"/>
+        <v>1.2867647058823529E-2</v>
+      </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.15">
       <c r="L16" s="3"/>

--- a/趋势.xlsx
+++ b/趋势.xlsx
@@ -497,7 +497,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M15" sqref="M15"/>
+      <selection pane="bottomRight" activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -618,7 +618,7 @@
         <v>21</v>
       </c>
       <c r="L2" s="3">
-        <f t="shared" ref="L2:L15" si="0">B2/SUM($B2:$K2)</f>
+        <f t="shared" ref="L2:L16" si="0">B2/SUM($B2:$K2)</f>
         <v>0</v>
       </c>
       <c r="M2" s="3">
@@ -922,15 +922,15 @@
         <v>0</v>
       </c>
       <c r="M6" s="3">
-        <f t="shared" ref="M6:M15" si="29">C6/SUM($B6:$K6)</f>
+        <f t="shared" ref="M6:M16" si="29">C6/SUM($B6:$K6)</f>
         <v>0</v>
       </c>
       <c r="N6" s="3">
-        <f t="shared" ref="N6:N15" si="30">D6/SUM($B6:$K6)</f>
+        <f t="shared" ref="N6:N16" si="30">D6/SUM($B6:$K6)</f>
         <v>3.7064492216456633E-4</v>
       </c>
       <c r="O6" s="3">
-        <f t="shared" ref="O6:P15" si="31">E6/SUM($B6:$K6)</f>
+        <f t="shared" ref="O6:P16" si="31">E6/SUM($B6:$K6)</f>
         <v>1.5567086730911787E-2</v>
       </c>
       <c r="P6" s="3">
@@ -938,23 +938,23 @@
         <v>0.23980726464047442</v>
       </c>
       <c r="Q6" s="3">
-        <f t="shared" ref="Q6:Q15" si="33">G6/SUM($B6:$K6)</f>
+        <f t="shared" ref="Q6:Q16" si="33">G6/SUM($B6:$K6)</f>
         <v>0.56004447739065977</v>
       </c>
       <c r="R6" s="3">
-        <f t="shared" ref="R6:R15" si="34">H6/SUM($B6:$K6)</f>
+        <f t="shared" ref="R6:R16" si="34">H6/SUM($B6:$K6)</f>
         <v>0.13454410674573758</v>
       </c>
       <c r="S6" s="3">
-        <f t="shared" ref="S6:S15" si="35">I6/SUM($B6:$K6)</f>
+        <f t="shared" ref="S6:S16" si="35">I6/SUM($B6:$K6)</f>
         <v>3.039288361749444E-2</v>
       </c>
       <c r="T6" s="3">
-        <f t="shared" ref="T6:T15" si="36">J6/SUM($B6:$K6)</f>
+        <f t="shared" ref="T6:T16" si="36">J6/SUM($B6:$K6)</f>
         <v>1.1119347664936991E-2</v>
       </c>
       <c r="U6" s="3">
-        <f t="shared" ref="U6:U15" si="37">K6/SUM($B6:$K6)</f>
+        <f t="shared" ref="U6:U16" si="37">K6/SUM($B6:$K6)</f>
         <v>8.1541882876204601E-3</v>
       </c>
     </row>
@@ -1634,16 +1634,79 @@
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="3"/>
-      <c r="S16" s="3"/>
-      <c r="T16" s="3"/>
-      <c r="U16" s="3"/>
+      <c r="A16" s="1">
+        <v>42671</v>
+      </c>
+      <c r="B16" s="2">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>4</v>
+      </c>
+      <c r="E16">
+        <v>58</v>
+      </c>
+      <c r="F16">
+        <v>1040</v>
+      </c>
+      <c r="G16" s="2">
+        <v>1275</v>
+      </c>
+      <c r="H16" s="9">
+        <v>243</v>
+      </c>
+      <c r="I16" s="9">
+        <v>59</v>
+      </c>
+      <c r="J16" s="9">
+        <v>19</v>
+      </c>
+      <c r="K16" s="9">
+        <v>22</v>
+      </c>
+      <c r="L16" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M16" s="3">
+        <f t="shared" si="29"/>
+        <v>3.6751194413818452E-4</v>
+      </c>
+      <c r="N16" s="3">
+        <f t="shared" si="30"/>
+        <v>1.4700477765527381E-3</v>
+      </c>
+      <c r="O16" s="12">
+        <f t="shared" si="31"/>
+        <v>2.1315692760014701E-2</v>
+      </c>
+      <c r="P16" s="12">
+        <f t="shared" si="31"/>
+        <v>0.38221242190371185</v>
+      </c>
+      <c r="Q16" s="12">
+        <f t="shared" si="33"/>
+        <v>0.4685777287761852</v>
+      </c>
+      <c r="R16" s="12">
+        <f t="shared" si="34"/>
+        <v>8.9305402425578828E-2</v>
+      </c>
+      <c r="S16" s="12">
+        <f t="shared" si="35"/>
+        <v>2.1683204704152886E-2</v>
+      </c>
+      <c r="T16" s="3">
+        <f t="shared" si="36"/>
+        <v>6.9827269386255053E-3</v>
+      </c>
+      <c r="U16" s="3">
+        <f t="shared" si="37"/>
+        <v>8.0852627710400592E-3</v>
+      </c>
     </row>
     <row r="17" spans="12:21" x14ac:dyDescent="0.15">
       <c r="L17" s="3"/>

--- a/趋势.xlsx
+++ b/趋势.xlsx
@@ -497,7 +497,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O23" sqref="O23"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -618,7 +618,7 @@
         <v>21</v>
       </c>
       <c r="L2" s="3">
-        <f t="shared" ref="L2:L16" si="0">B2/SUM($B2:$K2)</f>
+        <f t="shared" ref="L2:L17" si="0">B2/SUM($B2:$K2)</f>
         <v>0</v>
       </c>
       <c r="M2" s="3">
@@ -922,15 +922,15 @@
         <v>0</v>
       </c>
       <c r="M6" s="3">
-        <f t="shared" ref="M6:M16" si="29">C6/SUM($B6:$K6)</f>
+        <f t="shared" ref="M6:M17" si="29">C6/SUM($B6:$K6)</f>
         <v>0</v>
       </c>
       <c r="N6" s="3">
-        <f t="shared" ref="N6:N16" si="30">D6/SUM($B6:$K6)</f>
+        <f t="shared" ref="N6:N17" si="30">D6/SUM($B6:$K6)</f>
         <v>3.7064492216456633E-4</v>
       </c>
       <c r="O6" s="3">
-        <f t="shared" ref="O6:P16" si="31">E6/SUM($B6:$K6)</f>
+        <f t="shared" ref="O6:P17" si="31">E6/SUM($B6:$K6)</f>
         <v>1.5567086730911787E-2</v>
       </c>
       <c r="P6" s="3">
@@ -938,23 +938,23 @@
         <v>0.23980726464047442</v>
       </c>
       <c r="Q6" s="3">
-        <f t="shared" ref="Q6:Q16" si="33">G6/SUM($B6:$K6)</f>
+        <f t="shared" ref="Q6:Q17" si="33">G6/SUM($B6:$K6)</f>
         <v>0.56004447739065977</v>
       </c>
       <c r="R6" s="3">
-        <f t="shared" ref="R6:R16" si="34">H6/SUM($B6:$K6)</f>
+        <f t="shared" ref="R6:R17" si="34">H6/SUM($B6:$K6)</f>
         <v>0.13454410674573758</v>
       </c>
       <c r="S6" s="3">
-        <f t="shared" ref="S6:S16" si="35">I6/SUM($B6:$K6)</f>
+        <f t="shared" ref="S6:S17" si="35">I6/SUM($B6:$K6)</f>
         <v>3.039288361749444E-2</v>
       </c>
       <c r="T6" s="3">
-        <f t="shared" ref="T6:T16" si="36">J6/SUM($B6:$K6)</f>
+        <f t="shared" ref="T6:T17" si="36">J6/SUM($B6:$K6)</f>
         <v>1.1119347664936991E-2</v>
       </c>
       <c r="U6" s="3">
-        <f t="shared" ref="U6:U16" si="37">K6/SUM($B6:$K6)</f>
+        <f t="shared" ref="U6:U17" si="37">K6/SUM($B6:$K6)</f>
         <v>8.1541882876204601E-3</v>
       </c>
     </row>
@@ -1708,19 +1708,82 @@
         <v>8.0852627710400592E-3</v>
       </c>
     </row>
-    <row r="17" spans="12:21" x14ac:dyDescent="0.15">
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="3"/>
-      <c r="S17" s="3"/>
-      <c r="T17" s="3"/>
-      <c r="U17" s="3"/>
-    </row>
-    <row r="18" spans="12:21" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A17" s="1">
+        <v>42674</v>
+      </c>
+      <c r="B17" s="2">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>9</v>
+      </c>
+      <c r="E17">
+        <v>91</v>
+      </c>
+      <c r="F17">
+        <v>1186</v>
+      </c>
+      <c r="G17" s="2">
+        <v>1113</v>
+      </c>
+      <c r="H17" s="9">
+        <v>215</v>
+      </c>
+      <c r="I17" s="9">
+        <v>56</v>
+      </c>
+      <c r="J17" s="9">
+        <v>34</v>
+      </c>
+      <c r="K17" s="9">
+        <v>15</v>
+      </c>
+      <c r="L17" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M17" s="12">
+        <f t="shared" si="29"/>
+        <v>7.3502388827636903E-4</v>
+      </c>
+      <c r="N17" s="12">
+        <f t="shared" si="30"/>
+        <v>3.3076074972436605E-3</v>
+      </c>
+      <c r="O17" s="12">
+        <f t="shared" si="31"/>
+        <v>3.3443586916574786E-2</v>
+      </c>
+      <c r="P17" s="12">
+        <f t="shared" ref="P17" si="38">F17/SUM($B17:$K17)</f>
+        <v>0.43586916574788681</v>
+      </c>
+      <c r="Q17" s="12">
+        <f t="shared" si="33"/>
+        <v>0.40904079382579933</v>
+      </c>
+      <c r="R17" s="12">
+        <f t="shared" si="34"/>
+        <v>7.901506798970967E-2</v>
+      </c>
+      <c r="S17" s="12">
+        <f>I17/SUM($B17:$K17)</f>
+        <v>2.0580668871738331E-2</v>
+      </c>
+      <c r="T17" s="12">
+        <f t="shared" si="36"/>
+        <v>1.2495406100698273E-2</v>
+      </c>
+      <c r="U17" s="3">
+        <f t="shared" si="37"/>
+        <v>5.512679162072767E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.15">
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
@@ -1732,7 +1795,7 @@
       <c r="T18" s="3"/>
       <c r="U18" s="3"/>
     </row>
-    <row r="19" spans="12:21" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.15">
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
@@ -1744,7 +1807,7 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
     </row>
-    <row r="20" spans="12:21" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.15">
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
@@ -1756,7 +1819,7 @@
       <c r="T20" s="3"/>
       <c r="U20" s="3"/>
     </row>
-    <row r="21" spans="12:21" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.15">
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
@@ -1768,7 +1831,7 @@
       <c r="T21" s="3"/>
       <c r="U21" s="3"/>
     </row>
-    <row r="22" spans="12:21" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.15">
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
@@ -1780,7 +1843,7 @@
       <c r="T22" s="3"/>
       <c r="U22" s="3"/>
     </row>
-    <row r="23" spans="12:21" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.15">
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
@@ -1792,7 +1855,7 @@
       <c r="T23" s="3"/>
       <c r="U23" s="3"/>
     </row>
-    <row r="24" spans="12:21" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.15">
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
@@ -1804,7 +1867,7 @@
       <c r="T24" s="3"/>
       <c r="U24" s="3"/>
     </row>
-    <row r="25" spans="12:21" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.15">
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
@@ -1816,7 +1879,7 @@
       <c r="T25" s="3"/>
       <c r="U25" s="3"/>
     </row>
-    <row r="26" spans="12:21" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.15">
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
@@ -1828,7 +1891,7 @@
       <c r="T26" s="3"/>
       <c r="U26" s="3"/>
     </row>
-    <row r="27" spans="12:21" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.15">
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
@@ -1840,7 +1903,7 @@
       <c r="T27" s="3"/>
       <c r="U27" s="3"/>
     </row>
-    <row r="28" spans="12:21" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.15">
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
@@ -1852,7 +1915,7 @@
       <c r="T28" s="3"/>
       <c r="U28" s="3"/>
     </row>
-    <row r="29" spans="12:21" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.15">
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
@@ -1864,7 +1927,7 @@
       <c r="T29" s="3"/>
       <c r="U29" s="3"/>
     </row>
-    <row r="30" spans="12:21" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.15">
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
       <c r="N30" s="3"/>
@@ -1876,7 +1939,7 @@
       <c r="T30" s="3"/>
       <c r="U30" s="3"/>
     </row>
-    <row r="31" spans="12:21" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.15">
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
@@ -1888,7 +1951,7 @@
       <c r="T31" s="3"/>
       <c r="U31" s="3"/>
     </row>
-    <row r="32" spans="12:21" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.15">
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
       <c r="N32" s="3"/>

--- a/趋势.xlsx
+++ b/趋势.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="210" windowWidth="27795" windowHeight="13110" tabRatio="505"/>
+    <workbookView xWindow="480" yWindow="270" windowWidth="27795" windowHeight="13050" tabRatio="505"/>
   </bookViews>
   <sheets>
     <sheet name="趋势" sheetId="1" r:id="rId1"/>
@@ -497,7 +497,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -618,7 +618,7 @@
         <v>21</v>
       </c>
       <c r="L2" s="3">
-        <f t="shared" ref="L2:L17" si="0">B2/SUM($B2:$K2)</f>
+        <f t="shared" ref="L2:L19" si="0">B2/SUM($B2:$K2)</f>
         <v>0</v>
       </c>
       <c r="M2" s="3">
@@ -922,15 +922,15 @@
         <v>0</v>
       </c>
       <c r="M6" s="3">
-        <f t="shared" ref="M6:M17" si="29">C6/SUM($B6:$K6)</f>
+        <f t="shared" ref="M6:M19" si="29">C6/SUM($B6:$K6)</f>
         <v>0</v>
       </c>
       <c r="N6" s="3">
-        <f t="shared" ref="N6:N17" si="30">D6/SUM($B6:$K6)</f>
+        <f t="shared" ref="N6:N19" si="30">D6/SUM($B6:$K6)</f>
         <v>3.7064492216456633E-4</v>
       </c>
       <c r="O6" s="3">
-        <f t="shared" ref="O6:P17" si="31">E6/SUM($B6:$K6)</f>
+        <f t="shared" ref="O6:P19" si="31">E6/SUM($B6:$K6)</f>
         <v>1.5567086730911787E-2</v>
       </c>
       <c r="P6" s="3">
@@ -938,23 +938,23 @@
         <v>0.23980726464047442</v>
       </c>
       <c r="Q6" s="3">
-        <f t="shared" ref="Q6:Q17" si="33">G6/SUM($B6:$K6)</f>
+        <f t="shared" ref="Q6:Q19" si="33">G6/SUM($B6:$K6)</f>
         <v>0.56004447739065977</v>
       </c>
       <c r="R6" s="3">
-        <f t="shared" ref="R6:R17" si="34">H6/SUM($B6:$K6)</f>
+        <f t="shared" ref="R6:R19" si="34">H6/SUM($B6:$K6)</f>
         <v>0.13454410674573758</v>
       </c>
       <c r="S6" s="3">
-        <f t="shared" ref="S6:S17" si="35">I6/SUM($B6:$K6)</f>
+        <f t="shared" ref="S6:S16" si="35">I6/SUM($B6:$K6)</f>
         <v>3.039288361749444E-2</v>
       </c>
       <c r="T6" s="3">
-        <f t="shared" ref="T6:T17" si="36">J6/SUM($B6:$K6)</f>
+        <f t="shared" ref="T6:T19" si="36">J6/SUM($B6:$K6)</f>
         <v>1.1119347664936991E-2</v>
       </c>
       <c r="U6" s="3">
-        <f t="shared" ref="U6:U17" si="37">K6/SUM($B6:$K6)</f>
+        <f t="shared" ref="U6:U19" si="37">K6/SUM($B6:$K6)</f>
         <v>8.1541882876204601E-3</v>
       </c>
     </row>
@@ -1759,7 +1759,7 @@
         <v>3.3443586916574786E-2</v>
       </c>
       <c r="P17" s="12">
-        <f t="shared" ref="P17" si="38">F17/SUM($B17:$K17)</f>
+        <f t="shared" ref="P17:P19" si="38">F17/SUM($B17:$K17)</f>
         <v>0.43586916574788681</v>
       </c>
       <c r="Q17" s="12">
@@ -1784,28 +1784,154 @@
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="3"/>
-      <c r="S18" s="3"/>
-      <c r="T18" s="3"/>
-      <c r="U18" s="3"/>
+      <c r="A18" s="1">
+        <v>42675</v>
+      </c>
+      <c r="B18" s="2">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>9</v>
+      </c>
+      <c r="E18">
+        <v>38</v>
+      </c>
+      <c r="F18">
+        <v>907</v>
+      </c>
+      <c r="G18" s="2">
+        <v>1324</v>
+      </c>
+      <c r="H18" s="9">
+        <v>314</v>
+      </c>
+      <c r="I18" s="9">
+        <v>70</v>
+      </c>
+      <c r="J18" s="9">
+        <v>33</v>
+      </c>
+      <c r="K18" s="9">
+        <v>31</v>
+      </c>
+      <c r="L18" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="N18" s="3">
+        <f t="shared" si="30"/>
+        <v>3.301540719002201E-3</v>
+      </c>
+      <c r="O18" s="11">
+        <f t="shared" si="31"/>
+        <v>1.3939838591342627E-2</v>
+      </c>
+      <c r="P18" s="11">
+        <f t="shared" si="38"/>
+        <v>0.33272193690388846</v>
+      </c>
+      <c r="Q18" s="11">
+        <f t="shared" si="33"/>
+        <v>0.48569332355099049</v>
+      </c>
+      <c r="R18" s="11">
+        <f t="shared" si="34"/>
+        <v>0.11518708730741012</v>
+      </c>
+      <c r="S18" s="3">
+        <f>I18/SUM($B18:$K18)</f>
+        <v>2.5678650036683785E-2</v>
+      </c>
+      <c r="T18" s="3">
+        <f t="shared" si="36"/>
+        <v>1.210564930300807E-2</v>
+      </c>
+      <c r="U18" s="11">
+        <f t="shared" si="37"/>
+        <v>1.1371973587674248E-2</v>
+      </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="3"/>
-      <c r="S19" s="3"/>
-      <c r="T19" s="3"/>
-      <c r="U19" s="3"/>
+      <c r="A19" s="1">
+        <v>42676</v>
+      </c>
+      <c r="B19" s="2">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>11</v>
+      </c>
+      <c r="E19">
+        <v>77</v>
+      </c>
+      <c r="F19">
+        <v>1226</v>
+      </c>
+      <c r="G19" s="2">
+        <v>1035</v>
+      </c>
+      <c r="H19" s="9">
+        <v>243</v>
+      </c>
+      <c r="I19" s="9">
+        <v>61</v>
+      </c>
+      <c r="J19" s="9">
+        <v>29</v>
+      </c>
+      <c r="K19" s="9">
+        <v>36</v>
+      </c>
+      <c r="L19" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M19" s="3">
+        <f t="shared" si="29"/>
+        <v>3.677822728944465E-4</v>
+      </c>
+      <c r="N19" s="3">
+        <f t="shared" si="30"/>
+        <v>4.0456050018389117E-3</v>
+      </c>
+      <c r="O19" s="12">
+        <f t="shared" si="31"/>
+        <v>2.8319235012872378E-2</v>
+      </c>
+      <c r="P19" s="12">
+        <f t="shared" si="38"/>
+        <v>0.45090106656859141</v>
+      </c>
+      <c r="Q19" s="12">
+        <f t="shared" si="33"/>
+        <v>0.38065465244575214</v>
+      </c>
+      <c r="R19" s="12">
+        <f t="shared" si="34"/>
+        <v>8.9371092313350498E-2</v>
+      </c>
+      <c r="S19" s="3">
+        <f>I19/SUM($B19:$K19)</f>
+        <v>2.2434718646561234E-2</v>
+      </c>
+      <c r="T19" s="3">
+        <f t="shared" si="36"/>
+        <v>1.0665685913938948E-2</v>
+      </c>
+      <c r="U19" s="3">
+        <f t="shared" si="37"/>
+        <v>1.3240161824200073E-2</v>
+      </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.15">
       <c r="L20" s="3"/>

--- a/趋势.xlsx
+++ b/趋势.xlsx
@@ -64,7 +64,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -103,6 +103,14 @@
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -150,7 +158,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -188,6 +196,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -497,7 +508,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D22" sqref="D22"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -618,7 +629,7 @@
         <v>21</v>
       </c>
       <c r="L2" s="3">
-        <f t="shared" ref="L2:L19" si="0">B2/SUM($B2:$K2)</f>
+        <f t="shared" ref="L2:L20" si="0">B2/SUM($B2:$K2)</f>
         <v>0</v>
       </c>
       <c r="M2" s="3">
@@ -922,15 +933,15 @@
         <v>0</v>
       </c>
       <c r="M6" s="3">
-        <f t="shared" ref="M6:M19" si="29">C6/SUM($B6:$K6)</f>
+        <f t="shared" ref="M6:M20" si="29">C6/SUM($B6:$K6)</f>
         <v>0</v>
       </c>
       <c r="N6" s="3">
-        <f t="shared" ref="N6:N19" si="30">D6/SUM($B6:$K6)</f>
+        <f t="shared" ref="N6:N20" si="30">D6/SUM($B6:$K6)</f>
         <v>3.7064492216456633E-4</v>
       </c>
       <c r="O6" s="3">
-        <f t="shared" ref="O6:P19" si="31">E6/SUM($B6:$K6)</f>
+        <f t="shared" ref="O6:P20" si="31">E6/SUM($B6:$K6)</f>
         <v>1.5567086730911787E-2</v>
       </c>
       <c r="P6" s="3">
@@ -938,11 +949,11 @@
         <v>0.23980726464047442</v>
       </c>
       <c r="Q6" s="3">
-        <f t="shared" ref="Q6:Q19" si="33">G6/SUM($B6:$K6)</f>
+        <f t="shared" ref="Q6:Q20" si="33">G6/SUM($B6:$K6)</f>
         <v>0.56004447739065977</v>
       </c>
       <c r="R6" s="3">
-        <f t="shared" ref="R6:R19" si="34">H6/SUM($B6:$K6)</f>
+        <f t="shared" ref="R6:R20" si="34">H6/SUM($B6:$K6)</f>
         <v>0.13454410674573758</v>
       </c>
       <c r="S6" s="3">
@@ -950,11 +961,11 @@
         <v>3.039288361749444E-2</v>
       </c>
       <c r="T6" s="3">
-        <f t="shared" ref="T6:T19" si="36">J6/SUM($B6:$K6)</f>
+        <f t="shared" ref="T6:T20" si="36">J6/SUM($B6:$K6)</f>
         <v>1.1119347664936991E-2</v>
       </c>
       <c r="U6" s="3">
-        <f t="shared" ref="U6:U19" si="37">K6/SUM($B6:$K6)</f>
+        <f t="shared" ref="U6:U20" si="37">K6/SUM($B6:$K6)</f>
         <v>8.1541882876204601E-3</v>
       </c>
     </row>
@@ -1759,7 +1770,7 @@
         <v>3.3443586916574786E-2</v>
       </c>
       <c r="P17" s="12">
-        <f t="shared" ref="P17:P19" si="38">F17/SUM($B17:$K17)</f>
+        <f t="shared" ref="P17:P20" si="38">F17/SUM($B17:$K17)</f>
         <v>0.43586916574788681</v>
       </c>
       <c r="Q17" s="12">
@@ -1934,16 +1945,79 @@
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="3"/>
-      <c r="S20" s="3"/>
-      <c r="T20" s="3"/>
-      <c r="U20" s="3"/>
+      <c r="A20" s="1">
+        <v>42677</v>
+      </c>
+      <c r="B20" s="2">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>7</v>
+      </c>
+      <c r="E20">
+        <v>66</v>
+      </c>
+      <c r="F20">
+        <v>1091</v>
+      </c>
+      <c r="G20" s="2">
+        <v>1163</v>
+      </c>
+      <c r="H20" s="9">
+        <v>246</v>
+      </c>
+      <c r="I20" s="9">
+        <v>81</v>
+      </c>
+      <c r="J20" s="9">
+        <v>34</v>
+      </c>
+      <c r="K20" s="9">
+        <v>43</v>
+      </c>
+      <c r="L20" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
+        <f t="shared" si="29"/>
+        <v>3.6603221083455345E-4</v>
+      </c>
+      <c r="N20" s="3">
+        <f t="shared" si="30"/>
+        <v>2.5622254758418742E-3</v>
+      </c>
+      <c r="O20" s="3">
+        <f t="shared" si="31"/>
+        <v>2.4158125915080528E-2</v>
+      </c>
+      <c r="P20" s="13">
+        <f t="shared" si="38"/>
+        <v>0.39934114202049781</v>
+      </c>
+      <c r="Q20" s="13">
+        <f t="shared" si="33"/>
+        <v>0.42569546120058566</v>
+      </c>
+      <c r="R20" s="13">
+        <f t="shared" si="34"/>
+        <v>9.0043923865300149E-2</v>
+      </c>
+      <c r="S20" s="3">
+        <f>I20/SUM($B20:$K20)</f>
+        <v>2.964860907759883E-2</v>
+      </c>
+      <c r="T20" s="3">
+        <f t="shared" si="36"/>
+        <v>1.2445095168374817E-2</v>
+      </c>
+      <c r="U20" s="3">
+        <f t="shared" si="37"/>
+        <v>1.5739385065885798E-2</v>
+      </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.15">
       <c r="L21" s="3"/>

--- a/趋势.xlsx
+++ b/趋势.xlsx
@@ -508,7 +508,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -629,7 +629,7 @@
         <v>21</v>
       </c>
       <c r="L2" s="3">
-        <f t="shared" ref="L2:L20" si="0">B2/SUM($B2:$K2)</f>
+        <f t="shared" ref="L2:L21" si="0">B2/SUM($B2:$K2)</f>
         <v>0</v>
       </c>
       <c r="M2" s="3">
@@ -933,15 +933,15 @@
         <v>0</v>
       </c>
       <c r="M6" s="3">
-        <f t="shared" ref="M6:M20" si="29">C6/SUM($B6:$K6)</f>
+        <f t="shared" ref="M6:M21" si="29">C6/SUM($B6:$K6)</f>
         <v>0</v>
       </c>
       <c r="N6" s="3">
-        <f t="shared" ref="N6:N20" si="30">D6/SUM($B6:$K6)</f>
+        <f t="shared" ref="N6:N21" si="30">D6/SUM($B6:$K6)</f>
         <v>3.7064492216456633E-4</v>
       </c>
       <c r="O6" s="3">
-        <f t="shared" ref="O6:P20" si="31">E6/SUM($B6:$K6)</f>
+        <f t="shared" ref="O6:P21" si="31">E6/SUM($B6:$K6)</f>
         <v>1.5567086730911787E-2</v>
       </c>
       <c r="P6" s="3">
@@ -949,11 +949,11 @@
         <v>0.23980726464047442</v>
       </c>
       <c r="Q6" s="3">
-        <f t="shared" ref="Q6:Q20" si="33">G6/SUM($B6:$K6)</f>
+        <f t="shared" ref="Q6:Q21" si="33">G6/SUM($B6:$K6)</f>
         <v>0.56004447739065977</v>
       </c>
       <c r="R6" s="3">
-        <f t="shared" ref="R6:R20" si="34">H6/SUM($B6:$K6)</f>
+        <f t="shared" ref="R6:R21" si="34">H6/SUM($B6:$K6)</f>
         <v>0.13454410674573758</v>
       </c>
       <c r="S6" s="3">
@@ -961,11 +961,11 @@
         <v>3.039288361749444E-2</v>
       </c>
       <c r="T6" s="3">
-        <f t="shared" ref="T6:T20" si="36">J6/SUM($B6:$K6)</f>
+        <f t="shared" ref="T6:T21" si="36">J6/SUM($B6:$K6)</f>
         <v>1.1119347664936991E-2</v>
       </c>
       <c r="U6" s="3">
-        <f t="shared" ref="U6:U20" si="37">K6/SUM($B6:$K6)</f>
+        <f t="shared" ref="U6:U21" si="37">K6/SUM($B6:$K6)</f>
         <v>8.1541882876204601E-3</v>
       </c>
     </row>
@@ -1770,7 +1770,7 @@
         <v>3.3443586916574786E-2</v>
       </c>
       <c r="P17" s="12">
-        <f t="shared" ref="P17:P20" si="38">F17/SUM($B17:$K17)</f>
+        <f t="shared" ref="P17:P21" si="38">F17/SUM($B17:$K17)</f>
         <v>0.43586916574788681</v>
       </c>
       <c r="Q17" s="12">
@@ -2020,16 +2020,79 @@
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="3"/>
-      <c r="R21" s="3"/>
-      <c r="S21" s="3"/>
-      <c r="T21" s="3"/>
-      <c r="U21" s="3"/>
+      <c r="A21" s="1">
+        <v>42678</v>
+      </c>
+      <c r="B21" s="2">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>9</v>
+      </c>
+      <c r="E21">
+        <v>95</v>
+      </c>
+      <c r="F21">
+        <v>1164</v>
+      </c>
+      <c r="G21" s="2">
+        <v>1044</v>
+      </c>
+      <c r="H21" s="9">
+        <v>274</v>
+      </c>
+      <c r="I21" s="9">
+        <v>79</v>
+      </c>
+      <c r="J21" s="9">
+        <v>26</v>
+      </c>
+      <c r="K21" s="9">
+        <v>43</v>
+      </c>
+      <c r="L21" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M21" s="3">
+        <f t="shared" si="29"/>
+        <v>3.6563071297989033E-4</v>
+      </c>
+      <c r="N21" s="3">
+        <f t="shared" si="30"/>
+        <v>3.2906764168190127E-3</v>
+      </c>
+      <c r="O21" s="3">
+        <f t="shared" si="31"/>
+        <v>3.4734917733089579E-2</v>
+      </c>
+      <c r="P21" s="3">
+        <f t="shared" si="38"/>
+        <v>0.42559414990859235</v>
+      </c>
+      <c r="Q21" s="3">
+        <f t="shared" si="33"/>
+        <v>0.38171846435100548</v>
+      </c>
+      <c r="R21" s="3">
+        <f t="shared" si="34"/>
+        <v>0.10018281535648994</v>
+      </c>
+      <c r="S21" s="3">
+        <f>I21/SUM($B21:$K21)</f>
+        <v>2.8884826325411336E-2</v>
+      </c>
+      <c r="T21" s="3">
+        <f t="shared" si="36"/>
+        <v>9.5063985374771488E-3</v>
+      </c>
+      <c r="U21" s="3">
+        <f t="shared" si="37"/>
+        <v>1.5722120658135285E-2</v>
+      </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.15">
       <c r="L22" s="3"/>

--- a/趋势.xlsx
+++ b/趋势.xlsx
@@ -508,7 +508,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N24" sqref="N24"/>
+      <selection pane="bottomRight" activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -629,7 +629,7 @@
         <v>21</v>
       </c>
       <c r="L2" s="3">
-        <f t="shared" ref="L2:L21" si="0">B2/SUM($B2:$K2)</f>
+        <f t="shared" ref="L2:L22" si="0">B2/SUM($B2:$K2)</f>
         <v>0</v>
       </c>
       <c r="M2" s="3">
@@ -933,11 +933,11 @@
         <v>0</v>
       </c>
       <c r="M6" s="3">
-        <f t="shared" ref="M6:M21" si="29">C6/SUM($B6:$K6)</f>
+        <f t="shared" ref="M6:M22" si="29">C6/SUM($B6:$K6)</f>
         <v>0</v>
       </c>
       <c r="N6" s="3">
-        <f t="shared" ref="N6:N21" si="30">D6/SUM($B6:$K6)</f>
+        <f t="shared" ref="N6:N22" si="30">D6/SUM($B6:$K6)</f>
         <v>3.7064492216456633E-4</v>
       </c>
       <c r="O6" s="3">
@@ -949,11 +949,11 @@
         <v>0.23980726464047442</v>
       </c>
       <c r="Q6" s="3">
-        <f t="shared" ref="Q6:Q21" si="33">G6/SUM($B6:$K6)</f>
+        <f t="shared" ref="Q6:Q22" si="33">G6/SUM($B6:$K6)</f>
         <v>0.56004447739065977</v>
       </c>
       <c r="R6" s="3">
-        <f t="shared" ref="R6:R21" si="34">H6/SUM($B6:$K6)</f>
+        <f t="shared" ref="R6:R22" si="34">H6/SUM($B6:$K6)</f>
         <v>0.13454410674573758</v>
       </c>
       <c r="S6" s="3">
@@ -961,11 +961,11 @@
         <v>3.039288361749444E-2</v>
       </c>
       <c r="T6" s="3">
-        <f t="shared" ref="T6:T21" si="36">J6/SUM($B6:$K6)</f>
+        <f t="shared" ref="T6:T22" si="36">J6/SUM($B6:$K6)</f>
         <v>1.1119347664936991E-2</v>
       </c>
       <c r="U6" s="3">
-        <f t="shared" ref="U6:U21" si="37">K6/SUM($B6:$K6)</f>
+        <f t="shared" ref="U6:U22" si="37">K6/SUM($B6:$K6)</f>
         <v>8.1541882876204601E-3</v>
       </c>
     </row>
@@ -1770,7 +1770,7 @@
         <v>3.3443586916574786E-2</v>
       </c>
       <c r="P17" s="12">
-        <f t="shared" ref="P17:P21" si="38">F17/SUM($B17:$K17)</f>
+        <f t="shared" ref="P17:P22" si="38">F17/SUM($B17:$K17)</f>
         <v>0.43586916574788681</v>
       </c>
       <c r="Q17" s="12">
@@ -2095,16 +2095,79 @@
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="3"/>
-      <c r="R22" s="3"/>
-      <c r="S22" s="3"/>
-      <c r="T22" s="3"/>
-      <c r="U22" s="3"/>
+      <c r="A22" s="1">
+        <v>42681</v>
+      </c>
+      <c r="B22" s="2">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>8</v>
+      </c>
+      <c r="E22">
+        <v>115</v>
+      </c>
+      <c r="F22">
+        <v>1154</v>
+      </c>
+      <c r="G22" s="2">
+        <v>1033</v>
+      </c>
+      <c r="H22" s="9">
+        <v>279</v>
+      </c>
+      <c r="I22" s="9">
+        <v>76</v>
+      </c>
+      <c r="J22" s="9">
+        <v>32</v>
+      </c>
+      <c r="K22" s="9">
+        <v>35</v>
+      </c>
+      <c r="L22" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
+        <f t="shared" si="29"/>
+        <v>3.6589828027808267E-4</v>
+      </c>
+      <c r="N22" s="3">
+        <f t="shared" si="30"/>
+        <v>2.9271862422246614E-3</v>
+      </c>
+      <c r="O22" s="3">
+        <f t="shared" ref="O22" si="39">E22/SUM($B22:$K22)</f>
+        <v>4.207830223197951E-2</v>
+      </c>
+      <c r="P22" s="3">
+        <f t="shared" si="38"/>
+        <v>0.42224661544090741</v>
+      </c>
+      <c r="Q22" s="3">
+        <f t="shared" si="33"/>
+        <v>0.37797292352725942</v>
+      </c>
+      <c r="R22" s="3">
+        <f t="shared" si="34"/>
+        <v>0.10208562019758508</v>
+      </c>
+      <c r="S22" s="3">
+        <f>I22/SUM($B22:$K22)</f>
+        <v>2.7808269301134284E-2</v>
+      </c>
+      <c r="T22" s="3">
+        <f t="shared" si="36"/>
+        <v>1.1708744968898645E-2</v>
+      </c>
+      <c r="U22" s="3">
+        <f t="shared" si="37"/>
+        <v>1.2806439809732895E-2</v>
+      </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.15">
       <c r="L23" s="3"/>

--- a/趋势.xlsx
+++ b/趋势.xlsx
@@ -508,7 +508,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A22" sqref="A22"/>
+      <selection pane="bottomRight" activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -629,7 +629,7 @@
         <v>21</v>
       </c>
       <c r="L2" s="3">
-        <f t="shared" ref="L2:L22" si="0">B2/SUM($B2:$K2)</f>
+        <f t="shared" ref="L2:L23" si="0">B2/SUM($B2:$K2)</f>
         <v>0</v>
       </c>
       <c r="M2" s="3">
@@ -933,11 +933,11 @@
         <v>0</v>
       </c>
       <c r="M6" s="3">
-        <f t="shared" ref="M6:M22" si="29">C6/SUM($B6:$K6)</f>
+        <f t="shared" ref="M6:M23" si="29">C6/SUM($B6:$K6)</f>
         <v>0</v>
       </c>
       <c r="N6" s="3">
-        <f t="shared" ref="N6:N22" si="30">D6/SUM($B6:$K6)</f>
+        <f t="shared" ref="N6:N23" si="30">D6/SUM($B6:$K6)</f>
         <v>3.7064492216456633E-4</v>
       </c>
       <c r="O6" s="3">
@@ -949,11 +949,11 @@
         <v>0.23980726464047442</v>
       </c>
       <c r="Q6" s="3">
-        <f t="shared" ref="Q6:Q22" si="33">G6/SUM($B6:$K6)</f>
+        <f t="shared" ref="Q6:Q23" si="33">G6/SUM($B6:$K6)</f>
         <v>0.56004447739065977</v>
       </c>
       <c r="R6" s="3">
-        <f t="shared" ref="R6:R22" si="34">H6/SUM($B6:$K6)</f>
+        <f t="shared" ref="R6:R23" si="34">H6/SUM($B6:$K6)</f>
         <v>0.13454410674573758</v>
       </c>
       <c r="S6" s="3">
@@ -961,11 +961,11 @@
         <v>3.039288361749444E-2</v>
       </c>
       <c r="T6" s="3">
-        <f t="shared" ref="T6:T22" si="36">J6/SUM($B6:$K6)</f>
+        <f t="shared" ref="T6:T23" si="36">J6/SUM($B6:$K6)</f>
         <v>1.1119347664936991E-2</v>
       </c>
       <c r="U6" s="3">
-        <f t="shared" ref="U6:U22" si="37">K6/SUM($B6:$K6)</f>
+        <f t="shared" ref="U6:U23" si="37">K6/SUM($B6:$K6)</f>
         <v>8.1541882876204601E-3</v>
       </c>
     </row>
@@ -1770,7 +1770,7 @@
         <v>3.3443586916574786E-2</v>
       </c>
       <c r="P17" s="12">
-        <f t="shared" ref="P17:P22" si="38">F17/SUM($B17:$K17)</f>
+        <f t="shared" ref="P17:P23" si="38">F17/SUM($B17:$K17)</f>
         <v>0.43586916574788681</v>
       </c>
       <c r="Q17" s="12">
@@ -1782,7 +1782,7 @@
         <v>7.901506798970967E-2</v>
       </c>
       <c r="S17" s="12">
-        <f>I17/SUM($B17:$K17)</f>
+        <f t="shared" ref="S17:S23" si="39">I17/SUM($B17:$K17)</f>
         <v>2.0580668871738331E-2</v>
       </c>
       <c r="T17" s="12">
@@ -1857,7 +1857,7 @@
         <v>0.11518708730741012</v>
       </c>
       <c r="S18" s="3">
-        <f>I18/SUM($B18:$K18)</f>
+        <f t="shared" si="39"/>
         <v>2.5678650036683785E-2</v>
       </c>
       <c r="T18" s="3">
@@ -1932,7 +1932,7 @@
         <v>8.9371092313350498E-2</v>
       </c>
       <c r="S19" s="3">
-        <f>I19/SUM($B19:$K19)</f>
+        <f t="shared" si="39"/>
         <v>2.2434718646561234E-2</v>
       </c>
       <c r="T19" s="3">
@@ -2007,7 +2007,7 @@
         <v>9.0043923865300149E-2</v>
       </c>
       <c r="S20" s="3">
-        <f>I20/SUM($B20:$K20)</f>
+        <f t="shared" si="39"/>
         <v>2.964860907759883E-2</v>
       </c>
       <c r="T20" s="3">
@@ -2082,7 +2082,7 @@
         <v>0.10018281535648994</v>
       </c>
       <c r="S21" s="3">
-        <f>I21/SUM($B21:$K21)</f>
+        <f t="shared" si="39"/>
         <v>2.8884826325411336E-2</v>
       </c>
       <c r="T21" s="3">
@@ -2141,7 +2141,7 @@
         <v>2.9271862422246614E-3</v>
       </c>
       <c r="O22" s="3">
-        <f t="shared" ref="O22" si="39">E22/SUM($B22:$K22)</f>
+        <f t="shared" ref="O22:O23" si="40">E22/SUM($B22:$K22)</f>
         <v>4.207830223197951E-2</v>
       </c>
       <c r="P22" s="3">
@@ -2157,7 +2157,7 @@
         <v>0.10208562019758508</v>
       </c>
       <c r="S22" s="3">
-        <f>I22/SUM($B22:$K22)</f>
+        <f t="shared" si="39"/>
         <v>2.7808269301134284E-2</v>
       </c>
       <c r="T22" s="3">
@@ -2170,16 +2170,79 @@
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
-      <c r="P23" s="3"/>
-      <c r="Q23" s="3"/>
-      <c r="R23" s="3"/>
-      <c r="S23" s="3"/>
-      <c r="T23" s="3"/>
-      <c r="U23" s="3"/>
+      <c r="A23" s="1">
+        <v>42682</v>
+      </c>
+      <c r="B23" s="2">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>4</v>
+      </c>
+      <c r="E23">
+        <v>72</v>
+      </c>
+      <c r="F23">
+        <v>996</v>
+      </c>
+      <c r="G23" s="2">
+        <v>1194</v>
+      </c>
+      <c r="H23" s="9">
+        <v>308</v>
+      </c>
+      <c r="I23" s="9">
+        <v>90</v>
+      </c>
+      <c r="J23" s="9">
+        <v>29</v>
+      </c>
+      <c r="K23" s="9">
+        <v>41</v>
+      </c>
+      <c r="L23" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
+        <f t="shared" si="29"/>
+        <v>3.6563071297989033E-4</v>
+      </c>
+      <c r="N23" s="3">
+        <f t="shared" si="30"/>
+        <v>1.4625228519195613E-3</v>
+      </c>
+      <c r="O23" s="3">
+        <f t="shared" si="40"/>
+        <v>2.6325411334552101E-2</v>
+      </c>
+      <c r="P23" s="3">
+        <f t="shared" si="38"/>
+        <v>0.36416819012797075</v>
+      </c>
+      <c r="Q23" s="11">
+        <f t="shared" si="33"/>
+        <v>0.43656307129798905</v>
+      </c>
+      <c r="R23" s="3">
+        <f t="shared" si="34"/>
+        <v>0.11261425959780622</v>
+      </c>
+      <c r="S23" s="3">
+        <f t="shared" si="39"/>
+        <v>3.2906764168190127E-2</v>
+      </c>
+      <c r="T23" s="3">
+        <f t="shared" si="36"/>
+        <v>1.060329067641682E-2</v>
+      </c>
+      <c r="U23" s="3">
+        <f t="shared" si="37"/>
+        <v>1.4990859232175503E-2</v>
+      </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.15">
       <c r="L24" s="3"/>

--- a/趋势.xlsx
+++ b/趋势.xlsx
@@ -508,7 +508,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A23" sqref="A23"/>
+      <selection pane="bottomRight" activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -629,7 +629,7 @@
         <v>21</v>
       </c>
       <c r="L2" s="3">
-        <f t="shared" ref="L2:L23" si="0">B2/SUM($B2:$K2)</f>
+        <f t="shared" ref="L2:L24" si="0">B2/SUM($B2:$K2)</f>
         <v>0</v>
       </c>
       <c r="M2" s="3">
@@ -933,11 +933,11 @@
         <v>0</v>
       </c>
       <c r="M6" s="3">
-        <f t="shared" ref="M6:M23" si="29">C6/SUM($B6:$K6)</f>
+        <f t="shared" ref="M6:M24" si="29">C6/SUM($B6:$K6)</f>
         <v>0</v>
       </c>
       <c r="N6" s="3">
-        <f t="shared" ref="N6:N23" si="30">D6/SUM($B6:$K6)</f>
+        <f t="shared" ref="N6:N24" si="30">D6/SUM($B6:$K6)</f>
         <v>3.7064492216456633E-4</v>
       </c>
       <c r="O6" s="3">
@@ -953,7 +953,7 @@
         <v>0.56004447739065977</v>
       </c>
       <c r="R6" s="3">
-        <f t="shared" ref="R6:R23" si="34">H6/SUM($B6:$K6)</f>
+        <f t="shared" ref="R6:R24" si="34">H6/SUM($B6:$K6)</f>
         <v>0.13454410674573758</v>
       </c>
       <c r="S6" s="3">
@@ -961,11 +961,11 @@
         <v>3.039288361749444E-2</v>
       </c>
       <c r="T6" s="3">
-        <f t="shared" ref="T6:T23" si="36">J6/SUM($B6:$K6)</f>
+        <f t="shared" ref="T6:T24" si="36">J6/SUM($B6:$K6)</f>
         <v>1.1119347664936991E-2</v>
       </c>
       <c r="U6" s="3">
-        <f t="shared" ref="U6:U23" si="37">K6/SUM($B6:$K6)</f>
+        <f t="shared" ref="U6:U24" si="37">K6/SUM($B6:$K6)</f>
         <v>8.1541882876204601E-3</v>
       </c>
     </row>
@@ -1770,7 +1770,7 @@
         <v>3.3443586916574786E-2</v>
       </c>
       <c r="P17" s="12">
-        <f t="shared" ref="P17:P23" si="38">F17/SUM($B17:$K17)</f>
+        <f t="shared" ref="P17:Q24" si="38">F17/SUM($B17:$K17)</f>
         <v>0.43586916574788681</v>
       </c>
       <c r="Q17" s="12">
@@ -1782,7 +1782,7 @@
         <v>7.901506798970967E-2</v>
       </c>
       <c r="S17" s="12">
-        <f t="shared" ref="S17:S23" si="39">I17/SUM($B17:$K17)</f>
+        <f t="shared" ref="S17:S24" si="39">I17/SUM($B17:$K17)</f>
         <v>2.0580668871738331E-2</v>
       </c>
       <c r="T17" s="12">
@@ -2141,7 +2141,7 @@
         <v>2.9271862422246614E-3</v>
       </c>
       <c r="O22" s="3">
-        <f t="shared" ref="O22:O23" si="40">E22/SUM($B22:$K22)</f>
+        <f t="shared" ref="O22:O24" si="40">E22/SUM($B22:$K22)</f>
         <v>4.207830223197951E-2</v>
       </c>
       <c r="P22" s="3">
@@ -2245,16 +2245,79 @@
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="3"/>
-      <c r="R24" s="3"/>
-      <c r="S24" s="3"/>
-      <c r="T24" s="3"/>
-      <c r="U24" s="3"/>
+      <c r="A24" s="1">
+        <v>42683</v>
+      </c>
+      <c r="B24" s="2">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>7</v>
+      </c>
+      <c r="E24">
+        <v>114</v>
+      </c>
+      <c r="F24">
+        <v>1311</v>
+      </c>
+      <c r="G24" s="2">
+        <v>889</v>
+      </c>
+      <c r="H24" s="9">
+        <v>252</v>
+      </c>
+      <c r="I24" s="9">
+        <v>89</v>
+      </c>
+      <c r="J24" s="9">
+        <v>25</v>
+      </c>
+      <c r="K24" s="9">
+        <v>47</v>
+      </c>
+      <c r="L24" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
+        <f t="shared" si="29"/>
+        <v>3.6563071297989033E-4</v>
+      </c>
+      <c r="N24" s="3">
+        <f t="shared" si="30"/>
+        <v>2.5594149908592322E-3</v>
+      </c>
+      <c r="O24" s="12">
+        <f t="shared" si="40"/>
+        <v>4.1681901279707494E-2</v>
+      </c>
+      <c r="P24" s="12">
+        <f t="shared" si="38"/>
+        <v>0.4793418647166362</v>
+      </c>
+      <c r="Q24" s="12">
+        <f t="shared" si="38"/>
+        <v>0.32504570383912251</v>
+      </c>
+      <c r="R24" s="12">
+        <f t="shared" si="34"/>
+        <v>9.2138939670932354E-2</v>
+      </c>
+      <c r="S24" s="3">
+        <f t="shared" si="39"/>
+        <v>3.2541133455210237E-2</v>
+      </c>
+      <c r="T24" s="3">
+        <f t="shared" si="36"/>
+        <v>9.140767824497258E-3</v>
+      </c>
+      <c r="U24" s="3">
+        <f t="shared" si="37"/>
+        <v>1.7184643510054845E-2</v>
+      </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.15">
       <c r="L25" s="3"/>

--- a/趋势.xlsx
+++ b/趋势.xlsx
@@ -505,10 +505,10 @@
   <dimension ref="A1:U247"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O24" sqref="O24"/>
+      <selection pane="bottomRight" activeCell="U25" sqref="T25:U25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -629,7 +629,7 @@
         <v>21</v>
       </c>
       <c r="L2" s="3">
-        <f t="shared" ref="L2:L24" si="0">B2/SUM($B2:$K2)</f>
+        <f t="shared" ref="L2:L25" si="0">B2/SUM($B2:$K2)</f>
         <v>0</v>
       </c>
       <c r="M2" s="3">
@@ -933,11 +933,11 @@
         <v>0</v>
       </c>
       <c r="M6" s="3">
-        <f t="shared" ref="M6:M24" si="29">C6/SUM($B6:$K6)</f>
+        <f t="shared" ref="M6:M25" si="29">C6/SUM($B6:$K6)</f>
         <v>0</v>
       </c>
       <c r="N6" s="3">
-        <f t="shared" ref="N6:N24" si="30">D6/SUM($B6:$K6)</f>
+        <f t="shared" ref="N6:N25" si="30">D6/SUM($B6:$K6)</f>
         <v>3.7064492216456633E-4</v>
       </c>
       <c r="O6" s="3">
@@ -953,7 +953,7 @@
         <v>0.56004447739065977</v>
       </c>
       <c r="R6" s="3">
-        <f t="shared" ref="R6:R24" si="34">H6/SUM($B6:$K6)</f>
+        <f t="shared" ref="R6:R25" si="34">H6/SUM($B6:$K6)</f>
         <v>0.13454410674573758</v>
       </c>
       <c r="S6" s="3">
@@ -961,11 +961,11 @@
         <v>3.039288361749444E-2</v>
       </c>
       <c r="T6" s="3">
-        <f t="shared" ref="T6:T24" si="36">J6/SUM($B6:$K6)</f>
+        <f t="shared" ref="T6:T25" si="36">J6/SUM($B6:$K6)</f>
         <v>1.1119347664936991E-2</v>
       </c>
       <c r="U6" s="3">
-        <f t="shared" ref="U6:U24" si="37">K6/SUM($B6:$K6)</f>
+        <f t="shared" ref="U6:U25" si="37">K6/SUM($B6:$K6)</f>
         <v>8.1541882876204601E-3</v>
       </c>
     </row>
@@ -1770,7 +1770,7 @@
         <v>3.3443586916574786E-2</v>
       </c>
       <c r="P17" s="12">
-        <f t="shared" ref="P17:Q24" si="38">F17/SUM($B17:$K17)</f>
+        <f t="shared" ref="P17:Q25" si="38">F17/SUM($B17:$K17)</f>
         <v>0.43586916574788681</v>
       </c>
       <c r="Q17" s="12">
@@ -1782,7 +1782,7 @@
         <v>7.901506798970967E-2</v>
       </c>
       <c r="S17" s="12">
-        <f t="shared" ref="S17:S24" si="39">I17/SUM($B17:$K17)</f>
+        <f t="shared" ref="S17:S25" si="39">I17/SUM($B17:$K17)</f>
         <v>2.0580668871738331E-2</v>
       </c>
       <c r="T17" s="12">
@@ -2141,7 +2141,7 @@
         <v>2.9271862422246614E-3</v>
       </c>
       <c r="O22" s="3">
-        <f t="shared" ref="O22:O24" si="40">E22/SUM($B22:$K22)</f>
+        <f t="shared" ref="O22:O25" si="40">E22/SUM($B22:$K22)</f>
         <v>4.207830223197951E-2</v>
       </c>
       <c r="P22" s="3">
@@ -2320,16 +2320,79 @@
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
-      <c r="P25" s="3"/>
-      <c r="Q25" s="3"/>
-      <c r="R25" s="3"/>
-      <c r="S25" s="3"/>
-      <c r="T25" s="3"/>
-      <c r="U25" s="3"/>
+      <c r="A25" s="1">
+        <v>42684</v>
+      </c>
+      <c r="B25" s="2">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>4</v>
+      </c>
+      <c r="E25">
+        <v>44</v>
+      </c>
+      <c r="F25">
+        <v>931</v>
+      </c>
+      <c r="G25" s="2">
+        <v>1151</v>
+      </c>
+      <c r="H25" s="9">
+        <v>392</v>
+      </c>
+      <c r="I25" s="9">
+        <v>116</v>
+      </c>
+      <c r="J25" s="9">
+        <v>43</v>
+      </c>
+      <c r="K25" s="9">
+        <v>54</v>
+      </c>
+      <c r="L25" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <f t="shared" si="29"/>
+        <v>3.6549707602339179E-4</v>
+      </c>
+      <c r="N25" s="3">
+        <f t="shared" si="30"/>
+        <v>1.4619883040935672E-3</v>
+      </c>
+      <c r="O25" s="11">
+        <f t="shared" si="40"/>
+        <v>1.6081871345029239E-2</v>
+      </c>
+      <c r="P25" s="11">
+        <f t="shared" si="38"/>
+        <v>0.34027777777777779</v>
+      </c>
+      <c r="Q25" s="11">
+        <f t="shared" si="38"/>
+        <v>0.420687134502924</v>
+      </c>
+      <c r="R25" s="11">
+        <f t="shared" si="34"/>
+        <v>0.14327485380116958</v>
+      </c>
+      <c r="S25" s="11">
+        <f t="shared" si="39"/>
+        <v>4.2397660818713448E-2</v>
+      </c>
+      <c r="T25" s="11">
+        <f t="shared" si="36"/>
+        <v>1.5716374269005847E-2</v>
+      </c>
+      <c r="U25" s="11">
+        <f t="shared" si="37"/>
+        <v>1.9736842105263157E-2</v>
+      </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.15">
       <c r="L26" s="3"/>

--- a/趋势.xlsx
+++ b/趋势.xlsx
@@ -505,10 +505,10 @@
   <dimension ref="A1:U247"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="U25" sqref="T25:U25"/>
+      <selection pane="bottomRight" activeCell="R37" sqref="R37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -629,7 +629,7 @@
         <v>21</v>
       </c>
       <c r="L2" s="3">
-        <f t="shared" ref="L2:L25" si="0">B2/SUM($B2:$K2)</f>
+        <f t="shared" ref="L2:L27" si="0">B2/SUM($B2:$K2)</f>
         <v>0</v>
       </c>
       <c r="M2" s="3">
@@ -933,11 +933,11 @@
         <v>0</v>
       </c>
       <c r="M6" s="3">
-        <f t="shared" ref="M6:M25" si="29">C6/SUM($B6:$K6)</f>
+        <f t="shared" ref="M6:M27" si="29">C6/SUM($B6:$K6)</f>
         <v>0</v>
       </c>
       <c r="N6" s="3">
-        <f t="shared" ref="N6:N25" si="30">D6/SUM($B6:$K6)</f>
+        <f t="shared" ref="N6:N27" si="30">D6/SUM($B6:$K6)</f>
         <v>3.7064492216456633E-4</v>
       </c>
       <c r="O6" s="3">
@@ -953,7 +953,7 @@
         <v>0.56004447739065977</v>
       </c>
       <c r="R6" s="3">
-        <f t="shared" ref="R6:R25" si="34">H6/SUM($B6:$K6)</f>
+        <f t="shared" ref="R6:R27" si="34">H6/SUM($B6:$K6)</f>
         <v>0.13454410674573758</v>
       </c>
       <c r="S6" s="3">
@@ -961,11 +961,11 @@
         <v>3.039288361749444E-2</v>
       </c>
       <c r="T6" s="3">
-        <f t="shared" ref="T6:T25" si="36">J6/SUM($B6:$K6)</f>
+        <f t="shared" ref="T6:T27" si="36">J6/SUM($B6:$K6)</f>
         <v>1.1119347664936991E-2</v>
       </c>
       <c r="U6" s="3">
-        <f t="shared" ref="U6:U25" si="37">K6/SUM($B6:$K6)</f>
+        <f t="shared" ref="U6:U27" si="37">K6/SUM($B6:$K6)</f>
         <v>8.1541882876204601E-3</v>
       </c>
     </row>
@@ -1770,7 +1770,7 @@
         <v>3.3443586916574786E-2</v>
       </c>
       <c r="P17" s="12">
-        <f t="shared" ref="P17:Q25" si="38">F17/SUM($B17:$K17)</f>
+        <f t="shared" ref="P17:Q27" si="38">F17/SUM($B17:$K17)</f>
         <v>0.43586916574788681</v>
       </c>
       <c r="Q17" s="12">
@@ -1782,7 +1782,7 @@
         <v>7.901506798970967E-2</v>
       </c>
       <c r="S17" s="12">
-        <f t="shared" ref="S17:S25" si="39">I17/SUM($B17:$K17)</f>
+        <f t="shared" ref="S17:S27" si="39">I17/SUM($B17:$K17)</f>
         <v>2.0580668871738331E-2</v>
       </c>
       <c r="T17" s="12">
@@ -2141,7 +2141,7 @@
         <v>2.9271862422246614E-3</v>
       </c>
       <c r="O22" s="3">
-        <f t="shared" ref="O22:O25" si="40">E22/SUM($B22:$K22)</f>
+        <f t="shared" ref="O22:O27" si="40">E22/SUM($B22:$K22)</f>
         <v>4.207830223197951E-2</v>
       </c>
       <c r="P22" s="3">
@@ -2395,28 +2395,154 @@
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
-      <c r="P26" s="3"/>
-      <c r="Q26" s="3"/>
-      <c r="R26" s="3"/>
-      <c r="S26" s="3"/>
-      <c r="T26" s="3"/>
-      <c r="U26" s="3"/>
+      <c r="A26" s="1">
+        <v>42688</v>
+      </c>
+      <c r="B26" s="2">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>47</v>
+      </c>
+      <c r="F26">
+        <v>654</v>
+      </c>
+      <c r="G26" s="2">
+        <v>1378</v>
+      </c>
+      <c r="H26" s="9">
+        <v>452</v>
+      </c>
+      <c r="I26" s="9">
+        <v>112</v>
+      </c>
+      <c r="J26" s="9">
+        <v>45</v>
+      </c>
+      <c r="K26" s="9">
+        <v>46</v>
+      </c>
+      <c r="L26" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="N26" s="3">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="O26" s="11">
+        <f t="shared" si="40"/>
+        <v>1.7190929041697146E-2</v>
+      </c>
+      <c r="P26" s="11">
+        <f t="shared" si="38"/>
+        <v>0.23920994879297733</v>
+      </c>
+      <c r="Q26" s="11">
+        <f t="shared" si="38"/>
+        <v>0.50402340892465247</v>
+      </c>
+      <c r="R26" s="11">
+        <f t="shared" si="34"/>
+        <v>0.16532553035844916</v>
+      </c>
+      <c r="S26" s="11">
+        <f t="shared" si="39"/>
+        <v>4.0965618141916606E-2</v>
+      </c>
+      <c r="T26" s="11">
+        <f t="shared" si="36"/>
+        <v>1.6459400146305779E-2</v>
+      </c>
+      <c r="U26" s="3">
+        <f t="shared" si="37"/>
+        <v>1.6825164594001463E-2</v>
+      </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
-      <c r="O27" s="3"/>
-      <c r="P27" s="3"/>
-      <c r="Q27" s="3"/>
-      <c r="R27" s="3"/>
-      <c r="S27" s="3"/>
-      <c r="T27" s="3"/>
-      <c r="U27" s="3"/>
+      <c r="A27" s="1">
+        <v>42689</v>
+      </c>
+      <c r="B27" s="2">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>31</v>
+      </c>
+      <c r="F27">
+        <v>535</v>
+      </c>
+      <c r="G27" s="2">
+        <v>1511</v>
+      </c>
+      <c r="H27" s="9">
+        <v>475</v>
+      </c>
+      <c r="I27" s="9">
+        <v>98</v>
+      </c>
+      <c r="J27" s="9">
+        <v>37</v>
+      </c>
+      <c r="K27" s="9">
+        <v>42</v>
+      </c>
+      <c r="L27" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="N27" s="3">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="O27" s="3">
+        <f t="shared" si="40"/>
+        <v>1.1359472334188348E-2</v>
+      </c>
+      <c r="P27" s="3">
+        <f t="shared" si="38"/>
+        <v>0.19604250641260534</v>
+      </c>
+      <c r="Q27" s="13">
+        <f t="shared" si="38"/>
+        <v>0.55368266764382557</v>
+      </c>
+      <c r="R27" s="3">
+        <f t="shared" si="34"/>
+        <v>0.17405643092707951</v>
+      </c>
+      <c r="S27" s="3">
+        <f t="shared" si="39"/>
+        <v>3.5910589959692193E-2</v>
+      </c>
+      <c r="T27" s="3">
+        <f t="shared" si="36"/>
+        <v>1.3558079882740931E-2</v>
+      </c>
+      <c r="U27" s="3">
+        <f t="shared" si="37"/>
+        <v>1.5390252839868083E-2</v>
+      </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.15">
       <c r="L28" s="3"/>

--- a/趋势.xlsx
+++ b/趋势.xlsx
@@ -508,7 +508,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R37" sqref="R37"/>
+      <selection pane="bottomRight" activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -629,7 +629,7 @@
         <v>21</v>
       </c>
       <c r="L2" s="3">
-        <f t="shared" ref="L2:L27" si="0">B2/SUM($B2:$K2)</f>
+        <f t="shared" ref="L2:L28" si="0">B2/SUM($B2:$K2)</f>
         <v>0</v>
       </c>
       <c r="M2" s="3">
@@ -933,11 +933,11 @@
         <v>0</v>
       </c>
       <c r="M6" s="3">
-        <f t="shared" ref="M6:M27" si="29">C6/SUM($B6:$K6)</f>
+        <f t="shared" ref="M6:M28" si="29">C6/SUM($B6:$K6)</f>
         <v>0</v>
       </c>
       <c r="N6" s="3">
-        <f t="shared" ref="N6:N27" si="30">D6/SUM($B6:$K6)</f>
+        <f t="shared" ref="N6:N28" si="30">D6/SUM($B6:$K6)</f>
         <v>3.7064492216456633E-4</v>
       </c>
       <c r="O6" s="3">
@@ -953,7 +953,7 @@
         <v>0.56004447739065977</v>
       </c>
       <c r="R6" s="3">
-        <f t="shared" ref="R6:R27" si="34">H6/SUM($B6:$K6)</f>
+        <f t="shared" ref="R6:R28" si="34">H6/SUM($B6:$K6)</f>
         <v>0.13454410674573758</v>
       </c>
       <c r="S6" s="3">
@@ -961,11 +961,11 @@
         <v>3.039288361749444E-2</v>
       </c>
       <c r="T6" s="3">
-        <f t="shared" ref="T6:T27" si="36">J6/SUM($B6:$K6)</f>
+        <f t="shared" ref="T6:T28" si="36">J6/SUM($B6:$K6)</f>
         <v>1.1119347664936991E-2</v>
       </c>
       <c r="U6" s="3">
-        <f t="shared" ref="U6:U27" si="37">K6/SUM($B6:$K6)</f>
+        <f t="shared" ref="U6:U28" si="37">K6/SUM($B6:$K6)</f>
         <v>8.1541882876204601E-3</v>
       </c>
     </row>
@@ -1770,7 +1770,7 @@
         <v>3.3443586916574786E-2</v>
       </c>
       <c r="P17" s="12">
-        <f t="shared" ref="P17:Q27" si="38">F17/SUM($B17:$K17)</f>
+        <f t="shared" ref="P17:Q28" si="38">F17/SUM($B17:$K17)</f>
         <v>0.43586916574788681</v>
       </c>
       <c r="Q17" s="12">
@@ -1782,7 +1782,7 @@
         <v>7.901506798970967E-2</v>
       </c>
       <c r="S17" s="12">
-        <f t="shared" ref="S17:S27" si="39">I17/SUM($B17:$K17)</f>
+        <f t="shared" ref="S17:S28" si="39">I17/SUM($B17:$K17)</f>
         <v>2.0580668871738331E-2</v>
       </c>
       <c r="T17" s="12">
@@ -2141,7 +2141,7 @@
         <v>2.9271862422246614E-3</v>
       </c>
       <c r="O22" s="3">
-        <f t="shared" ref="O22:O27" si="40">E22/SUM($B22:$K22)</f>
+        <f t="shared" ref="O22:O28" si="40">E22/SUM($B22:$K22)</f>
         <v>4.207830223197951E-2</v>
       </c>
       <c r="P22" s="3">
@@ -2545,16 +2545,79 @@
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
-      <c r="O28" s="3"/>
-      <c r="P28" s="3"/>
-      <c r="Q28" s="3"/>
-      <c r="R28" s="3"/>
-      <c r="S28" s="3"/>
-      <c r="T28" s="3"/>
-      <c r="U28" s="3"/>
+      <c r="A28" s="1">
+        <v>42696</v>
+      </c>
+      <c r="B28" s="2">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>25</v>
+      </c>
+      <c r="F28">
+        <v>567</v>
+      </c>
+      <c r="G28" s="2">
+        <v>1464</v>
+      </c>
+      <c r="H28" s="9">
+        <v>475</v>
+      </c>
+      <c r="I28" s="9">
+        <v>105</v>
+      </c>
+      <c r="J28" s="9">
+        <v>41</v>
+      </c>
+      <c r="K28" s="9">
+        <v>48</v>
+      </c>
+      <c r="L28" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="N28" s="3">
+        <f t="shared" si="30"/>
+        <v>3.6683785766691124E-4</v>
+      </c>
+      <c r="O28" s="3">
+        <f t="shared" si="40"/>
+        <v>9.1709464416727809E-3</v>
+      </c>
+      <c r="P28" s="3">
+        <f t="shared" si="38"/>
+        <v>0.20799706529713866</v>
+      </c>
+      <c r="Q28" s="3">
+        <f t="shared" si="38"/>
+        <v>0.53705062362435807</v>
+      </c>
+      <c r="R28" s="3">
+        <f t="shared" si="34"/>
+        <v>0.17424798239178282</v>
+      </c>
+      <c r="S28" s="3">
+        <f t="shared" si="39"/>
+        <v>3.8517975055025681E-2</v>
+      </c>
+      <c r="T28" s="3">
+        <f t="shared" si="36"/>
+        <v>1.504035216434336E-2</v>
+      </c>
+      <c r="U28" s="3">
+        <f t="shared" si="37"/>
+        <v>1.7608217168011739E-2</v>
+      </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.15">
       <c r="L29" s="3"/>

--- a/趋势.xlsx
+++ b/趋势.xlsx
@@ -4,17 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="270" windowWidth="27795" windowHeight="13050" tabRatio="505"/>
+    <workbookView xWindow="480" yWindow="270" windowWidth="27795" windowHeight="13050" tabRatio="505" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="趋势" sheetId="1" r:id="rId1"/>
+    <sheet name="行业前五" sheetId="2" r:id="rId2"/>
+    <sheet name="行业后五" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="69">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -59,12 +61,186 @@
     <t>x&lt;=0.8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>综合类</t>
+  </si>
+  <si>
+    <t>互联网</t>
+  </si>
+  <si>
+    <t>软件服务</t>
+  </si>
+  <si>
+    <t>元器件</t>
+  </si>
+  <si>
+    <t>半导体</t>
+  </si>
+  <si>
+    <t>通信设备</t>
+  </si>
+  <si>
+    <t>电脑设备</t>
+  </si>
+  <si>
+    <t>房地产</t>
+  </si>
+  <si>
+    <t>建筑</t>
+  </si>
+  <si>
+    <t>多元金融</t>
+  </si>
+  <si>
+    <t>保险</t>
+  </si>
+  <si>
+    <t>证券</t>
+  </si>
+  <si>
+    <t>银行</t>
+  </si>
+  <si>
+    <t>交通设施</t>
+  </si>
+  <si>
+    <t>仓储物流</t>
+  </si>
+  <si>
+    <t>运输服务</t>
+  </si>
+  <si>
+    <t>环境保护</t>
+  </si>
+  <si>
+    <t>供气供热</t>
+  </si>
+  <si>
+    <t>水务</t>
+  </si>
+  <si>
+    <t>公共交通</t>
+  </si>
+  <si>
+    <t>电信运营</t>
+  </si>
+  <si>
+    <t>电器仪表</t>
+  </si>
+  <si>
+    <t>工程机械</t>
+  </si>
+  <si>
+    <t>电气设备</t>
+  </si>
+  <si>
+    <t>工业机械</t>
+  </si>
+  <si>
+    <t>通用机械</t>
+  </si>
+  <si>
+    <t>运输设备</t>
+  </si>
+  <si>
+    <t>船舶</t>
+  </si>
+  <si>
+    <t>航空</t>
+  </si>
+  <si>
+    <t>旅游</t>
+  </si>
+  <si>
+    <t>酒店餐饮</t>
+  </si>
+  <si>
+    <t>文教休闲</t>
+  </si>
+  <si>
+    <t>广告包装</t>
+  </si>
+  <si>
+    <t>传媒娱乐</t>
+  </si>
+  <si>
+    <t>商贸代理</t>
+  </si>
+  <si>
+    <t>商业连锁</t>
+  </si>
+  <si>
+    <t>医药</t>
+  </si>
+  <si>
+    <t>家居用品</t>
+  </si>
+  <si>
+    <t>医疗保健</t>
+  </si>
+  <si>
+    <t>汽车类</t>
+  </si>
+  <si>
+    <t>家用电器</t>
+  </si>
+  <si>
+    <t>酿酒</t>
+  </si>
+  <si>
+    <t>食品饮料</t>
+  </si>
+  <si>
+    <t>纺织服饰</t>
+  </si>
+  <si>
+    <t>农林牧渔</t>
+  </si>
+  <si>
+    <t>日用化工</t>
+  </si>
+  <si>
+    <t>矿物制品</t>
+  </si>
+  <si>
+    <t>造纸</t>
+  </si>
+  <si>
+    <t>建材</t>
+  </si>
+  <si>
+    <t>化工</t>
+  </si>
+  <si>
+    <t>化纤</t>
+  </si>
+  <si>
+    <t>有色</t>
+  </si>
+  <si>
+    <t>钢铁</t>
+  </si>
+  <si>
+    <t>石油</t>
+  </si>
+  <si>
+    <t>电力</t>
+  </si>
+  <si>
+    <t>煤炭</t>
+  </si>
+  <si>
+    <t>名称</t>
+  </si>
+  <si>
+    <t>代码</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,8 +290,25 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -134,8 +327,44 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -152,13 +381,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -199,6 +443,36 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="30" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -504,11 +778,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U247"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A28" sqref="A28"/>
+      <selection pane="bottomRight" activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -629,7 +903,7 @@
         <v>21</v>
       </c>
       <c r="L2" s="3">
-        <f t="shared" ref="L2:L28" si="0">B2/SUM($B2:$K2)</f>
+        <f t="shared" ref="L2:L31" si="0">B2/SUM($B2:$K2)</f>
         <v>0</v>
       </c>
       <c r="M2" s="3">
@@ -933,11 +1207,11 @@
         <v>0</v>
       </c>
       <c r="M6" s="3">
-        <f t="shared" ref="M6:M28" si="29">C6/SUM($B6:$K6)</f>
+        <f t="shared" ref="M6:M31" si="29">C6/SUM($B6:$K6)</f>
         <v>0</v>
       </c>
       <c r="N6" s="3">
-        <f t="shared" ref="N6:N28" si="30">D6/SUM($B6:$K6)</f>
+        <f t="shared" ref="N6:N31" si="30">D6/SUM($B6:$K6)</f>
         <v>3.7064492216456633E-4</v>
       </c>
       <c r="O6" s="3">
@@ -953,7 +1227,7 @@
         <v>0.56004447739065977</v>
       </c>
       <c r="R6" s="3">
-        <f t="shared" ref="R6:R28" si="34">H6/SUM($B6:$K6)</f>
+        <f t="shared" ref="R6:R31" si="34">H6/SUM($B6:$K6)</f>
         <v>0.13454410674573758</v>
       </c>
       <c r="S6" s="3">
@@ -961,11 +1235,11 @@
         <v>3.039288361749444E-2</v>
       </c>
       <c r="T6" s="3">
-        <f t="shared" ref="T6:T28" si="36">J6/SUM($B6:$K6)</f>
+        <f t="shared" ref="T6:T31" si="36">J6/SUM($B6:$K6)</f>
         <v>1.1119347664936991E-2</v>
       </c>
       <c r="U6" s="3">
-        <f t="shared" ref="U6:U28" si="37">K6/SUM($B6:$K6)</f>
+        <f t="shared" ref="U6:U31" si="37">K6/SUM($B6:$K6)</f>
         <v>8.1541882876204601E-3</v>
       </c>
     </row>
@@ -1770,7 +2044,7 @@
         <v>3.3443586916574786E-2</v>
       </c>
       <c r="P17" s="12">
-        <f t="shared" ref="P17:Q28" si="38">F17/SUM($B17:$K17)</f>
+        <f t="shared" ref="P17:Q31" si="38">F17/SUM($B17:$K17)</f>
         <v>0.43586916574788681</v>
       </c>
       <c r="Q17" s="12">
@@ -1782,7 +2056,7 @@
         <v>7.901506798970967E-2</v>
       </c>
       <c r="S17" s="12">
-        <f t="shared" ref="S17:S28" si="39">I17/SUM($B17:$K17)</f>
+        <f t="shared" ref="S17:S31" si="39">I17/SUM($B17:$K17)</f>
         <v>2.0580668871738331E-2</v>
       </c>
       <c r="T17" s="12">
@@ -2141,7 +2415,7 @@
         <v>2.9271862422246614E-3</v>
       </c>
       <c r="O22" s="3">
-        <f t="shared" ref="O22:O28" si="40">E22/SUM($B22:$K22)</f>
+        <f t="shared" ref="O22:O31" si="40">E22/SUM($B22:$K22)</f>
         <v>4.207830223197951E-2</v>
       </c>
       <c r="P22" s="3">
@@ -2620,40 +2894,229 @@
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
-      <c r="O29" s="3"/>
-      <c r="P29" s="3"/>
-      <c r="Q29" s="3"/>
-      <c r="R29" s="3"/>
-      <c r="S29" s="3"/>
-      <c r="T29" s="3"/>
-      <c r="U29" s="3"/>
+      <c r="A29" s="1">
+        <v>42697</v>
+      </c>
+      <c r="B29" s="2">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>3</v>
+      </c>
+      <c r="E29">
+        <v>44</v>
+      </c>
+      <c r="F29">
+        <v>714</v>
+      </c>
+      <c r="G29" s="2">
+        <v>1501</v>
+      </c>
+      <c r="H29" s="9">
+        <v>313</v>
+      </c>
+      <c r="I29" s="9">
+        <v>89</v>
+      </c>
+      <c r="J29" s="9">
+        <v>28</v>
+      </c>
+      <c r="K29" s="9">
+        <v>38</v>
+      </c>
+      <c r="L29" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <f t="shared" si="30"/>
+        <v>1.0989010989010989E-3</v>
+      </c>
+      <c r="O29" s="10">
+        <f t="shared" si="40"/>
+        <v>1.6117216117216119E-2</v>
+      </c>
+      <c r="P29" s="10">
+        <f t="shared" si="38"/>
+        <v>0.26153846153846155</v>
+      </c>
+      <c r="Q29" s="3">
+        <f t="shared" si="38"/>
+        <v>0.54981684981684986</v>
+      </c>
+      <c r="R29" s="10">
+        <f t="shared" si="34"/>
+        <v>0.11465201465201465</v>
+      </c>
+      <c r="S29" s="3">
+        <f t="shared" si="39"/>
+        <v>3.2600732600732603E-2</v>
+      </c>
+      <c r="T29" s="3">
+        <f t="shared" si="36"/>
+        <v>1.0256410256410256E-2</v>
+      </c>
+      <c r="U29" s="3">
+        <f t="shared" si="37"/>
+        <v>1.391941391941392E-2</v>
+      </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
-      <c r="N30" s="3"/>
-      <c r="O30" s="3"/>
-      <c r="P30" s="3"/>
-      <c r="Q30" s="3"/>
-      <c r="R30" s="3"/>
-      <c r="S30" s="3"/>
-      <c r="T30" s="3"/>
-      <c r="U30" s="3"/>
+      <c r="A30" s="1">
+        <v>42698</v>
+      </c>
+      <c r="B30" s="2">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>6</v>
+      </c>
+      <c r="E30">
+        <v>102</v>
+      </c>
+      <c r="F30">
+        <v>1004</v>
+      </c>
+      <c r="G30" s="2">
+        <v>1190</v>
+      </c>
+      <c r="H30" s="9">
+        <v>279</v>
+      </c>
+      <c r="I30" s="9">
+        <v>86</v>
+      </c>
+      <c r="J30" s="9">
+        <v>28</v>
+      </c>
+      <c r="K30" s="9">
+        <v>35</v>
+      </c>
+      <c r="L30" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <f t="shared" si="29"/>
+        <v>3.6616623947272064E-4</v>
+      </c>
+      <c r="N30" s="3">
+        <f t="shared" si="30"/>
+        <v>2.1969974368363236E-3</v>
+      </c>
+      <c r="O30" s="12">
+        <f t="shared" si="40"/>
+        <v>3.7348956426217501E-2</v>
+      </c>
+      <c r="P30" s="12">
+        <f t="shared" si="38"/>
+        <v>0.36763090443061147</v>
+      </c>
+      <c r="Q30" s="12">
+        <f t="shared" si="38"/>
+        <v>0.43573782497253755</v>
+      </c>
+      <c r="R30" s="3">
+        <f t="shared" si="34"/>
+        <v>0.10216038081288906</v>
+      </c>
+      <c r="S30" s="3">
+        <f t="shared" si="39"/>
+        <v>3.1490296594653973E-2</v>
+      </c>
+      <c r="T30" s="3">
+        <f t="shared" si="36"/>
+        <v>1.0252654705236177E-2</v>
+      </c>
+      <c r="U30" s="3">
+        <f t="shared" si="37"/>
+        <v>1.2815818381545222E-2</v>
+      </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="L31" s="3"/>
-      <c r="M31" s="3"/>
-      <c r="N31" s="3"/>
-      <c r="O31" s="3"/>
-      <c r="P31" s="3"/>
-      <c r="Q31" s="3"/>
-      <c r="R31" s="3"/>
-      <c r="S31" s="3"/>
-      <c r="T31" s="3"/>
-      <c r="U31" s="3"/>
+      <c r="A31" s="1">
+        <v>42705</v>
+      </c>
+      <c r="B31" s="2">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>3</v>
+      </c>
+      <c r="D31">
+        <v>23</v>
+      </c>
+      <c r="E31">
+        <v>206</v>
+      </c>
+      <c r="F31">
+        <v>1420</v>
+      </c>
+      <c r="G31" s="2">
+        <v>807</v>
+      </c>
+      <c r="H31" s="9">
+        <v>190</v>
+      </c>
+      <c r="I31" s="9">
+        <v>52</v>
+      </c>
+      <c r="J31" s="9">
+        <v>14</v>
+      </c>
+      <c r="K31" s="9">
+        <v>22</v>
+      </c>
+      <c r="L31" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <f t="shared" si="29"/>
+        <v>1.0960906101571063E-3</v>
+      </c>
+      <c r="N31" s="3">
+        <f t="shared" si="30"/>
+        <v>8.4033613445378148E-3</v>
+      </c>
+      <c r="O31" s="12">
+        <f t="shared" si="40"/>
+        <v>7.5264888564121307E-2</v>
+      </c>
+      <c r="P31" s="12">
+        <f t="shared" si="38"/>
+        <v>0.51881622214103029</v>
+      </c>
+      <c r="Q31" s="12">
+        <f t="shared" si="38"/>
+        <v>0.29484837413226161</v>
+      </c>
+      <c r="R31" s="12">
+        <f t="shared" si="34"/>
+        <v>6.9419071976616731E-2</v>
+      </c>
+      <c r="S31" s="12">
+        <f t="shared" si="39"/>
+        <v>1.8998903909389842E-2</v>
+      </c>
+      <c r="T31" s="3">
+        <f t="shared" si="36"/>
+        <v>5.1150895140664966E-3</v>
+      </c>
+      <c r="U31" s="3">
+        <f t="shared" si="37"/>
+        <v>8.0379978078187805E-3</v>
+      </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.15">
       <c r="L32" s="3"/>
@@ -5252,4 +5715,3591 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W57"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="L19" sqref="L19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="3" max="3" width="8.875" style="17" customWidth="1"/>
+    <col min="4" max="23" width="9" style="17"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A1" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="18">
+        <v>42697</v>
+      </c>
+      <c r="D1" s="18">
+        <v>42698</v>
+      </c>
+      <c r="E1" s="18">
+        <v>42699</v>
+      </c>
+      <c r="F1" s="18">
+        <v>42700</v>
+      </c>
+      <c r="G1" s="18">
+        <v>42701</v>
+      </c>
+      <c r="H1" s="18">
+        <v>42702</v>
+      </c>
+      <c r="I1" s="18">
+        <v>42703</v>
+      </c>
+      <c r="J1" s="18">
+        <v>42704</v>
+      </c>
+      <c r="K1" s="18">
+        <v>42705</v>
+      </c>
+      <c r="L1" s="18">
+        <v>42706</v>
+      </c>
+      <c r="M1" s="18">
+        <v>42707</v>
+      </c>
+      <c r="N1" s="18">
+        <v>42708</v>
+      </c>
+      <c r="O1" s="18">
+        <v>42709</v>
+      </c>
+      <c r="P1" s="18">
+        <v>42710</v>
+      </c>
+      <c r="Q1" s="18">
+        <v>42711</v>
+      </c>
+      <c r="R1" s="18">
+        <v>42712</v>
+      </c>
+      <c r="S1" s="18">
+        <v>42713</v>
+      </c>
+      <c r="T1" s="18">
+        <v>42714</v>
+      </c>
+      <c r="U1" s="18">
+        <v>42715</v>
+      </c>
+      <c r="V1" s="18">
+        <v>42716</v>
+      </c>
+      <c r="W1" s="18">
+        <v>42717</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A2" s="14" t="str">
+        <f>"880301"</f>
+        <v>880301</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
+      <c r="S2" s="14"/>
+      <c r="T2" s="14"/>
+      <c r="U2" s="14"/>
+      <c r="V2" s="14"/>
+      <c r="W2" s="14"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A3" s="14" t="str">
+        <f>"880305"</f>
+        <v>880305</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="14"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="14"/>
+      <c r="U3" s="14"/>
+      <c r="V3" s="14"/>
+      <c r="W3" s="14"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A4" s="14" t="str">
+        <f>"880310"</f>
+        <v>880310</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="22">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="14"/>
+      <c r="S4" s="14"/>
+      <c r="T4" s="14"/>
+      <c r="U4" s="14"/>
+      <c r="V4" s="14"/>
+      <c r="W4" s="14"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A5" s="14" t="str">
+        <f>"880318"</f>
+        <v>880318</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="14"/>
+      <c r="S5" s="14"/>
+      <c r="T5" s="14"/>
+      <c r="U5" s="14"/>
+      <c r="V5" s="14"/>
+      <c r="W5" s="14"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A6" s="14" t="str">
+        <f>"880324"</f>
+        <v>880324</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="14"/>
+      <c r="S6" s="14"/>
+      <c r="T6" s="14"/>
+      <c r="U6" s="14"/>
+      <c r="V6" s="14"/>
+      <c r="W6" s="14"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A7" s="14" t="str">
+        <f>"880330"</f>
+        <v>880330</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="14"/>
+      <c r="S7" s="14"/>
+      <c r="T7" s="14"/>
+      <c r="U7" s="14"/>
+      <c r="V7" s="14"/>
+      <c r="W7" s="14"/>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A8" s="14" t="str">
+        <f>"880335"</f>
+        <v>880335</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="14"/>
+      <c r="S8" s="14"/>
+      <c r="T8" s="14"/>
+      <c r="U8" s="14"/>
+      <c r="V8" s="14"/>
+      <c r="W8" s="14"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A9" s="14" t="str">
+        <f>"880344"</f>
+        <v>880344</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="14"/>
+      <c r="S9" s="14"/>
+      <c r="T9" s="14"/>
+      <c r="U9" s="14"/>
+      <c r="V9" s="14"/>
+      <c r="W9" s="14"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A10" s="14" t="str">
+        <f>"880350"</f>
+        <v>880350</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="14"/>
+      <c r="S10" s="14"/>
+      <c r="T10" s="14"/>
+      <c r="U10" s="14"/>
+      <c r="V10" s="14"/>
+      <c r="W10" s="14"/>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A11" s="14" t="str">
+        <f>"880351"</f>
+        <v>880351</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="14"/>
+      <c r="S11" s="14"/>
+      <c r="T11" s="14"/>
+      <c r="U11" s="14"/>
+      <c r="V11" s="14"/>
+      <c r="W11" s="14"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A12" s="14" t="str">
+        <f>"880355"</f>
+        <v>880355</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="14"/>
+      <c r="S12" s="14"/>
+      <c r="T12" s="14"/>
+      <c r="U12" s="14"/>
+      <c r="V12" s="14"/>
+      <c r="W12" s="14"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A13" s="14" t="str">
+        <f>"880360"</f>
+        <v>880360</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="14"/>
+      <c r="S13" s="14"/>
+      <c r="T13" s="14"/>
+      <c r="U13" s="14"/>
+      <c r="V13" s="14"/>
+      <c r="W13" s="14"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A14" s="14" t="str">
+        <f>"880367"</f>
+        <v>880367</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="14"/>
+      <c r="S14" s="14"/>
+      <c r="T14" s="14"/>
+      <c r="U14" s="14"/>
+      <c r="V14" s="14"/>
+      <c r="W14" s="14"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A15" s="14" t="str">
+        <f>"880372"</f>
+        <v>880372</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="14"/>
+      <c r="S15" s="14"/>
+      <c r="T15" s="14"/>
+      <c r="U15" s="14"/>
+      <c r="V15" s="14"/>
+      <c r="W15" s="14"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A16" s="14" t="str">
+        <f>"880380"</f>
+        <v>880380</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="23">
+        <v>1.19</v>
+      </c>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="14"/>
+      <c r="R16" s="14"/>
+      <c r="S16" s="14"/>
+      <c r="T16" s="14"/>
+      <c r="U16" s="14"/>
+      <c r="V16" s="14"/>
+      <c r="W16" s="14"/>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A17" s="14" t="str">
+        <f>"880387"</f>
+        <v>880387</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="20">
+        <v>2.75</v>
+      </c>
+      <c r="D17" s="20">
+        <v>1.85</v>
+      </c>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="23">
+        <v>2.38</v>
+      </c>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="14"/>
+      <c r="Q17" s="14"/>
+      <c r="R17" s="14"/>
+      <c r="S17" s="14"/>
+      <c r="T17" s="14"/>
+      <c r="U17" s="14"/>
+      <c r="V17" s="14"/>
+      <c r="W17" s="14"/>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A18" s="14" t="str">
+        <f>"880390"</f>
+        <v>880390</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="14"/>
+      <c r="Q18" s="14"/>
+      <c r="R18" s="14"/>
+      <c r="S18" s="14"/>
+      <c r="T18" s="14"/>
+      <c r="U18" s="14"/>
+      <c r="V18" s="14"/>
+      <c r="W18" s="14"/>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A19" s="14" t="str">
+        <f>"880398"</f>
+        <v>880398</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="14"/>
+      <c r="P19" s="14"/>
+      <c r="Q19" s="14"/>
+      <c r="R19" s="14"/>
+      <c r="S19" s="14"/>
+      <c r="T19" s="14"/>
+      <c r="U19" s="14"/>
+      <c r="V19" s="14"/>
+      <c r="W19" s="14"/>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A20" s="14" t="str">
+        <f>"880399"</f>
+        <v>880399</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="14"/>
+      <c r="Q20" s="14"/>
+      <c r="R20" s="14"/>
+      <c r="S20" s="14"/>
+      <c r="T20" s="14"/>
+      <c r="U20" s="14"/>
+      <c r="V20" s="14"/>
+      <c r="W20" s="14"/>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A21" s="14" t="str">
+        <f>"880400"</f>
+        <v>880400</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="14"/>
+      <c r="O21" s="14"/>
+      <c r="P21" s="14"/>
+      <c r="Q21" s="14"/>
+      <c r="R21" s="14"/>
+      <c r="S21" s="14"/>
+      <c r="T21" s="14"/>
+      <c r="U21" s="14"/>
+      <c r="V21" s="14"/>
+      <c r="W21" s="14"/>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A22" s="14" t="str">
+        <f>"880406"</f>
+        <v>880406</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="14"/>
+      <c r="O22" s="14"/>
+      <c r="P22" s="14"/>
+      <c r="Q22" s="14"/>
+      <c r="R22" s="14"/>
+      <c r="S22" s="14"/>
+      <c r="T22" s="14"/>
+      <c r="U22" s="14"/>
+      <c r="V22" s="14"/>
+      <c r="W22" s="14"/>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A23" s="14" t="str">
+        <f>"880414"</f>
+        <v>880414</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="14"/>
+      <c r="O23" s="14"/>
+      <c r="P23" s="14"/>
+      <c r="Q23" s="14"/>
+      <c r="R23" s="14"/>
+      <c r="S23" s="14"/>
+      <c r="T23" s="14"/>
+      <c r="U23" s="14"/>
+      <c r="V23" s="14"/>
+      <c r="W23" s="14"/>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A24" s="14" t="str">
+        <f>"880418"</f>
+        <v>880418</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="14"/>
+      <c r="O24" s="14"/>
+      <c r="P24" s="14"/>
+      <c r="Q24" s="14"/>
+      <c r="R24" s="14"/>
+      <c r="S24" s="14"/>
+      <c r="T24" s="14"/>
+      <c r="U24" s="14"/>
+      <c r="V24" s="14"/>
+      <c r="W24" s="14"/>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A25" s="14" t="str">
+        <f>"880421"</f>
+        <v>880421</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="14"/>
+      <c r="O25" s="14"/>
+      <c r="P25" s="14"/>
+      <c r="Q25" s="14"/>
+      <c r="R25" s="14"/>
+      <c r="S25" s="14"/>
+      <c r="T25" s="14"/>
+      <c r="U25" s="14"/>
+      <c r="V25" s="14"/>
+      <c r="W25" s="14"/>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A26" s="14" t="str">
+        <f>"880422"</f>
+        <v>880422</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="14"/>
+      <c r="N26" s="14"/>
+      <c r="O26" s="14"/>
+      <c r="P26" s="14"/>
+      <c r="Q26" s="14"/>
+      <c r="R26" s="14"/>
+      <c r="S26" s="14"/>
+      <c r="T26" s="14"/>
+      <c r="U26" s="14"/>
+      <c r="V26" s="14"/>
+      <c r="W26" s="14"/>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A27" s="14" t="str">
+        <f>"880423"</f>
+        <v>880423</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="14"/>
+      <c r="N27" s="14"/>
+      <c r="O27" s="14"/>
+      <c r="P27" s="14"/>
+      <c r="Q27" s="14"/>
+      <c r="R27" s="14"/>
+      <c r="S27" s="14"/>
+      <c r="T27" s="14"/>
+      <c r="U27" s="14"/>
+      <c r="V27" s="14"/>
+      <c r="W27" s="14"/>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A28" s="14" t="str">
+        <f>"880424"</f>
+        <v>880424</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="21">
+        <v>2.06</v>
+      </c>
+      <c r="L28" s="14"/>
+      <c r="M28" s="14"/>
+      <c r="N28" s="14"/>
+      <c r="O28" s="14"/>
+      <c r="P28" s="14"/>
+      <c r="Q28" s="14"/>
+      <c r="R28" s="14"/>
+      <c r="S28" s="14"/>
+      <c r="T28" s="14"/>
+      <c r="U28" s="14"/>
+      <c r="V28" s="14"/>
+      <c r="W28" s="14"/>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A29" s="14" t="str">
+        <f>"880430"</f>
+        <v>880430</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29" s="19">
+        <v>1.3</v>
+      </c>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="14"/>
+      <c r="M29" s="14"/>
+      <c r="N29" s="14"/>
+      <c r="O29" s="14"/>
+      <c r="P29" s="14"/>
+      <c r="Q29" s="14"/>
+      <c r="R29" s="14"/>
+      <c r="S29" s="14"/>
+      <c r="T29" s="14"/>
+      <c r="U29" s="14"/>
+      <c r="V29" s="14"/>
+      <c r="W29" s="14"/>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A30" s="14" t="str">
+        <f>"880431"</f>
+        <v>880431</v>
+      </c>
+      <c r="B30" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="19">
+        <v>4.37</v>
+      </c>
+      <c r="L30" s="14"/>
+      <c r="M30" s="14"/>
+      <c r="N30" s="14"/>
+      <c r="O30" s="14"/>
+      <c r="P30" s="14"/>
+      <c r="Q30" s="14"/>
+      <c r="R30" s="14"/>
+      <c r="S30" s="14"/>
+      <c r="T30" s="14"/>
+      <c r="U30" s="14"/>
+      <c r="V30" s="14"/>
+      <c r="W30" s="14"/>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A31" s="14" t="str">
+        <f>"880432"</f>
+        <v>880432</v>
+      </c>
+      <c r="B31" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="14"/>
+      <c r="N31" s="14"/>
+      <c r="O31" s="14"/>
+      <c r="P31" s="14"/>
+      <c r="Q31" s="14"/>
+      <c r="R31" s="14"/>
+      <c r="S31" s="14"/>
+      <c r="T31" s="14"/>
+      <c r="U31" s="14"/>
+      <c r="V31" s="14"/>
+      <c r="W31" s="14"/>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A32" s="14" t="str">
+        <f>"880437"</f>
+        <v>880437</v>
+      </c>
+      <c r="B32" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="14"/>
+      <c r="M32" s="14"/>
+      <c r="N32" s="14"/>
+      <c r="O32" s="14"/>
+      <c r="P32" s="14"/>
+      <c r="Q32" s="14"/>
+      <c r="R32" s="14"/>
+      <c r="S32" s="14"/>
+      <c r="T32" s="14"/>
+      <c r="U32" s="14"/>
+      <c r="V32" s="14"/>
+      <c r="W32" s="14"/>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A33" s="14" t="str">
+        <f>"880440"</f>
+        <v>880440</v>
+      </c>
+      <c r="B33" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="14"/>
+      <c r="K33" s="14"/>
+      <c r="L33" s="14"/>
+      <c r="M33" s="14"/>
+      <c r="N33" s="14"/>
+      <c r="O33" s="14"/>
+      <c r="P33" s="14"/>
+      <c r="Q33" s="14"/>
+      <c r="R33" s="14"/>
+      <c r="S33" s="14"/>
+      <c r="T33" s="14"/>
+      <c r="U33" s="14"/>
+      <c r="V33" s="14"/>
+      <c r="W33" s="14"/>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A34" s="14" t="str">
+        <f>"880446"</f>
+        <v>880446</v>
+      </c>
+      <c r="B34" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="14"/>
+      <c r="K34" s="14"/>
+      <c r="L34" s="14"/>
+      <c r="M34" s="14"/>
+      <c r="N34" s="14"/>
+      <c r="O34" s="14"/>
+      <c r="P34" s="14"/>
+      <c r="Q34" s="14"/>
+      <c r="R34" s="14"/>
+      <c r="S34" s="14"/>
+      <c r="T34" s="14"/>
+      <c r="U34" s="14"/>
+      <c r="V34" s="14"/>
+      <c r="W34" s="14"/>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A35" s="14" t="str">
+        <f>"880447"</f>
+        <v>880447</v>
+      </c>
+      <c r="B35" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="14"/>
+      <c r="K35" s="14"/>
+      <c r="L35" s="14"/>
+      <c r="M35" s="14"/>
+      <c r="N35" s="14"/>
+      <c r="O35" s="14"/>
+      <c r="P35" s="14"/>
+      <c r="Q35" s="14"/>
+      <c r="R35" s="14"/>
+      <c r="S35" s="14"/>
+      <c r="T35" s="14"/>
+      <c r="U35" s="14"/>
+      <c r="V35" s="14"/>
+      <c r="W35" s="14"/>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A36" s="14" t="str">
+        <f>"880448"</f>
+        <v>880448</v>
+      </c>
+      <c r="B36" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="14"/>
+      <c r="K36" s="14"/>
+      <c r="L36" s="14"/>
+      <c r="M36" s="14"/>
+      <c r="N36" s="14"/>
+      <c r="O36" s="14"/>
+      <c r="P36" s="14"/>
+      <c r="Q36" s="14"/>
+      <c r="R36" s="14"/>
+      <c r="S36" s="14"/>
+      <c r="T36" s="14"/>
+      <c r="U36" s="14"/>
+      <c r="V36" s="14"/>
+      <c r="W36" s="14"/>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A37" s="14" t="str">
+        <f>"880452"</f>
+        <v>880452</v>
+      </c>
+      <c r="B37" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="14"/>
+      <c r="J37" s="14"/>
+      <c r="K37" s="20">
+        <v>5.62</v>
+      </c>
+      <c r="L37" s="14"/>
+      <c r="M37" s="14"/>
+      <c r="N37" s="14"/>
+      <c r="O37" s="14"/>
+      <c r="P37" s="14"/>
+      <c r="Q37" s="14"/>
+      <c r="R37" s="14"/>
+      <c r="S37" s="14"/>
+      <c r="T37" s="14"/>
+      <c r="U37" s="14"/>
+      <c r="V37" s="14"/>
+      <c r="W37" s="14"/>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A38" s="14" t="str">
+        <f>"880453"</f>
+        <v>880453</v>
+      </c>
+      <c r="B38" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="14"/>
+      <c r="K38" s="14"/>
+      <c r="L38" s="14"/>
+      <c r="M38" s="14"/>
+      <c r="N38" s="14"/>
+      <c r="O38" s="14"/>
+      <c r="P38" s="14"/>
+      <c r="Q38" s="14"/>
+      <c r="R38" s="14"/>
+      <c r="S38" s="14"/>
+      <c r="T38" s="14"/>
+      <c r="U38" s="14"/>
+      <c r="V38" s="14"/>
+      <c r="W38" s="14"/>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A39" s="14" t="str">
+        <f>"880454"</f>
+        <v>880454</v>
+      </c>
+      <c r="B39" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="14"/>
+      <c r="J39" s="14"/>
+      <c r="K39" s="14"/>
+      <c r="L39" s="14"/>
+      <c r="M39" s="14"/>
+      <c r="N39" s="14"/>
+      <c r="O39" s="14"/>
+      <c r="P39" s="14"/>
+      <c r="Q39" s="14"/>
+      <c r="R39" s="14"/>
+      <c r="S39" s="14"/>
+      <c r="T39" s="14"/>
+      <c r="U39" s="14"/>
+      <c r="V39" s="14"/>
+      <c r="W39" s="14"/>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A40" s="14" t="str">
+        <f>"880455"</f>
+        <v>880455</v>
+      </c>
+      <c r="B40" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="14"/>
+      <c r="I40" s="14"/>
+      <c r="J40" s="14"/>
+      <c r="K40" s="14"/>
+      <c r="L40" s="14"/>
+      <c r="M40" s="14"/>
+      <c r="N40" s="14"/>
+      <c r="O40" s="14"/>
+      <c r="P40" s="14"/>
+      <c r="Q40" s="14"/>
+      <c r="R40" s="14"/>
+      <c r="S40" s="14"/>
+      <c r="T40" s="14"/>
+      <c r="U40" s="14"/>
+      <c r="V40" s="14"/>
+      <c r="W40" s="14"/>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A41" s="14" t="str">
+        <f>"880456"</f>
+        <v>880456</v>
+      </c>
+      <c r="B41" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="14"/>
+      <c r="J41" s="14"/>
+      <c r="K41" s="14"/>
+      <c r="L41" s="14"/>
+      <c r="M41" s="14"/>
+      <c r="N41" s="14"/>
+      <c r="O41" s="14"/>
+      <c r="P41" s="14"/>
+      <c r="Q41" s="14"/>
+      <c r="R41" s="14"/>
+      <c r="S41" s="14"/>
+      <c r="T41" s="14"/>
+      <c r="U41" s="14"/>
+      <c r="V41" s="14"/>
+      <c r="W41" s="14"/>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A42" s="14" t="str">
+        <f>"880459"</f>
+        <v>880459</v>
+      </c>
+      <c r="B42" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="14"/>
+      <c r="H42" s="14"/>
+      <c r="I42" s="14"/>
+      <c r="J42" s="14"/>
+      <c r="K42" s="14"/>
+      <c r="L42" s="14"/>
+      <c r="M42" s="14"/>
+      <c r="N42" s="14"/>
+      <c r="O42" s="14"/>
+      <c r="P42" s="14"/>
+      <c r="Q42" s="14"/>
+      <c r="R42" s="14"/>
+      <c r="S42" s="14"/>
+      <c r="T42" s="14"/>
+      <c r="U42" s="14"/>
+      <c r="V42" s="14"/>
+      <c r="W42" s="14"/>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A43" s="14" t="str">
+        <f>"880464"</f>
+        <v>880464</v>
+      </c>
+      <c r="B43" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="14"/>
+      <c r="H43" s="14"/>
+      <c r="I43" s="14"/>
+      <c r="J43" s="14"/>
+      <c r="K43" s="14"/>
+      <c r="L43" s="14"/>
+      <c r="M43" s="14"/>
+      <c r="N43" s="14"/>
+      <c r="O43" s="14"/>
+      <c r="P43" s="14"/>
+      <c r="Q43" s="14"/>
+      <c r="R43" s="14"/>
+      <c r="S43" s="14"/>
+      <c r="T43" s="14"/>
+      <c r="U43" s="14"/>
+      <c r="V43" s="14"/>
+      <c r="W43" s="14"/>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A44" s="14" t="str">
+        <f>"880465"</f>
+        <v>880465</v>
+      </c>
+      <c r="B44" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+      <c r="G44" s="14"/>
+      <c r="H44" s="14"/>
+      <c r="I44" s="14"/>
+      <c r="J44" s="14"/>
+      <c r="K44" s="14"/>
+      <c r="L44" s="14"/>
+      <c r="M44" s="14"/>
+      <c r="N44" s="14"/>
+      <c r="O44" s="14"/>
+      <c r="P44" s="14"/>
+      <c r="Q44" s="14"/>
+      <c r="R44" s="14"/>
+      <c r="S44" s="14"/>
+      <c r="T44" s="14"/>
+      <c r="U44" s="14"/>
+      <c r="V44" s="14"/>
+      <c r="W44" s="14"/>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A45" s="14" t="str">
+        <f>"880471"</f>
+        <v>880471</v>
+      </c>
+      <c r="B45" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C45" s="22">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
+      <c r="G45" s="14"/>
+      <c r="H45" s="14"/>
+      <c r="I45" s="14"/>
+      <c r="J45" s="14"/>
+      <c r="K45" s="14"/>
+      <c r="L45" s="14"/>
+      <c r="M45" s="14"/>
+      <c r="N45" s="14"/>
+      <c r="O45" s="14"/>
+      <c r="P45" s="14"/>
+      <c r="Q45" s="14"/>
+      <c r="R45" s="14"/>
+      <c r="S45" s="14"/>
+      <c r="T45" s="14"/>
+      <c r="U45" s="14"/>
+      <c r="V45" s="14"/>
+      <c r="W45" s="14"/>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A46" s="14" t="str">
+        <f>"880472"</f>
+        <v>880472</v>
+      </c>
+      <c r="B46" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
+      <c r="G46" s="14"/>
+      <c r="H46" s="14"/>
+      <c r="I46" s="14"/>
+      <c r="J46" s="14"/>
+      <c r="K46" s="14"/>
+      <c r="L46" s="14"/>
+      <c r="M46" s="14"/>
+      <c r="N46" s="14"/>
+      <c r="O46" s="14"/>
+      <c r="P46" s="14"/>
+      <c r="Q46" s="14"/>
+      <c r="R46" s="14"/>
+      <c r="S46" s="14"/>
+      <c r="T46" s="14"/>
+      <c r="U46" s="14"/>
+      <c r="V46" s="14"/>
+      <c r="W46" s="14"/>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A47" s="14" t="str">
+        <f>"880473"</f>
+        <v>880473</v>
+      </c>
+      <c r="B47" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+      <c r="G47" s="14"/>
+      <c r="H47" s="14"/>
+      <c r="I47" s="14"/>
+      <c r="J47" s="14"/>
+      <c r="K47" s="14"/>
+      <c r="L47" s="14"/>
+      <c r="M47" s="14"/>
+      <c r="N47" s="14"/>
+      <c r="O47" s="14"/>
+      <c r="P47" s="14"/>
+      <c r="Q47" s="14"/>
+      <c r="R47" s="14"/>
+      <c r="S47" s="14"/>
+      <c r="T47" s="14"/>
+      <c r="U47" s="14"/>
+      <c r="V47" s="14"/>
+      <c r="W47" s="14"/>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A48" s="14" t="str">
+        <f>"880474"</f>
+        <v>880474</v>
+      </c>
+      <c r="B48" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D48" s="19">
+        <v>1.6</v>
+      </c>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+      <c r="G48" s="14"/>
+      <c r="H48" s="14"/>
+      <c r="I48" s="14"/>
+      <c r="J48" s="14"/>
+      <c r="K48" s="14"/>
+      <c r="L48" s="14"/>
+      <c r="M48" s="14"/>
+      <c r="N48" s="14"/>
+      <c r="O48" s="14"/>
+      <c r="P48" s="14"/>
+      <c r="Q48" s="14"/>
+      <c r="R48" s="14"/>
+      <c r="S48" s="14"/>
+      <c r="T48" s="14"/>
+      <c r="U48" s="14"/>
+      <c r="V48" s="14"/>
+      <c r="W48" s="14"/>
+    </row>
+    <row r="49" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A49" s="14" t="str">
+        <f>"880476"</f>
+        <v>880476</v>
+      </c>
+      <c r="B49" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="14"/>
+      <c r="H49" s="14"/>
+      <c r="I49" s="14"/>
+      <c r="J49" s="14"/>
+      <c r="K49" s="14"/>
+      <c r="L49" s="14"/>
+      <c r="M49" s="14"/>
+      <c r="N49" s="14"/>
+      <c r="O49" s="14"/>
+      <c r="P49" s="14"/>
+      <c r="Q49" s="14"/>
+      <c r="R49" s="14"/>
+      <c r="S49" s="14"/>
+      <c r="T49" s="14"/>
+      <c r="U49" s="14"/>
+      <c r="V49" s="14"/>
+      <c r="W49" s="14"/>
+    </row>
+    <row r="50" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A50" s="14" t="str">
+        <f>"880482"</f>
+        <v>880482</v>
+      </c>
+      <c r="B50" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C50" s="21">
+        <v>0.79</v>
+      </c>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c r="G50" s="14"/>
+      <c r="H50" s="14"/>
+      <c r="I50" s="14"/>
+      <c r="J50" s="14"/>
+      <c r="K50" s="14"/>
+      <c r="L50" s="14"/>
+      <c r="M50" s="14"/>
+      <c r="N50" s="14"/>
+      <c r="O50" s="14"/>
+      <c r="P50" s="14"/>
+      <c r="Q50" s="14"/>
+      <c r="R50" s="14"/>
+      <c r="S50" s="14"/>
+      <c r="T50" s="14"/>
+      <c r="U50" s="14"/>
+      <c r="V50" s="14"/>
+      <c r="W50" s="14"/>
+    </row>
+    <row r="51" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A51" s="14" t="str">
+        <f>"880489"</f>
+        <v>880489</v>
+      </c>
+      <c r="B51" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14"/>
+      <c r="G51" s="14"/>
+      <c r="H51" s="14"/>
+      <c r="I51" s="14"/>
+      <c r="J51" s="14"/>
+      <c r="K51" s="14"/>
+      <c r="L51" s="14"/>
+      <c r="M51" s="14"/>
+      <c r="N51" s="14"/>
+      <c r="O51" s="14"/>
+      <c r="P51" s="14"/>
+      <c r="Q51" s="14"/>
+      <c r="R51" s="14"/>
+      <c r="S51" s="14"/>
+      <c r="T51" s="14"/>
+      <c r="U51" s="14"/>
+      <c r="V51" s="14"/>
+      <c r="W51" s="14"/>
+    </row>
+    <row r="52" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A52" s="14" t="str">
+        <f>"880490"</f>
+        <v>880490</v>
+      </c>
+      <c r="B52" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="14"/>
+      <c r="G52" s="14"/>
+      <c r="H52" s="14"/>
+      <c r="I52" s="14"/>
+      <c r="J52" s="14"/>
+      <c r="K52" s="14"/>
+      <c r="L52" s="14"/>
+      <c r="M52" s="14"/>
+      <c r="N52" s="14"/>
+      <c r="O52" s="14"/>
+      <c r="P52" s="14"/>
+      <c r="Q52" s="14"/>
+      <c r="R52" s="14"/>
+      <c r="S52" s="14"/>
+      <c r="T52" s="14"/>
+      <c r="U52" s="14"/>
+      <c r="V52" s="14"/>
+      <c r="W52" s="14"/>
+    </row>
+    <row r="53" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A53" s="14" t="str">
+        <f>"880491"</f>
+        <v>880491</v>
+      </c>
+      <c r="B53" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="14"/>
+      <c r="G53" s="14"/>
+      <c r="H53" s="14"/>
+      <c r="I53" s="14"/>
+      <c r="J53" s="14"/>
+      <c r="K53" s="14"/>
+      <c r="L53" s="14"/>
+      <c r="M53" s="14"/>
+      <c r="N53" s="14"/>
+      <c r="O53" s="14"/>
+      <c r="P53" s="14"/>
+      <c r="Q53" s="14"/>
+      <c r="R53" s="14"/>
+      <c r="S53" s="14"/>
+      <c r="T53" s="14"/>
+      <c r="U53" s="14"/>
+      <c r="V53" s="14"/>
+      <c r="W53" s="14"/>
+    </row>
+    <row r="54" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A54" s="14" t="str">
+        <f>"880492"</f>
+        <v>880492</v>
+      </c>
+      <c r="B54" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="14"/>
+      <c r="G54" s="14"/>
+      <c r="H54" s="14"/>
+      <c r="I54" s="14"/>
+      <c r="J54" s="14"/>
+      <c r="K54" s="14"/>
+      <c r="L54" s="14"/>
+      <c r="M54" s="14"/>
+      <c r="N54" s="14"/>
+      <c r="O54" s="14"/>
+      <c r="P54" s="14"/>
+      <c r="Q54" s="14"/>
+      <c r="R54" s="14"/>
+      <c r="S54" s="14"/>
+      <c r="T54" s="14"/>
+      <c r="U54" s="14"/>
+      <c r="V54" s="14"/>
+      <c r="W54" s="14"/>
+    </row>
+    <row r="55" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A55" s="14" t="str">
+        <f>"880493"</f>
+        <v>880493</v>
+      </c>
+      <c r="B55" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C55" s="14"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="14"/>
+      <c r="G55" s="14"/>
+      <c r="H55" s="14"/>
+      <c r="I55" s="14"/>
+      <c r="J55" s="14"/>
+      <c r="K55" s="14"/>
+      <c r="L55" s="14"/>
+      <c r="M55" s="14"/>
+      <c r="N55" s="14"/>
+      <c r="O55" s="14"/>
+      <c r="P55" s="14"/>
+      <c r="Q55" s="14"/>
+      <c r="R55" s="14"/>
+      <c r="S55" s="14"/>
+      <c r="T55" s="14"/>
+      <c r="U55" s="14"/>
+      <c r="V55" s="14"/>
+      <c r="W55" s="14"/>
+    </row>
+    <row r="56" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A56" s="14" t="str">
+        <f>"880494"</f>
+        <v>880494</v>
+      </c>
+      <c r="B56" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C56" s="14"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="14"/>
+      <c r="G56" s="14"/>
+      <c r="H56" s="14"/>
+      <c r="I56" s="14"/>
+      <c r="J56" s="14"/>
+      <c r="K56" s="14"/>
+      <c r="L56" s="14"/>
+      <c r="M56" s="14"/>
+      <c r="N56" s="14"/>
+      <c r="O56" s="14"/>
+      <c r="P56" s="14"/>
+      <c r="Q56" s="14"/>
+      <c r="R56" s="14"/>
+      <c r="S56" s="14"/>
+      <c r="T56" s="14"/>
+      <c r="U56" s="14"/>
+      <c r="V56" s="14"/>
+      <c r="W56" s="14"/>
+    </row>
+    <row r="57" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A57" s="14" t="str">
+        <f>"880497"</f>
+        <v>880497</v>
+      </c>
+      <c r="B57" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C57" s="14"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="14"/>
+      <c r="G57" s="14"/>
+      <c r="H57" s="14"/>
+      <c r="I57" s="14"/>
+      <c r="J57" s="14"/>
+      <c r="K57" s="14"/>
+      <c r="L57" s="14"/>
+      <c r="M57" s="14"/>
+      <c r="N57" s="14"/>
+      <c r="O57" s="14"/>
+      <c r="P57" s="14"/>
+      <c r="Q57" s="14"/>
+      <c r="R57" s="14"/>
+      <c r="S57" s="14"/>
+      <c r="T57" s="14"/>
+      <c r="U57" s="14"/>
+      <c r="V57" s="14"/>
+      <c r="W57" s="14"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W57"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="M37" sqref="M37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="3" max="3" width="8.875" style="17" customWidth="1"/>
+    <col min="4" max="23" width="9" style="17"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A1" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="18">
+        <v>42697</v>
+      </c>
+      <c r="D1" s="18">
+        <v>42698</v>
+      </c>
+      <c r="E1" s="18">
+        <v>42699</v>
+      </c>
+      <c r="F1" s="18">
+        <v>42700</v>
+      </c>
+      <c r="G1" s="18">
+        <v>42701</v>
+      </c>
+      <c r="H1" s="18">
+        <v>42702</v>
+      </c>
+      <c r="I1" s="18">
+        <v>42703</v>
+      </c>
+      <c r="J1" s="18">
+        <v>42704</v>
+      </c>
+      <c r="K1" s="18">
+        <v>42705</v>
+      </c>
+      <c r="L1" s="18">
+        <v>42706</v>
+      </c>
+      <c r="M1" s="18">
+        <v>42707</v>
+      </c>
+      <c r="N1" s="18">
+        <v>42708</v>
+      </c>
+      <c r="O1" s="18">
+        <v>42709</v>
+      </c>
+      <c r="P1" s="18">
+        <v>42710</v>
+      </c>
+      <c r="Q1" s="18">
+        <v>42711</v>
+      </c>
+      <c r="R1" s="18">
+        <v>42712</v>
+      </c>
+      <c r="S1" s="18">
+        <v>42713</v>
+      </c>
+      <c r="T1" s="18">
+        <v>42714</v>
+      </c>
+      <c r="U1" s="18">
+        <v>42715</v>
+      </c>
+      <c r="V1" s="18">
+        <v>42716</v>
+      </c>
+      <c r="W1" s="18">
+        <v>42717</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A2" s="14" t="str">
+        <f>"880301"</f>
+        <v>880301</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="22">
+        <v>-1.94</v>
+      </c>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
+      <c r="S2" s="14"/>
+      <c r="T2" s="14"/>
+      <c r="U2" s="14"/>
+      <c r="V2" s="14"/>
+      <c r="W2" s="14"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A3" s="14" t="str">
+        <f>"880305"</f>
+        <v>880305</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="14"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="14"/>
+      <c r="U3" s="14"/>
+      <c r="V3" s="14"/>
+      <c r="W3" s="14"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A4" s="14" t="str">
+        <f>"880310"</f>
+        <v>880310</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="14"/>
+      <c r="S4" s="14"/>
+      <c r="T4" s="14"/>
+      <c r="U4" s="14"/>
+      <c r="V4" s="14"/>
+      <c r="W4" s="14"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A5" s="14" t="str">
+        <f>"880318"</f>
+        <v>880318</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="14"/>
+      <c r="S5" s="14"/>
+      <c r="T5" s="14"/>
+      <c r="U5" s="14"/>
+      <c r="V5" s="14"/>
+      <c r="W5" s="14"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A6" s="14" t="str">
+        <f>"880324"</f>
+        <v>880324</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="20">
+        <v>-1.21</v>
+      </c>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="14"/>
+      <c r="S6" s="14"/>
+      <c r="T6" s="14"/>
+      <c r="U6" s="14"/>
+      <c r="V6" s="14"/>
+      <c r="W6" s="14"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A7" s="14" t="str">
+        <f>"880330"</f>
+        <v>880330</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="14"/>
+      <c r="S7" s="14"/>
+      <c r="T7" s="14"/>
+      <c r="U7" s="14"/>
+      <c r="V7" s="14"/>
+      <c r="W7" s="14"/>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A8" s="14" t="str">
+        <f>"880335"</f>
+        <v>880335</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="14"/>
+      <c r="S8" s="14"/>
+      <c r="T8" s="14"/>
+      <c r="U8" s="14"/>
+      <c r="V8" s="14"/>
+      <c r="W8" s="14"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A9" s="14" t="str">
+        <f>"880344"</f>
+        <v>880344</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="14"/>
+      <c r="S9" s="14"/>
+      <c r="T9" s="14"/>
+      <c r="U9" s="14"/>
+      <c r="V9" s="14"/>
+      <c r="W9" s="14"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A10" s="14" t="str">
+        <f>"880350"</f>
+        <v>880350</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="14"/>
+      <c r="S10" s="14"/>
+      <c r="T10" s="14"/>
+      <c r="U10" s="14"/>
+      <c r="V10" s="14"/>
+      <c r="W10" s="14"/>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A11" s="14" t="str">
+        <f>"880351"</f>
+        <v>880351</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="14"/>
+      <c r="S11" s="14"/>
+      <c r="T11" s="14"/>
+      <c r="U11" s="14"/>
+      <c r="V11" s="14"/>
+      <c r="W11" s="14"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A12" s="14" t="str">
+        <f>"880355"</f>
+        <v>880355</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="19">
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="14"/>
+      <c r="S12" s="14"/>
+      <c r="T12" s="14"/>
+      <c r="U12" s="14"/>
+      <c r="V12" s="14"/>
+      <c r="W12" s="14"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A13" s="14" t="str">
+        <f>"880360"</f>
+        <v>880360</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="14"/>
+      <c r="S13" s="14"/>
+      <c r="T13" s="14"/>
+      <c r="U13" s="14"/>
+      <c r="V13" s="14"/>
+      <c r="W13" s="14"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A14" s="14" t="str">
+        <f>"880367"</f>
+        <v>880367</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="14"/>
+      <c r="S14" s="14"/>
+      <c r="T14" s="14"/>
+      <c r="U14" s="14"/>
+      <c r="V14" s="14"/>
+      <c r="W14" s="14"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A15" s="14" t="str">
+        <f>"880372"</f>
+        <v>880372</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="14"/>
+      <c r="S15" s="14"/>
+      <c r="T15" s="14"/>
+      <c r="U15" s="14"/>
+      <c r="V15" s="14"/>
+      <c r="W15" s="14"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A16" s="14" t="str">
+        <f>"880380"</f>
+        <v>880380</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="14"/>
+      <c r="R16" s="14"/>
+      <c r="S16" s="14"/>
+      <c r="T16" s="14"/>
+      <c r="U16" s="14"/>
+      <c r="V16" s="14"/>
+      <c r="W16" s="14"/>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A17" s="14" t="str">
+        <f>"880387"</f>
+        <v>880387</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="14"/>
+      <c r="Q17" s="14"/>
+      <c r="R17" s="14"/>
+      <c r="S17" s="14"/>
+      <c r="T17" s="14"/>
+      <c r="U17" s="14"/>
+      <c r="V17" s="14"/>
+      <c r="W17" s="14"/>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A18" s="14" t="str">
+        <f>"880390"</f>
+        <v>880390</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="14"/>
+      <c r="Q18" s="14"/>
+      <c r="R18" s="14"/>
+      <c r="S18" s="14"/>
+      <c r="T18" s="14"/>
+      <c r="U18" s="14"/>
+      <c r="V18" s="14"/>
+      <c r="W18" s="14"/>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A19" s="14" t="str">
+        <f>"880398"</f>
+        <v>880398</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="14"/>
+      <c r="P19" s="14"/>
+      <c r="Q19" s="14"/>
+      <c r="R19" s="14"/>
+      <c r="S19" s="14"/>
+      <c r="T19" s="14"/>
+      <c r="U19" s="14"/>
+      <c r="V19" s="14"/>
+      <c r="W19" s="14"/>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A20" s="14" t="str">
+        <f>"880399"</f>
+        <v>880399</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="14"/>
+      <c r="Q20" s="14"/>
+      <c r="R20" s="14"/>
+      <c r="S20" s="14"/>
+      <c r="T20" s="14"/>
+      <c r="U20" s="14"/>
+      <c r="V20" s="14"/>
+      <c r="W20" s="14"/>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A21" s="14" t="str">
+        <f>"880400"</f>
+        <v>880400</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="14"/>
+      <c r="O21" s="14"/>
+      <c r="P21" s="14"/>
+      <c r="Q21" s="14"/>
+      <c r="R21" s="14"/>
+      <c r="S21" s="14"/>
+      <c r="T21" s="14"/>
+      <c r="U21" s="14"/>
+      <c r="V21" s="14"/>
+      <c r="W21" s="14"/>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A22" s="14" t="str">
+        <f>"880406"</f>
+        <v>880406</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="14"/>
+      <c r="O22" s="14"/>
+      <c r="P22" s="14"/>
+      <c r="Q22" s="14"/>
+      <c r="R22" s="14"/>
+      <c r="S22" s="14"/>
+      <c r="T22" s="14"/>
+      <c r="U22" s="14"/>
+      <c r="V22" s="14"/>
+      <c r="W22" s="14"/>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A23" s="14" t="str">
+        <f>"880414"</f>
+        <v>880414</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="14"/>
+      <c r="O23" s="14"/>
+      <c r="P23" s="14"/>
+      <c r="Q23" s="14"/>
+      <c r="R23" s="14"/>
+      <c r="S23" s="14"/>
+      <c r="T23" s="14"/>
+      <c r="U23" s="14"/>
+      <c r="V23" s="14"/>
+      <c r="W23" s="14"/>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A24" s="14" t="str">
+        <f>"880418"</f>
+        <v>880418</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="14"/>
+      <c r="O24" s="14"/>
+      <c r="P24" s="14"/>
+      <c r="Q24" s="14"/>
+      <c r="R24" s="14"/>
+      <c r="S24" s="14"/>
+      <c r="T24" s="14"/>
+      <c r="U24" s="14"/>
+      <c r="V24" s="14"/>
+      <c r="W24" s="14"/>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A25" s="14" t="str">
+        <f>"880421"</f>
+        <v>880421</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="14"/>
+      <c r="O25" s="14"/>
+      <c r="P25" s="14"/>
+      <c r="Q25" s="14"/>
+      <c r="R25" s="14"/>
+      <c r="S25" s="14"/>
+      <c r="T25" s="14"/>
+      <c r="U25" s="14"/>
+      <c r="V25" s="14"/>
+      <c r="W25" s="14"/>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A26" s="14" t="str">
+        <f>"880422"</f>
+        <v>880422</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="14"/>
+      <c r="N26" s="14"/>
+      <c r="O26" s="14"/>
+      <c r="P26" s="14"/>
+      <c r="Q26" s="14"/>
+      <c r="R26" s="14"/>
+      <c r="S26" s="14"/>
+      <c r="T26" s="14"/>
+      <c r="U26" s="14"/>
+      <c r="V26" s="14"/>
+      <c r="W26" s="14"/>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A27" s="14" t="str">
+        <f>"880423"</f>
+        <v>880423</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="14"/>
+      <c r="N27" s="14"/>
+      <c r="O27" s="14"/>
+      <c r="P27" s="14"/>
+      <c r="Q27" s="14"/>
+      <c r="R27" s="14"/>
+      <c r="S27" s="14"/>
+      <c r="T27" s="14"/>
+      <c r="U27" s="14"/>
+      <c r="V27" s="14"/>
+      <c r="W27" s="14"/>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A28" s="14" t="str">
+        <f>"880424"</f>
+        <v>880424</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="14"/>
+      <c r="N28" s="14"/>
+      <c r="O28" s="14"/>
+      <c r="P28" s="14"/>
+      <c r="Q28" s="14"/>
+      <c r="R28" s="14"/>
+      <c r="S28" s="14"/>
+      <c r="T28" s="14"/>
+      <c r="U28" s="14"/>
+      <c r="V28" s="14"/>
+      <c r="W28" s="14"/>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A29" s="14" t="str">
+        <f>"880430"</f>
+        <v>880430</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="14"/>
+      <c r="M29" s="14"/>
+      <c r="N29" s="14"/>
+      <c r="O29" s="14"/>
+      <c r="P29" s="14"/>
+      <c r="Q29" s="14"/>
+      <c r="R29" s="14"/>
+      <c r="S29" s="14"/>
+      <c r="T29" s="14"/>
+      <c r="U29" s="14"/>
+      <c r="V29" s="14"/>
+      <c r="W29" s="14"/>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A30" s="14" t="str">
+        <f>"880431"</f>
+        <v>880431</v>
+      </c>
+      <c r="B30" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="14"/>
+      <c r="M30" s="14"/>
+      <c r="N30" s="14"/>
+      <c r="O30" s="14"/>
+      <c r="P30" s="14"/>
+      <c r="Q30" s="14"/>
+      <c r="R30" s="14"/>
+      <c r="S30" s="14"/>
+      <c r="T30" s="14"/>
+      <c r="U30" s="14"/>
+      <c r="V30" s="14"/>
+      <c r="W30" s="14"/>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A31" s="14" t="str">
+        <f>"880432"</f>
+        <v>880432</v>
+      </c>
+      <c r="B31" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="21">
+        <v>-2.0499999999999998</v>
+      </c>
+      <c r="L31" s="14"/>
+      <c r="M31" s="14"/>
+      <c r="N31" s="14"/>
+      <c r="O31" s="14"/>
+      <c r="P31" s="14"/>
+      <c r="Q31" s="14"/>
+      <c r="R31" s="14"/>
+      <c r="S31" s="14"/>
+      <c r="T31" s="14"/>
+      <c r="U31" s="14"/>
+      <c r="V31" s="14"/>
+      <c r="W31" s="14"/>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A32" s="14" t="str">
+        <f>"880437"</f>
+        <v>880437</v>
+      </c>
+      <c r="B32" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="14"/>
+      <c r="M32" s="14"/>
+      <c r="N32" s="14"/>
+      <c r="O32" s="14"/>
+      <c r="P32" s="14"/>
+      <c r="Q32" s="14"/>
+      <c r="R32" s="14"/>
+      <c r="S32" s="14"/>
+      <c r="T32" s="14"/>
+      <c r="U32" s="14"/>
+      <c r="V32" s="14"/>
+      <c r="W32" s="14"/>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A33" s="14" t="str">
+        <f>"880440"</f>
+        <v>880440</v>
+      </c>
+      <c r="B33" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="14"/>
+      <c r="K33" s="14"/>
+      <c r="L33" s="14"/>
+      <c r="M33" s="14"/>
+      <c r="N33" s="14"/>
+      <c r="O33" s="14"/>
+      <c r="P33" s="14"/>
+      <c r="Q33" s="14"/>
+      <c r="R33" s="14"/>
+      <c r="S33" s="14"/>
+      <c r="T33" s="14"/>
+      <c r="U33" s="14"/>
+      <c r="V33" s="14"/>
+      <c r="W33" s="14"/>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A34" s="14" t="str">
+        <f>"880446"</f>
+        <v>880446</v>
+      </c>
+      <c r="B34" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="14"/>
+      <c r="K34" s="14"/>
+      <c r="L34" s="14"/>
+      <c r="M34" s="14"/>
+      <c r="N34" s="14"/>
+      <c r="O34" s="14"/>
+      <c r="P34" s="14"/>
+      <c r="Q34" s="14"/>
+      <c r="R34" s="14"/>
+      <c r="S34" s="14"/>
+      <c r="T34" s="14"/>
+      <c r="U34" s="14"/>
+      <c r="V34" s="14"/>
+      <c r="W34" s="14"/>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A35" s="14" t="str">
+        <f>"880447"</f>
+        <v>880447</v>
+      </c>
+      <c r="B35" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="14"/>
+      <c r="K35" s="14"/>
+      <c r="L35" s="14"/>
+      <c r="M35" s="14"/>
+      <c r="N35" s="14"/>
+      <c r="O35" s="14"/>
+      <c r="P35" s="14"/>
+      <c r="Q35" s="14"/>
+      <c r="R35" s="14"/>
+      <c r="S35" s="14"/>
+      <c r="T35" s="14"/>
+      <c r="U35" s="14"/>
+      <c r="V35" s="14"/>
+      <c r="W35" s="14"/>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A36" s="14" t="str">
+        <f>"880448"</f>
+        <v>880448</v>
+      </c>
+      <c r="B36" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="14"/>
+      <c r="K36" s="14"/>
+      <c r="L36" s="14"/>
+      <c r="M36" s="14"/>
+      <c r="N36" s="14"/>
+      <c r="O36" s="14"/>
+      <c r="P36" s="14"/>
+      <c r="Q36" s="14"/>
+      <c r="R36" s="14"/>
+      <c r="S36" s="14"/>
+      <c r="T36" s="14"/>
+      <c r="U36" s="14"/>
+      <c r="V36" s="14"/>
+      <c r="W36" s="14"/>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A37" s="14" t="str">
+        <f>"880452"</f>
+        <v>880452</v>
+      </c>
+      <c r="B37" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C37" s="21">
+        <v>-2.13</v>
+      </c>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="14"/>
+      <c r="J37" s="14"/>
+      <c r="K37" s="14"/>
+      <c r="L37" s="14"/>
+      <c r="M37" s="14"/>
+      <c r="N37" s="14"/>
+      <c r="O37" s="14"/>
+      <c r="P37" s="14"/>
+      <c r="Q37" s="14"/>
+      <c r="R37" s="14"/>
+      <c r="S37" s="14"/>
+      <c r="T37" s="14"/>
+      <c r="U37" s="14"/>
+      <c r="V37" s="14"/>
+      <c r="W37" s="14"/>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A38" s="14" t="str">
+        <f>"880453"</f>
+        <v>880453</v>
+      </c>
+      <c r="B38" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C38" s="23">
+        <v>-1.43</v>
+      </c>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="14"/>
+      <c r="K38" s="14"/>
+      <c r="L38" s="14"/>
+      <c r="M38" s="14"/>
+      <c r="N38" s="14"/>
+      <c r="O38" s="14"/>
+      <c r="P38" s="14"/>
+      <c r="Q38" s="14"/>
+      <c r="R38" s="14"/>
+      <c r="S38" s="14"/>
+      <c r="T38" s="14"/>
+      <c r="U38" s="14"/>
+      <c r="V38" s="14"/>
+      <c r="W38" s="14"/>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A39" s="14" t="str">
+        <f>"880454"</f>
+        <v>880454</v>
+      </c>
+      <c r="B39" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="14"/>
+      <c r="J39" s="14"/>
+      <c r="K39" s="14"/>
+      <c r="L39" s="14"/>
+      <c r="M39" s="14"/>
+      <c r="N39" s="14"/>
+      <c r="O39" s="14"/>
+      <c r="P39" s="14"/>
+      <c r="Q39" s="14"/>
+      <c r="R39" s="14"/>
+      <c r="S39" s="14"/>
+      <c r="T39" s="14"/>
+      <c r="U39" s="14"/>
+      <c r="V39" s="14"/>
+      <c r="W39" s="14"/>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A40" s="14" t="str">
+        <f>"880455"</f>
+        <v>880455</v>
+      </c>
+      <c r="B40" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="14"/>
+      <c r="I40" s="14"/>
+      <c r="J40" s="14"/>
+      <c r="K40" s="14"/>
+      <c r="L40" s="14"/>
+      <c r="M40" s="14"/>
+      <c r="N40" s="14"/>
+      <c r="O40" s="14"/>
+      <c r="P40" s="14"/>
+      <c r="Q40" s="14"/>
+      <c r="R40" s="14"/>
+      <c r="S40" s="14"/>
+      <c r="T40" s="14"/>
+      <c r="U40" s="14"/>
+      <c r="V40" s="14"/>
+      <c r="W40" s="14"/>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A41" s="14" t="str">
+        <f>"880456"</f>
+        <v>880456</v>
+      </c>
+      <c r="B41" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="14"/>
+      <c r="J41" s="14"/>
+      <c r="K41" s="20">
+        <v>-0.13</v>
+      </c>
+      <c r="L41" s="14"/>
+      <c r="M41" s="14"/>
+      <c r="N41" s="14"/>
+      <c r="O41" s="14"/>
+      <c r="P41" s="14"/>
+      <c r="Q41" s="14"/>
+      <c r="R41" s="14"/>
+      <c r="S41" s="14"/>
+      <c r="T41" s="14"/>
+      <c r="U41" s="14"/>
+      <c r="V41" s="14"/>
+      <c r="W41" s="14"/>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A42" s="14" t="str">
+        <f>"880459"</f>
+        <v>880459</v>
+      </c>
+      <c r="B42" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C42" s="19">
+        <v>-1.24</v>
+      </c>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="14"/>
+      <c r="H42" s="14"/>
+      <c r="I42" s="14"/>
+      <c r="J42" s="14"/>
+      <c r="K42" s="14"/>
+      <c r="L42" s="14"/>
+      <c r="M42" s="14"/>
+      <c r="N42" s="14"/>
+      <c r="O42" s="14"/>
+      <c r="P42" s="14"/>
+      <c r="Q42" s="14"/>
+      <c r="R42" s="14"/>
+      <c r="S42" s="14"/>
+      <c r="T42" s="14"/>
+      <c r="U42" s="14"/>
+      <c r="V42" s="14"/>
+      <c r="W42" s="14"/>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A43" s="14" t="str">
+        <f>"880464"</f>
+        <v>880464</v>
+      </c>
+      <c r="B43" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="14"/>
+      <c r="H43" s="14"/>
+      <c r="I43" s="14"/>
+      <c r="J43" s="14"/>
+      <c r="K43" s="14"/>
+      <c r="L43" s="14"/>
+      <c r="M43" s="14"/>
+      <c r="N43" s="14"/>
+      <c r="O43" s="14"/>
+      <c r="P43" s="14"/>
+      <c r="Q43" s="14"/>
+      <c r="R43" s="14"/>
+      <c r="S43" s="14"/>
+      <c r="T43" s="14"/>
+      <c r="U43" s="14"/>
+      <c r="V43" s="14"/>
+      <c r="W43" s="14"/>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A44" s="14" t="str">
+        <f>"880465"</f>
+        <v>880465</v>
+      </c>
+      <c r="B44" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+      <c r="G44" s="14"/>
+      <c r="H44" s="14"/>
+      <c r="I44" s="14"/>
+      <c r="J44" s="14"/>
+      <c r="K44" s="14"/>
+      <c r="L44" s="14"/>
+      <c r="M44" s="14"/>
+      <c r="N44" s="14"/>
+      <c r="O44" s="14"/>
+      <c r="P44" s="14"/>
+      <c r="Q44" s="14"/>
+      <c r="R44" s="14"/>
+      <c r="S44" s="14"/>
+      <c r="T44" s="14"/>
+      <c r="U44" s="14"/>
+      <c r="V44" s="14"/>
+      <c r="W44" s="14"/>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A45" s="14" t="str">
+        <f>"880471"</f>
+        <v>880471</v>
+      </c>
+      <c r="B45" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
+      <c r="G45" s="14"/>
+      <c r="H45" s="14"/>
+      <c r="I45" s="14"/>
+      <c r="J45" s="14"/>
+      <c r="K45" s="14"/>
+      <c r="L45" s="14"/>
+      <c r="M45" s="14"/>
+      <c r="N45" s="14"/>
+      <c r="O45" s="14"/>
+      <c r="P45" s="14"/>
+      <c r="Q45" s="14"/>
+      <c r="R45" s="14"/>
+      <c r="S45" s="14"/>
+      <c r="T45" s="14"/>
+      <c r="U45" s="14"/>
+      <c r="V45" s="14"/>
+      <c r="W45" s="14"/>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A46" s="14" t="str">
+        <f>"880472"</f>
+        <v>880472</v>
+      </c>
+      <c r="B46" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
+      <c r="G46" s="14"/>
+      <c r="H46" s="14"/>
+      <c r="I46" s="14"/>
+      <c r="J46" s="14"/>
+      <c r="K46" s="14"/>
+      <c r="L46" s="14"/>
+      <c r="M46" s="14"/>
+      <c r="N46" s="14"/>
+      <c r="O46" s="14"/>
+      <c r="P46" s="14"/>
+      <c r="Q46" s="14"/>
+      <c r="R46" s="14"/>
+      <c r="S46" s="14"/>
+      <c r="T46" s="14"/>
+      <c r="U46" s="14"/>
+      <c r="V46" s="14"/>
+      <c r="W46" s="14"/>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A47" s="14" t="str">
+        <f>"880473"</f>
+        <v>880473</v>
+      </c>
+      <c r="B47" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+      <c r="G47" s="14"/>
+      <c r="H47" s="14"/>
+      <c r="I47" s="14"/>
+      <c r="J47" s="14"/>
+      <c r="K47" s="22">
+        <v>-0.53</v>
+      </c>
+      <c r="L47" s="14"/>
+      <c r="M47" s="14"/>
+      <c r="N47" s="14"/>
+      <c r="O47" s="14"/>
+      <c r="P47" s="14"/>
+      <c r="Q47" s="14"/>
+      <c r="R47" s="14"/>
+      <c r="S47" s="14"/>
+      <c r="T47" s="14"/>
+      <c r="U47" s="14"/>
+      <c r="V47" s="14"/>
+      <c r="W47" s="14"/>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A48" s="14" t="str">
+        <f>"880474"</f>
+        <v>880474</v>
+      </c>
+      <c r="B48" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+      <c r="G48" s="14"/>
+      <c r="H48" s="14"/>
+      <c r="I48" s="14"/>
+      <c r="J48" s="14"/>
+      <c r="K48" s="14"/>
+      <c r="L48" s="14"/>
+      <c r="M48" s="14"/>
+      <c r="N48" s="14"/>
+      <c r="O48" s="14"/>
+      <c r="P48" s="14"/>
+      <c r="Q48" s="14"/>
+      <c r="R48" s="14"/>
+      <c r="S48" s="14"/>
+      <c r="T48" s="14"/>
+      <c r="U48" s="14"/>
+      <c r="V48" s="14"/>
+      <c r="W48" s="14"/>
+    </row>
+    <row r="49" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A49" s="14" t="str">
+        <f>"880476"</f>
+        <v>880476</v>
+      </c>
+      <c r="B49" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="14"/>
+      <c r="H49" s="14"/>
+      <c r="I49" s="14"/>
+      <c r="J49" s="14"/>
+      <c r="K49" s="23">
+        <v>-0.19</v>
+      </c>
+      <c r="L49" s="14"/>
+      <c r="M49" s="14"/>
+      <c r="N49" s="14"/>
+      <c r="O49" s="14"/>
+      <c r="P49" s="14"/>
+      <c r="Q49" s="14"/>
+      <c r="R49" s="14"/>
+      <c r="S49" s="14"/>
+      <c r="T49" s="14"/>
+      <c r="U49" s="14"/>
+      <c r="V49" s="14"/>
+      <c r="W49" s="14"/>
+    </row>
+    <row r="50" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A50" s="14" t="str">
+        <f>"880482"</f>
+        <v>880482</v>
+      </c>
+      <c r="B50" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c r="G50" s="14"/>
+      <c r="H50" s="14"/>
+      <c r="I50" s="14"/>
+      <c r="J50" s="14"/>
+      <c r="K50" s="14"/>
+      <c r="L50" s="14"/>
+      <c r="M50" s="14"/>
+      <c r="N50" s="14"/>
+      <c r="O50" s="14"/>
+      <c r="P50" s="14"/>
+      <c r="Q50" s="14"/>
+      <c r="R50" s="14"/>
+      <c r="S50" s="14"/>
+      <c r="T50" s="14"/>
+      <c r="U50" s="14"/>
+      <c r="V50" s="14"/>
+      <c r="W50" s="14"/>
+    </row>
+    <row r="51" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A51" s="14" t="str">
+        <f>"880489"</f>
+        <v>880489</v>
+      </c>
+      <c r="B51" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14"/>
+      <c r="G51" s="14"/>
+      <c r="H51" s="14"/>
+      <c r="I51" s="14"/>
+      <c r="J51" s="14"/>
+      <c r="K51" s="14"/>
+      <c r="L51" s="14"/>
+      <c r="M51" s="14"/>
+      <c r="N51" s="14"/>
+      <c r="O51" s="14"/>
+      <c r="P51" s="14"/>
+      <c r="Q51" s="14"/>
+      <c r="R51" s="14"/>
+      <c r="S51" s="14"/>
+      <c r="T51" s="14"/>
+      <c r="U51" s="14"/>
+      <c r="V51" s="14"/>
+      <c r="W51" s="14"/>
+    </row>
+    <row r="52" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A52" s="14" t="str">
+        <f>"880490"</f>
+        <v>880490</v>
+      </c>
+      <c r="B52" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="14"/>
+      <c r="G52" s="14"/>
+      <c r="H52" s="14"/>
+      <c r="I52" s="14"/>
+      <c r="J52" s="14"/>
+      <c r="K52" s="14"/>
+      <c r="L52" s="14"/>
+      <c r="M52" s="14"/>
+      <c r="N52" s="14"/>
+      <c r="O52" s="14"/>
+      <c r="P52" s="14"/>
+      <c r="Q52" s="14"/>
+      <c r="R52" s="14"/>
+      <c r="S52" s="14"/>
+      <c r="T52" s="14"/>
+      <c r="U52" s="14"/>
+      <c r="V52" s="14"/>
+      <c r="W52" s="14"/>
+    </row>
+    <row r="53" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A53" s="14" t="str">
+        <f>"880491"</f>
+        <v>880491</v>
+      </c>
+      <c r="B53" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="14"/>
+      <c r="G53" s="14"/>
+      <c r="H53" s="14"/>
+      <c r="I53" s="14"/>
+      <c r="J53" s="14"/>
+      <c r="K53" s="14"/>
+      <c r="L53" s="14"/>
+      <c r="M53" s="14"/>
+      <c r="N53" s="14"/>
+      <c r="O53" s="14"/>
+      <c r="P53" s="14"/>
+      <c r="Q53" s="14"/>
+      <c r="R53" s="14"/>
+      <c r="S53" s="14"/>
+      <c r="T53" s="14"/>
+      <c r="U53" s="14"/>
+      <c r="V53" s="14"/>
+      <c r="W53" s="14"/>
+    </row>
+    <row r="54" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A54" s="14" t="str">
+        <f>"880492"</f>
+        <v>880492</v>
+      </c>
+      <c r="B54" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="14"/>
+      <c r="G54" s="14"/>
+      <c r="H54" s="14"/>
+      <c r="I54" s="14"/>
+      <c r="J54" s="14"/>
+      <c r="K54" s="14"/>
+      <c r="L54" s="14"/>
+      <c r="M54" s="14"/>
+      <c r="N54" s="14"/>
+      <c r="O54" s="14"/>
+      <c r="P54" s="14"/>
+      <c r="Q54" s="14"/>
+      <c r="R54" s="14"/>
+      <c r="S54" s="14"/>
+      <c r="T54" s="14"/>
+      <c r="U54" s="14"/>
+      <c r="V54" s="14"/>
+      <c r="W54" s="14"/>
+    </row>
+    <row r="55" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A55" s="14" t="str">
+        <f>"880493"</f>
+        <v>880493</v>
+      </c>
+      <c r="B55" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C55" s="14"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="14"/>
+      <c r="G55" s="14"/>
+      <c r="H55" s="14"/>
+      <c r="I55" s="14"/>
+      <c r="J55" s="14"/>
+      <c r="K55" s="14"/>
+      <c r="L55" s="14"/>
+      <c r="M55" s="14"/>
+      <c r="N55" s="14"/>
+      <c r="O55" s="14"/>
+      <c r="P55" s="14"/>
+      <c r="Q55" s="14"/>
+      <c r="R55" s="14"/>
+      <c r="S55" s="14"/>
+      <c r="T55" s="14"/>
+      <c r="U55" s="14"/>
+      <c r="V55" s="14"/>
+      <c r="W55" s="14"/>
+    </row>
+    <row r="56" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A56" s="14" t="str">
+        <f>"880494"</f>
+        <v>880494</v>
+      </c>
+      <c r="B56" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C56" s="14"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="14"/>
+      <c r="G56" s="14"/>
+      <c r="H56" s="14"/>
+      <c r="I56" s="14"/>
+      <c r="J56" s="14"/>
+      <c r="K56" s="14"/>
+      <c r="L56" s="14"/>
+      <c r="M56" s="14"/>
+      <c r="N56" s="14"/>
+      <c r="O56" s="14"/>
+      <c r="P56" s="14"/>
+      <c r="Q56" s="14"/>
+      <c r="R56" s="14"/>
+      <c r="S56" s="14"/>
+      <c r="T56" s="14"/>
+      <c r="U56" s="14"/>
+      <c r="V56" s="14"/>
+      <c r="W56" s="14"/>
+    </row>
+    <row r="57" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A57" s="14" t="str">
+        <f>"880497"</f>
+        <v>880497</v>
+      </c>
+      <c r="B57" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C57" s="14"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="14"/>
+      <c r="G57" s="14"/>
+      <c r="H57" s="14"/>
+      <c r="I57" s="14"/>
+      <c r="J57" s="14"/>
+      <c r="K57" s="14"/>
+      <c r="L57" s="14"/>
+      <c r="M57" s="14"/>
+      <c r="N57" s="14"/>
+      <c r="O57" s="14"/>
+      <c r="P57" s="14"/>
+      <c r="Q57" s="14"/>
+      <c r="R57" s="14"/>
+      <c r="S57" s="14"/>
+      <c r="T57" s="14"/>
+      <c r="U57" s="14"/>
+      <c r="V57" s="14"/>
+      <c r="W57" s="14"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/趋势.xlsx
+++ b/趋势.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="270" windowWidth="27795" windowHeight="13050" tabRatio="505" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="270" windowWidth="27795" windowHeight="13050" tabRatio="505"/>
   </bookViews>
   <sheets>
     <sheet name="趋势" sheetId="1" r:id="rId1"/>
@@ -778,11 +778,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U247"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K35" sqref="K35"/>
+      <selection pane="bottomRight" activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -903,7 +903,7 @@
         <v>21</v>
       </c>
       <c r="L2" s="3">
-        <f t="shared" ref="L2:L31" si="0">B2/SUM($B2:$K2)</f>
+        <f t="shared" ref="L2:L32" si="0">B2/SUM($B2:$K2)</f>
         <v>0</v>
       </c>
       <c r="M2" s="3">
@@ -1207,11 +1207,11 @@
         <v>0</v>
       </c>
       <c r="M6" s="3">
-        <f t="shared" ref="M6:M31" si="29">C6/SUM($B6:$K6)</f>
+        <f t="shared" ref="M6:M32" si="29">C6/SUM($B6:$K6)</f>
         <v>0</v>
       </c>
       <c r="N6" s="3">
-        <f t="shared" ref="N6:N31" si="30">D6/SUM($B6:$K6)</f>
+        <f t="shared" ref="N6:N32" si="30">D6/SUM($B6:$K6)</f>
         <v>3.7064492216456633E-4</v>
       </c>
       <c r="O6" s="3">
@@ -1227,7 +1227,7 @@
         <v>0.56004447739065977</v>
       </c>
       <c r="R6" s="3">
-        <f t="shared" ref="R6:R31" si="34">H6/SUM($B6:$K6)</f>
+        <f t="shared" ref="R6:R32" si="34">H6/SUM($B6:$K6)</f>
         <v>0.13454410674573758</v>
       </c>
       <c r="S6" s="3">
@@ -1235,11 +1235,11 @@
         <v>3.039288361749444E-2</v>
       </c>
       <c r="T6" s="3">
-        <f t="shared" ref="T6:T31" si="36">J6/SUM($B6:$K6)</f>
+        <f t="shared" ref="T6:T32" si="36">J6/SUM($B6:$K6)</f>
         <v>1.1119347664936991E-2</v>
       </c>
       <c r="U6" s="3">
-        <f t="shared" ref="U6:U31" si="37">K6/SUM($B6:$K6)</f>
+        <f t="shared" ref="U6:U32" si="37">K6/SUM($B6:$K6)</f>
         <v>8.1541882876204601E-3</v>
       </c>
     </row>
@@ -2044,7 +2044,7 @@
         <v>3.3443586916574786E-2</v>
       </c>
       <c r="P17" s="12">
-        <f t="shared" ref="P17:Q31" si="38">F17/SUM($B17:$K17)</f>
+        <f t="shared" ref="P17:Q32" si="38">F17/SUM($B17:$K17)</f>
         <v>0.43586916574788681</v>
       </c>
       <c r="Q17" s="12">
@@ -2056,7 +2056,7 @@
         <v>7.901506798970967E-2</v>
       </c>
       <c r="S17" s="12">
-        <f t="shared" ref="S17:S31" si="39">I17/SUM($B17:$K17)</f>
+        <f t="shared" ref="S17:S32" si="39">I17/SUM($B17:$K17)</f>
         <v>2.0580668871738331E-2</v>
       </c>
       <c r="T17" s="12">
@@ -2415,7 +2415,7 @@
         <v>2.9271862422246614E-3</v>
       </c>
       <c r="O22" s="3">
-        <f t="shared" ref="O22:O31" si="40">E22/SUM($B22:$K22)</f>
+        <f t="shared" ref="O22:O32" si="40">E22/SUM($B22:$K22)</f>
         <v>4.207830223197951E-2</v>
       </c>
       <c r="P22" s="3">
@@ -3119,16 +3119,79 @@
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="L32" s="3"/>
-      <c r="M32" s="3"/>
-      <c r="N32" s="3"/>
-      <c r="O32" s="3"/>
-      <c r="P32" s="3"/>
-      <c r="Q32" s="3"/>
-      <c r="R32" s="3"/>
-      <c r="S32" s="3"/>
-      <c r="T32" s="3"/>
-      <c r="U32" s="3"/>
+      <c r="A32" s="1">
+        <v>42710</v>
+      </c>
+      <c r="B32" s="2">
+        <v>2</v>
+      </c>
+      <c r="C32">
+        <v>4</v>
+      </c>
+      <c r="D32">
+        <v>37</v>
+      </c>
+      <c r="E32">
+        <v>613</v>
+      </c>
+      <c r="F32">
+        <v>1542</v>
+      </c>
+      <c r="G32" s="2">
+        <v>409</v>
+      </c>
+      <c r="H32" s="9">
+        <v>93</v>
+      </c>
+      <c r="I32" s="9">
+        <v>28</v>
+      </c>
+      <c r="J32" s="9">
+        <v>5</v>
+      </c>
+      <c r="K32" s="9">
+        <v>18</v>
+      </c>
+      <c r="L32" s="3">
+        <f t="shared" si="0"/>
+        <v>7.2700836059614682E-4</v>
+      </c>
+      <c r="M32" s="3">
+        <f t="shared" si="29"/>
+        <v>1.4540167211922936E-3</v>
+      </c>
+      <c r="N32" s="12">
+        <f t="shared" si="30"/>
+        <v>1.3449654671028717E-2</v>
+      </c>
+      <c r="O32" s="12">
+        <f t="shared" si="40"/>
+        <v>0.222828062522719</v>
+      </c>
+      <c r="P32" s="12">
+        <f t="shared" si="38"/>
+        <v>0.56052344601962922</v>
+      </c>
+      <c r="Q32" s="12">
+        <f t="shared" si="38"/>
+        <v>0.14867320974191203</v>
+      </c>
+      <c r="R32" s="12">
+        <f t="shared" si="34"/>
+        <v>3.3805888767720831E-2</v>
+      </c>
+      <c r="S32" s="12">
+        <f t="shared" si="39"/>
+        <v>1.0178117048346057E-2</v>
+      </c>
+      <c r="T32" s="3">
+        <f t="shared" si="36"/>
+        <v>1.8175209014903672E-3</v>
+      </c>
+      <c r="U32" s="3">
+        <f t="shared" si="37"/>
+        <v>6.5430752453653216E-3</v>
+      </c>
     </row>
     <row r="33" spans="12:21" x14ac:dyDescent="0.15">
       <c r="L33" s="3"/>
@@ -7516,7 +7579,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="M37" sqref="M37"/>
     </sheetView>

--- a/趋势.xlsx
+++ b/趋势.xlsx
@@ -240,7 +240,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -304,6 +304,14 @@
       <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF92D050"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -402,7 +410,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -473,6 +481,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -782,7 +793,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A32" sqref="A32"/>
+      <selection pane="bottomRight" activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -903,7 +914,7 @@
         <v>21</v>
       </c>
       <c r="L2" s="3">
-        <f t="shared" ref="L2:L32" si="0">B2/SUM($B2:$K2)</f>
+        <f t="shared" ref="L2:L33" si="0">B2/SUM($B2:$K2)</f>
         <v>0</v>
       </c>
       <c r="M2" s="3">
@@ -1207,11 +1218,11 @@
         <v>0</v>
       </c>
       <c r="M6" s="3">
-        <f t="shared" ref="M6:M32" si="29">C6/SUM($B6:$K6)</f>
+        <f t="shared" ref="M6:M33" si="29">C6/SUM($B6:$K6)</f>
         <v>0</v>
       </c>
       <c r="N6" s="3">
-        <f t="shared" ref="N6:N32" si="30">D6/SUM($B6:$K6)</f>
+        <f t="shared" ref="N6:N33" si="30">D6/SUM($B6:$K6)</f>
         <v>3.7064492216456633E-4</v>
       </c>
       <c r="O6" s="3">
@@ -1227,7 +1238,7 @@
         <v>0.56004447739065977</v>
       </c>
       <c r="R6" s="3">
-        <f t="shared" ref="R6:R32" si="34">H6/SUM($B6:$K6)</f>
+        <f t="shared" ref="R6:R33" si="34">H6/SUM($B6:$K6)</f>
         <v>0.13454410674573758</v>
       </c>
       <c r="S6" s="3">
@@ -1235,11 +1246,11 @@
         <v>3.039288361749444E-2</v>
       </c>
       <c r="T6" s="3">
-        <f t="shared" ref="T6:T32" si="36">J6/SUM($B6:$K6)</f>
+        <f t="shared" ref="T6:T33" si="36">J6/SUM($B6:$K6)</f>
         <v>1.1119347664936991E-2</v>
       </c>
       <c r="U6" s="3">
-        <f t="shared" ref="U6:U32" si="37">K6/SUM($B6:$K6)</f>
+        <f t="shared" ref="U6:U33" si="37">K6/SUM($B6:$K6)</f>
         <v>8.1541882876204601E-3</v>
       </c>
     </row>
@@ -2044,7 +2055,7 @@
         <v>3.3443586916574786E-2</v>
       </c>
       <c r="P17" s="12">
-        <f t="shared" ref="P17:Q32" si="38">F17/SUM($B17:$K17)</f>
+        <f t="shared" ref="P17:Q33" si="38">F17/SUM($B17:$K17)</f>
         <v>0.43586916574788681</v>
       </c>
       <c r="Q17" s="12">
@@ -2056,7 +2067,7 @@
         <v>7.901506798970967E-2</v>
       </c>
       <c r="S17" s="12">
-        <f t="shared" ref="S17:S32" si="39">I17/SUM($B17:$K17)</f>
+        <f t="shared" ref="S17:S33" si="39">I17/SUM($B17:$K17)</f>
         <v>2.0580668871738331E-2</v>
       </c>
       <c r="T17" s="12">
@@ -2415,7 +2426,7 @@
         <v>2.9271862422246614E-3</v>
       </c>
       <c r="O22" s="3">
-        <f t="shared" ref="O22:O32" si="40">E22/SUM($B22:$K22)</f>
+        <f t="shared" ref="O22:O33" si="40">E22/SUM($B22:$K22)</f>
         <v>4.207830223197951E-2</v>
       </c>
       <c r="P22" s="3">
@@ -3193,19 +3204,82 @@
         <v>6.5430752453653216E-3</v>
       </c>
     </row>
-    <row r="33" spans="12:21" x14ac:dyDescent="0.15">
-      <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
-      <c r="N33" s="3"/>
-      <c r="O33" s="3"/>
-      <c r="P33" s="3"/>
-      <c r="Q33" s="3"/>
-      <c r="R33" s="3"/>
-      <c r="S33" s="3"/>
-      <c r="T33" s="3"/>
-      <c r="U33" s="3"/>
-    </row>
-    <row r="34" spans="12:21" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A33" s="1">
+        <v>42711</v>
+      </c>
+      <c r="B33" s="2">
+        <v>2</v>
+      </c>
+      <c r="C33">
+        <v>4</v>
+      </c>
+      <c r="D33">
+        <v>15</v>
+      </c>
+      <c r="E33">
+        <v>321</v>
+      </c>
+      <c r="F33">
+        <v>1689</v>
+      </c>
+      <c r="G33" s="2">
+        <v>511</v>
+      </c>
+      <c r="H33" s="9">
+        <v>145</v>
+      </c>
+      <c r="I33" s="9">
+        <v>34</v>
+      </c>
+      <c r="J33" s="9">
+        <v>8</v>
+      </c>
+      <c r="K33" s="9">
+        <v>22</v>
+      </c>
+      <c r="L33" s="3">
+        <f t="shared" si="0"/>
+        <v>7.2700836059614682E-4</v>
+      </c>
+      <c r="M33" s="3">
+        <f t="shared" si="29"/>
+        <v>1.4540167211922936E-3</v>
+      </c>
+      <c r="N33" s="3">
+        <f t="shared" si="30"/>
+        <v>5.4525627044711015E-3</v>
+      </c>
+      <c r="O33" s="24">
+        <f t="shared" si="40"/>
+        <v>0.11668484187568157</v>
+      </c>
+      <c r="P33" s="24">
+        <f t="shared" si="38"/>
+        <v>0.613958560523446</v>
+      </c>
+      <c r="Q33" s="24">
+        <f t="shared" si="38"/>
+        <v>0.18575063613231552</v>
+      </c>
+      <c r="R33" s="24">
+        <f t="shared" si="34"/>
+        <v>5.2708106143220648E-2</v>
+      </c>
+      <c r="S33" s="24">
+        <f t="shared" si="39"/>
+        <v>1.2359142130134497E-2</v>
+      </c>
+      <c r="T33" s="3">
+        <f t="shared" si="36"/>
+        <v>2.9080334423845873E-3</v>
+      </c>
+      <c r="U33" s="3">
+        <f t="shared" si="37"/>
+        <v>7.9970919665576148E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.15">
       <c r="L34" s="3"/>
       <c r="M34" s="3"/>
       <c r="N34" s="3"/>
@@ -3217,7 +3291,7 @@
       <c r="T34" s="3"/>
       <c r="U34" s="3"/>
     </row>
-    <row r="35" spans="12:21" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.15">
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
       <c r="N35" s="3"/>
@@ -3229,7 +3303,7 @@
       <c r="T35" s="3"/>
       <c r="U35" s="3"/>
     </row>
-    <row r="36" spans="12:21" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.15">
       <c r="L36" s="3"/>
       <c r="M36" s="3"/>
       <c r="N36" s="3"/>
@@ -3241,7 +3315,7 @@
       <c r="T36" s="3"/>
       <c r="U36" s="3"/>
     </row>
-    <row r="37" spans="12:21" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.15">
       <c r="L37" s="3"/>
       <c r="M37" s="3"/>
       <c r="N37" s="3"/>
@@ -3253,7 +3327,7 @@
       <c r="T37" s="3"/>
       <c r="U37" s="3"/>
     </row>
-    <row r="38" spans="12:21" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.15">
       <c r="L38" s="3"/>
       <c r="M38" s="3"/>
       <c r="N38" s="3"/>
@@ -3265,7 +3339,7 @@
       <c r="T38" s="3"/>
       <c r="U38" s="3"/>
     </row>
-    <row r="39" spans="12:21" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.15">
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
@@ -3277,7 +3351,7 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
     </row>
-    <row r="40" spans="12:21" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.15">
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
@@ -3289,7 +3363,7 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
     </row>
-    <row r="41" spans="12:21" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.15">
       <c r="L41" s="3"/>
       <c r="M41" s="3"/>
       <c r="N41" s="3"/>
@@ -3301,7 +3375,7 @@
       <c r="T41" s="3"/>
       <c r="U41" s="3"/>
     </row>
-    <row r="42" spans="12:21" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.15">
       <c r="L42" s="3"/>
       <c r="M42" s="3"/>
       <c r="N42" s="3"/>
@@ -3313,7 +3387,7 @@
       <c r="T42" s="3"/>
       <c r="U42" s="3"/>
     </row>
-    <row r="43" spans="12:21" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.15">
       <c r="L43" s="3"/>
       <c r="M43" s="3"/>
       <c r="N43" s="3"/>
@@ -3325,7 +3399,7 @@
       <c r="T43" s="3"/>
       <c r="U43" s="3"/>
     </row>
-    <row r="44" spans="12:21" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.15">
       <c r="L44" s="3"/>
       <c r="M44" s="3"/>
       <c r="N44" s="3"/>
@@ -3337,7 +3411,7 @@
       <c r="T44" s="3"/>
       <c r="U44" s="3"/>
     </row>
-    <row r="45" spans="12:21" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.15">
       <c r="L45" s="3"/>
       <c r="M45" s="3"/>
       <c r="N45" s="3"/>
@@ -3349,7 +3423,7 @@
       <c r="T45" s="3"/>
       <c r="U45" s="3"/>
     </row>
-    <row r="46" spans="12:21" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.15">
       <c r="L46" s="3"/>
       <c r="M46" s="3"/>
       <c r="N46" s="3"/>
@@ -3361,7 +3435,7 @@
       <c r="T46" s="3"/>
       <c r="U46" s="3"/>
     </row>
-    <row r="47" spans="12:21" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.15">
       <c r="L47" s="3"/>
       <c r="M47" s="3"/>
       <c r="N47" s="3"/>
@@ -3373,7 +3447,7 @@
       <c r="T47" s="3"/>
       <c r="U47" s="3"/>
     </row>
-    <row r="48" spans="12:21" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.15">
       <c r="L48" s="3"/>
       <c r="M48" s="3"/>
       <c r="N48" s="3"/>

--- a/趋势.xlsx
+++ b/趋势.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="270" windowWidth="27795" windowHeight="13050" tabRatio="505"/>
+    <workbookView xWindow="480" yWindow="330" windowWidth="27795" windowHeight="12990" tabRatio="505"/>
   </bookViews>
   <sheets>
     <sheet name="趋势" sheetId="1" r:id="rId1"/>
@@ -793,7 +793,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A33" sqref="A33"/>
+      <selection pane="bottomRight" activeCell="N29" sqref="N29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -914,7 +914,7 @@
         <v>21</v>
       </c>
       <c r="L2" s="3">
-        <f t="shared" ref="L2:L33" si="0">B2/SUM($B2:$K2)</f>
+        <f t="shared" ref="L2:L34" si="0">B2/SUM($B2:$K2)</f>
         <v>0</v>
       </c>
       <c r="M2" s="3">
@@ -1218,11 +1218,11 @@
         <v>0</v>
       </c>
       <c r="M6" s="3">
-        <f t="shared" ref="M6:M33" si="29">C6/SUM($B6:$K6)</f>
+        <f t="shared" ref="M6:M34" si="29">C6/SUM($B6:$K6)</f>
         <v>0</v>
       </c>
       <c r="N6" s="3">
-        <f t="shared" ref="N6:N33" si="30">D6/SUM($B6:$K6)</f>
+        <f t="shared" ref="N6:N34" si="30">D6/SUM($B6:$K6)</f>
         <v>3.7064492216456633E-4</v>
       </c>
       <c r="O6" s="3">
@@ -1238,7 +1238,7 @@
         <v>0.56004447739065977</v>
       </c>
       <c r="R6" s="3">
-        <f t="shared" ref="R6:R33" si="34">H6/SUM($B6:$K6)</f>
+        <f t="shared" ref="R6:R34" si="34">H6/SUM($B6:$K6)</f>
         <v>0.13454410674573758</v>
       </c>
       <c r="S6" s="3">
@@ -1246,11 +1246,11 @@
         <v>3.039288361749444E-2</v>
       </c>
       <c r="T6" s="3">
-        <f t="shared" ref="T6:T33" si="36">J6/SUM($B6:$K6)</f>
+        <f t="shared" ref="T6:T34" si="36">J6/SUM($B6:$K6)</f>
         <v>1.1119347664936991E-2</v>
       </c>
       <c r="U6" s="3">
-        <f t="shared" ref="U6:U33" si="37">K6/SUM($B6:$K6)</f>
+        <f t="shared" ref="U6:U34" si="37">K6/SUM($B6:$K6)</f>
         <v>8.1541882876204601E-3</v>
       </c>
     </row>
@@ -2055,7 +2055,7 @@
         <v>3.3443586916574786E-2</v>
       </c>
       <c r="P17" s="12">
-        <f t="shared" ref="P17:Q33" si="38">F17/SUM($B17:$K17)</f>
+        <f t="shared" ref="P17:Q34" si="38">F17/SUM($B17:$K17)</f>
         <v>0.43586916574788681</v>
       </c>
       <c r="Q17" s="12">
@@ -2067,7 +2067,7 @@
         <v>7.901506798970967E-2</v>
       </c>
       <c r="S17" s="12">
-        <f t="shared" ref="S17:S33" si="39">I17/SUM($B17:$K17)</f>
+        <f t="shared" ref="S17:S34" si="39">I17/SUM($B17:$K17)</f>
         <v>2.0580668871738331E-2</v>
       </c>
       <c r="T17" s="12">
@@ -2426,7 +2426,7 @@
         <v>2.9271862422246614E-3</v>
       </c>
       <c r="O22" s="3">
-        <f t="shared" ref="O22:O33" si="40">E22/SUM($B22:$K22)</f>
+        <f t="shared" ref="O22:O34" si="40">E22/SUM($B22:$K22)</f>
         <v>4.207830223197951E-2</v>
       </c>
       <c r="P22" s="3">
@@ -3280,16 +3280,79 @@
       </c>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="L34" s="3"/>
-      <c r="M34" s="3"/>
-      <c r="N34" s="3"/>
-      <c r="O34" s="3"/>
-      <c r="P34" s="3"/>
-      <c r="Q34" s="3"/>
-      <c r="R34" s="3"/>
-      <c r="S34" s="3"/>
-      <c r="T34" s="3"/>
-      <c r="U34" s="3"/>
+      <c r="A34" s="1">
+        <v>42712</v>
+      </c>
+      <c r="B34" s="2">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>4</v>
+      </c>
+      <c r="D34">
+        <v>28</v>
+      </c>
+      <c r="E34">
+        <v>467</v>
+      </c>
+      <c r="F34">
+        <v>1615</v>
+      </c>
+      <c r="G34" s="2">
+        <v>461</v>
+      </c>
+      <c r="H34" s="9">
+        <v>115</v>
+      </c>
+      <c r="I34" s="9">
+        <v>35</v>
+      </c>
+      <c r="J34" s="9">
+        <v>12</v>
+      </c>
+      <c r="K34" s="9">
+        <v>16</v>
+      </c>
+      <c r="L34" s="3">
+        <f t="shared" si="0"/>
+        <v>3.6310820624546115E-4</v>
+      </c>
+      <c r="M34" s="3">
+        <f t="shared" si="29"/>
+        <v>1.4524328249818446E-3</v>
+      </c>
+      <c r="N34" s="10">
+        <f t="shared" si="30"/>
+        <v>1.0167029774872912E-2</v>
+      </c>
+      <c r="O34" s="10">
+        <f t="shared" si="40"/>
+        <v>0.16957153231663036</v>
+      </c>
+      <c r="P34" s="10">
+        <f t="shared" si="38"/>
+        <v>0.5864197530864198</v>
+      </c>
+      <c r="Q34" s="10">
+        <f t="shared" si="38"/>
+        <v>0.16739288307915759</v>
+      </c>
+      <c r="R34" s="10">
+        <f t="shared" si="34"/>
+        <v>4.1757443718228031E-2</v>
+      </c>
+      <c r="S34" s="3">
+        <f t="shared" si="39"/>
+        <v>1.2708787218591141E-2</v>
+      </c>
+      <c r="T34" s="3">
+        <f t="shared" si="36"/>
+        <v>4.3572984749455342E-3</v>
+      </c>
+      <c r="U34" s="3">
+        <f t="shared" si="37"/>
+        <v>5.8097312999273783E-3</v>
+      </c>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.15">
       <c r="L35" s="3"/>

--- a/趋势.xlsx
+++ b/趋势.xlsx
@@ -410,7 +410,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -484,6 +484,21 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -790,15 +805,15 @@
   <dimension ref="A1:U247"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N29" sqref="N29"/>
+      <selection pane="bottomRight" activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.375" customWidth="1"/>
     <col min="2" max="2" width="7.5" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="12.75" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
@@ -914,7 +929,7 @@
         <v>21</v>
       </c>
       <c r="L2" s="3">
-        <f t="shared" ref="L2:L34" si="0">B2/SUM($B2:$K2)</f>
+        <f t="shared" ref="L2:L47" si="0">B2/SUM($B2:$K2)</f>
         <v>0</v>
       </c>
       <c r="M2" s="3">
@@ -1250,7 +1265,7 @@
         <v>1.1119347664936991E-2</v>
       </c>
       <c r="U6" s="3">
-        <f t="shared" ref="U6:U34" si="37">K6/SUM($B6:$K6)</f>
+        <f t="shared" ref="U6:U47" si="37">K6/SUM($B6:$K6)</f>
         <v>8.1541882876204601E-3</v>
       </c>
     </row>
@@ -3354,161 +3369,980 @@
         <v>5.8097312999273783E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="L35" s="3"/>
-      <c r="M35" s="3"/>
-      <c r="N35" s="3"/>
-      <c r="O35" s="3"/>
-      <c r="P35" s="3"/>
-      <c r="Q35" s="3"/>
-      <c r="R35" s="3"/>
-      <c r="S35" s="3"/>
-      <c r="T35" s="3"/>
-      <c r="U35" s="3"/>
+    <row r="35" spans="1:21" s="27" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="25">
+        <v>42716</v>
+      </c>
+      <c r="B35" s="26">
+        <v>11</v>
+      </c>
+      <c r="C35" s="27">
+        <v>164</v>
+      </c>
+      <c r="D35" s="27">
+        <v>599</v>
+      </c>
+      <c r="E35" s="27">
+        <v>1143</v>
+      </c>
+      <c r="F35" s="27">
+        <v>564</v>
+      </c>
+      <c r="G35" s="26">
+        <v>189</v>
+      </c>
+      <c r="H35" s="28">
+        <v>36</v>
+      </c>
+      <c r="I35" s="28">
+        <v>20</v>
+      </c>
+      <c r="J35" s="28">
+        <v>9</v>
+      </c>
+      <c r="K35" s="28">
+        <v>15</v>
+      </c>
+      <c r="L35" s="11">
+        <f t="shared" si="0"/>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="M35" s="11">
+        <f t="shared" ref="M35" si="41">C35/SUM($B35:$K35)</f>
+        <v>5.9636363636363633E-2</v>
+      </c>
+      <c r="N35" s="11">
+        <f t="shared" ref="N35" si="42">D35/SUM($B35:$K35)</f>
+        <v>0.21781818181818183</v>
+      </c>
+      <c r="O35" s="11">
+        <f t="shared" ref="O35" si="43">E35/SUM($B35:$K35)</f>
+        <v>0.41563636363636364</v>
+      </c>
+      <c r="P35" s="11">
+        <f t="shared" ref="P35" si="44">F35/SUM($B35:$K35)</f>
+        <v>0.2050909090909091</v>
+      </c>
+      <c r="Q35" s="11">
+        <f t="shared" ref="Q35" si="45">G35/SUM($B35:$K35)</f>
+        <v>6.8727272727272734E-2</v>
+      </c>
+      <c r="R35" s="11">
+        <f t="shared" ref="R35" si="46">H35/SUM($B35:$K35)</f>
+        <v>1.3090909090909091E-2</v>
+      </c>
+      <c r="S35" s="11">
+        <f t="shared" ref="S35" si="47">I35/SUM($B35:$K35)</f>
+        <v>7.2727272727272727E-3</v>
+      </c>
+      <c r="T35" s="11">
+        <f t="shared" ref="T35" si="48">J35/SUM($B35:$K35)</f>
+        <v>3.2727272727272726E-3</v>
+      </c>
+      <c r="U35" s="11">
+        <f t="shared" si="37"/>
+        <v>5.454545454545455E-3</v>
+      </c>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="L36" s="3"/>
-      <c r="M36" s="3"/>
-      <c r="N36" s="3"/>
-      <c r="O36" s="3"/>
-      <c r="P36" s="3"/>
-      <c r="Q36" s="3"/>
-      <c r="R36" s="3"/>
-      <c r="S36" s="3"/>
-      <c r="T36" s="3"/>
-      <c r="U36" s="3"/>
+      <c r="A36" s="29">
+        <v>42718</v>
+      </c>
+      <c r="B36" s="2">
+        <v>8</v>
+      </c>
+      <c r="C36">
+        <v>143</v>
+      </c>
+      <c r="D36">
+        <v>568</v>
+      </c>
+      <c r="E36">
+        <v>1093</v>
+      </c>
+      <c r="F36">
+        <v>599</v>
+      </c>
+      <c r="G36" s="2">
+        <v>206</v>
+      </c>
+      <c r="H36" s="9">
+        <v>86</v>
+      </c>
+      <c r="I36" s="9">
+        <v>26</v>
+      </c>
+      <c r="J36" s="9">
+        <v>15</v>
+      </c>
+      <c r="K36" s="9">
+        <v>19</v>
+      </c>
+      <c r="L36" s="3">
+        <f t="shared" si="0"/>
+        <v>2.8954035468693449E-3</v>
+      </c>
+      <c r="M36" s="3">
+        <f t="shared" ref="M36:M47" si="49">C36/SUM($B36:$K36)</f>
+        <v>5.1755338400289543E-2</v>
+      </c>
+      <c r="N36" s="3">
+        <f t="shared" ref="N36:N37" si="50">D36/SUM($B36:$K36)</f>
+        <v>0.2055736518277235</v>
+      </c>
+      <c r="O36" s="3">
+        <f t="shared" ref="O36:O37" si="51">E36/SUM($B36:$K36)</f>
+        <v>0.39558450959102426</v>
+      </c>
+      <c r="P36" s="3">
+        <f t="shared" ref="P36:P39" si="52">F36/SUM($B36:$K36)</f>
+        <v>0.21679334057184221</v>
+      </c>
+      <c r="Q36" s="3">
+        <f t="shared" ref="Q36:Q39" si="53">G36/SUM($B36:$K36)</f>
+        <v>7.4556641331885637E-2</v>
+      </c>
+      <c r="R36" s="3">
+        <f t="shared" ref="R36:R39" si="54">H36/SUM($B36:$K36)</f>
+        <v>3.1125588128845458E-2</v>
+      </c>
+      <c r="S36" s="3">
+        <f t="shared" ref="S36:S39" si="55">I36/SUM($B36:$K36)</f>
+        <v>9.4100615273253717E-3</v>
+      </c>
+      <c r="T36" s="3">
+        <f t="shared" ref="T36:T39" si="56">J36/SUM($B36:$K36)</f>
+        <v>5.4288816503800215E-3</v>
+      </c>
+      <c r="U36" s="3">
+        <f t="shared" si="37"/>
+        <v>6.8765834238146938E-3</v>
+      </c>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="L37" s="3"/>
-      <c r="M37" s="3"/>
-      <c r="N37" s="3"/>
-      <c r="O37" s="3"/>
-      <c r="P37" s="3"/>
-      <c r="Q37" s="3"/>
-      <c r="R37" s="3"/>
-      <c r="S37" s="3"/>
-      <c r="T37" s="3"/>
-      <c r="U37" s="3"/>
+      <c r="A37" s="29">
+        <v>42719</v>
+      </c>
+      <c r="B37" s="2">
+        <v>4</v>
+      </c>
+      <c r="C37">
+        <v>55</v>
+      </c>
+      <c r="D37">
+        <v>382</v>
+      </c>
+      <c r="E37">
+        <v>1151</v>
+      </c>
+      <c r="F37">
+        <v>773</v>
+      </c>
+      <c r="G37" s="2">
+        <v>195</v>
+      </c>
+      <c r="H37" s="9">
+        <v>121</v>
+      </c>
+      <c r="I37" s="9">
+        <v>36</v>
+      </c>
+      <c r="J37" s="9">
+        <v>11</v>
+      </c>
+      <c r="K37" s="9">
+        <v>27</v>
+      </c>
+      <c r="L37" s="3">
+        <f t="shared" si="0"/>
+        <v>1.4519056261343012E-3</v>
+      </c>
+      <c r="M37" s="3">
+        <f t="shared" si="49"/>
+        <v>1.9963702359346643E-2</v>
+      </c>
+      <c r="N37" s="3">
+        <f t="shared" si="50"/>
+        <v>0.13865698729582576</v>
+      </c>
+      <c r="O37" s="3">
+        <f t="shared" si="51"/>
+        <v>0.41778584392014517</v>
+      </c>
+      <c r="P37" s="3">
+        <f t="shared" si="52"/>
+        <v>0.2805807622504537</v>
+      </c>
+      <c r="Q37" s="3">
+        <f t="shared" si="53"/>
+        <v>7.0780399274047182E-2</v>
+      </c>
+      <c r="R37" s="3">
+        <f t="shared" si="54"/>
+        <v>4.3920145190562615E-2</v>
+      </c>
+      <c r="S37" s="3">
+        <f t="shared" si="55"/>
+        <v>1.3067150635208712E-2</v>
+      </c>
+      <c r="T37" s="3">
+        <f t="shared" si="56"/>
+        <v>3.9927404718693282E-3</v>
+      </c>
+      <c r="U37" s="3">
+        <f t="shared" si="37"/>
+        <v>9.8003629764065337E-3</v>
+      </c>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="L38" s="3"/>
-      <c r="M38" s="3"/>
-      <c r="N38" s="3"/>
-      <c r="O38" s="3"/>
-      <c r="P38" s="3"/>
-      <c r="Q38" s="3"/>
-      <c r="R38" s="3"/>
-      <c r="S38" s="3"/>
-      <c r="T38" s="3"/>
-      <c r="U38" s="3"/>
+      <c r="A38" s="29">
+        <v>42722</v>
+      </c>
+      <c r="B38" s="2">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>18</v>
+      </c>
+      <c r="D38">
+        <v>193</v>
+      </c>
+      <c r="E38">
+        <v>1010</v>
+      </c>
+      <c r="F38">
+        <v>1031</v>
+      </c>
+      <c r="G38" s="2">
+        <v>318</v>
+      </c>
+      <c r="H38" s="9">
+        <v>115</v>
+      </c>
+      <c r="I38" s="9">
+        <v>36</v>
+      </c>
+      <c r="J38" s="9">
+        <v>13</v>
+      </c>
+      <c r="K38" s="9">
+        <v>22</v>
+      </c>
+      <c r="L38" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M38" s="3">
+        <f t="shared" si="49"/>
+        <v>6.5312046444121917E-3</v>
+      </c>
+      <c r="N38" s="3">
+        <f t="shared" ref="N38:N39" si="57">D38/SUM($B38:$K38)</f>
+        <v>7.0029027576197389E-2</v>
+      </c>
+      <c r="O38" s="3">
+        <f t="shared" ref="O38:O39" si="58">E38/SUM($B38:$K38)</f>
+        <v>0.36647314949201742</v>
+      </c>
+      <c r="P38" s="3">
+        <f t="shared" si="52"/>
+        <v>0.37409288824383163</v>
+      </c>
+      <c r="Q38" s="3">
+        <f t="shared" si="53"/>
+        <v>0.11538461538461539</v>
+      </c>
+      <c r="R38" s="3">
+        <f t="shared" si="54"/>
+        <v>4.1727140783744558E-2</v>
+      </c>
+      <c r="S38" s="3">
+        <f t="shared" si="55"/>
+        <v>1.3062409288824383E-2</v>
+      </c>
+      <c r="T38" s="3">
+        <f t="shared" si="56"/>
+        <v>4.7169811320754715E-3</v>
+      </c>
+      <c r="U38" s="3">
+        <f t="shared" si="37"/>
+        <v>7.9825834542815669E-3</v>
+      </c>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="L39" s="3"/>
-      <c r="M39" s="3"/>
-      <c r="N39" s="3"/>
-      <c r="O39" s="3"/>
-      <c r="P39" s="3"/>
-      <c r="Q39" s="3"/>
-      <c r="R39" s="3"/>
-      <c r="S39" s="3"/>
-      <c r="T39" s="3"/>
-      <c r="U39" s="3"/>
+      <c r="A39" s="29">
+        <v>42723</v>
+      </c>
+      <c r="B39" s="2">
+        <v>2</v>
+      </c>
+      <c r="C39">
+        <v>20</v>
+      </c>
+      <c r="D39">
+        <v>210</v>
+      </c>
+      <c r="E39">
+        <v>926</v>
+      </c>
+      <c r="F39">
+        <v>1017</v>
+      </c>
+      <c r="G39" s="2">
+        <v>359</v>
+      </c>
+      <c r="H39" s="9">
+        <v>138</v>
+      </c>
+      <c r="I39" s="9">
+        <v>47</v>
+      </c>
+      <c r="J39" s="9">
+        <v>17</v>
+      </c>
+      <c r="K39" s="9">
+        <v>20</v>
+      </c>
+      <c r="L39" s="3">
+        <f t="shared" si="0"/>
+        <v>7.2568940493468795E-4</v>
+      </c>
+      <c r="M39" s="3">
+        <f t="shared" si="49"/>
+        <v>7.2568940493468797E-3</v>
+      </c>
+      <c r="N39" s="3">
+        <f t="shared" si="57"/>
+        <v>7.6197387518142229E-2</v>
+      </c>
+      <c r="O39" s="3">
+        <f t="shared" si="58"/>
+        <v>0.33599419448476053</v>
+      </c>
+      <c r="P39" s="3">
+        <f t="shared" si="52"/>
+        <v>0.36901306240928883</v>
+      </c>
+      <c r="Q39" s="3">
+        <f t="shared" si="53"/>
+        <v>0.1302612481857765</v>
+      </c>
+      <c r="R39" s="3">
+        <f t="shared" si="54"/>
+        <v>5.0072568940493466E-2</v>
+      </c>
+      <c r="S39" s="3">
+        <f t="shared" si="55"/>
+        <v>1.7053701015965168E-2</v>
+      </c>
+      <c r="T39" s="3">
+        <f t="shared" si="56"/>
+        <v>6.1683599419448476E-3</v>
+      </c>
+      <c r="U39" s="3">
+        <f t="shared" si="37"/>
+        <v>7.2568940493468797E-3</v>
+      </c>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="L40" s="3"/>
-      <c r="M40" s="3"/>
-      <c r="N40" s="3"/>
-      <c r="O40" s="3"/>
-      <c r="P40" s="3"/>
-      <c r="Q40" s="3"/>
-      <c r="R40" s="3"/>
-      <c r="S40" s="3"/>
-      <c r="T40" s="3"/>
-      <c r="U40" s="3"/>
+      <c r="A40" s="29">
+        <v>42724</v>
+      </c>
+      <c r="B40" s="2">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <v>14</v>
+      </c>
+      <c r="D40">
+        <v>139</v>
+      </c>
+      <c r="E40">
+        <v>848</v>
+      </c>
+      <c r="F40">
+        <v>1167</v>
+      </c>
+      <c r="G40" s="2">
+        <v>409</v>
+      </c>
+      <c r="H40" s="9">
+        <v>116</v>
+      </c>
+      <c r="I40" s="9">
+        <v>40</v>
+      </c>
+      <c r="J40" s="9">
+        <v>10</v>
+      </c>
+      <c r="K40" s="9">
+        <v>18</v>
+      </c>
+      <c r="L40" s="3">
+        <f t="shared" si="0"/>
+        <v>3.6205648081100649E-4</v>
+      </c>
+      <c r="M40" s="3">
+        <f t="shared" si="49"/>
+        <v>5.0687907313540911E-3</v>
+      </c>
+      <c r="N40" s="3">
+        <f t="shared" ref="N40:N47" si="59">D40/SUM($B40:$K40)</f>
+        <v>5.0325850832729904E-2</v>
+      </c>
+      <c r="O40" s="3">
+        <f t="shared" ref="O40:O47" si="60">E40/SUM($B40:$K40)</f>
+        <v>0.30702389572773353</v>
+      </c>
+      <c r="P40" s="3">
+        <f t="shared" ref="P40:P47" si="61">F40/SUM($B40:$K40)</f>
+        <v>0.4225199131064446</v>
+      </c>
+      <c r="Q40" s="3">
+        <f t="shared" ref="Q40:Q47" si="62">G40/SUM($B40:$K40)</f>
+        <v>0.14808110065170166</v>
+      </c>
+      <c r="R40" s="3">
+        <f t="shared" ref="R40:R47" si="63">H40/SUM($B40:$K40)</f>
+        <v>4.1998551774076756E-2</v>
+      </c>
+      <c r="S40" s="3">
+        <f t="shared" ref="S40:S47" si="64">I40/SUM($B40:$K40)</f>
+        <v>1.4482259232440261E-2</v>
+      </c>
+      <c r="T40" s="3">
+        <f t="shared" ref="T40:T47" si="65">J40/SUM($B40:$K40)</f>
+        <v>3.6205648081100651E-3</v>
+      </c>
+      <c r="U40" s="3">
+        <f t="shared" si="37"/>
+        <v>6.5170166545981175E-3</v>
+      </c>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="L41" s="3"/>
-      <c r="M41" s="3"/>
-      <c r="N41" s="3"/>
-      <c r="O41" s="3"/>
-      <c r="P41" s="3"/>
-      <c r="Q41" s="3"/>
-      <c r="R41" s="3"/>
-      <c r="S41" s="3"/>
-      <c r="T41" s="3"/>
-      <c r="U41" s="3"/>
+      <c r="A41" s="29">
+        <v>42725</v>
+      </c>
+      <c r="B41" s="2">
+        <v>1</v>
+      </c>
+      <c r="C41">
+        <v>6</v>
+      </c>
+      <c r="D41">
+        <v>68</v>
+      </c>
+      <c r="E41">
+        <v>564</v>
+      </c>
+      <c r="F41">
+        <v>1389</v>
+      </c>
+      <c r="G41" s="2">
+        <v>514</v>
+      </c>
+      <c r="H41" s="9">
+        <v>151</v>
+      </c>
+      <c r="I41" s="9">
+        <v>40</v>
+      </c>
+      <c r="J41" s="9">
+        <v>15</v>
+      </c>
+      <c r="K41" s="9">
+        <v>17</v>
+      </c>
+      <c r="L41" s="3">
+        <f t="shared" si="0"/>
+        <v>3.6166365280289331E-4</v>
+      </c>
+      <c r="M41" s="3">
+        <f t="shared" si="49"/>
+        <v>2.16998191681736E-3</v>
+      </c>
+      <c r="N41" s="10">
+        <f t="shared" si="59"/>
+        <v>2.4593128390596745E-2</v>
+      </c>
+      <c r="O41" s="10">
+        <f t="shared" si="60"/>
+        <v>0.20397830018083182</v>
+      </c>
+      <c r="P41" s="10">
+        <f t="shared" si="61"/>
+        <v>0.50235081374321877</v>
+      </c>
+      <c r="Q41" s="10">
+        <f t="shared" si="62"/>
+        <v>0.18589511754068716</v>
+      </c>
+      <c r="R41" s="10">
+        <f t="shared" si="63"/>
+        <v>5.4611211573236888E-2</v>
+      </c>
+      <c r="S41" s="3">
+        <f t="shared" si="64"/>
+        <v>1.4466546112115732E-2</v>
+      </c>
+      <c r="T41" s="3">
+        <f t="shared" si="65"/>
+        <v>5.4249547920433997E-3</v>
+      </c>
+      <c r="U41" s="3">
+        <f t="shared" si="37"/>
+        <v>6.1482820976491862E-3</v>
+      </c>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="L42" s="3"/>
-      <c r="M42" s="3"/>
-      <c r="N42" s="3"/>
-      <c r="O42" s="3"/>
-      <c r="P42" s="3"/>
-      <c r="Q42" s="3"/>
-      <c r="R42" s="3"/>
-      <c r="S42" s="3"/>
-      <c r="T42" s="3"/>
-      <c r="U42" s="3"/>
+      <c r="A42" s="29">
+        <v>42726</v>
+      </c>
+      <c r="B42" s="2">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>6</v>
+      </c>
+      <c r="D42">
+        <v>51</v>
+      </c>
+      <c r="E42">
+        <v>509</v>
+      </c>
+      <c r="F42">
+        <v>1426</v>
+      </c>
+      <c r="G42" s="2">
+        <v>546</v>
+      </c>
+      <c r="H42" s="9">
+        <v>159</v>
+      </c>
+      <c r="I42" s="9">
+        <v>35</v>
+      </c>
+      <c r="J42" s="9">
+        <v>13</v>
+      </c>
+      <c r="K42" s="9">
+        <v>18</v>
+      </c>
+      <c r="L42" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
+        <f t="shared" si="49"/>
+        <v>2.1715526601520088E-3</v>
+      </c>
+      <c r="N42" s="3">
+        <f t="shared" si="59"/>
+        <v>1.8458197611292075E-2</v>
+      </c>
+      <c r="O42" s="3">
+        <f t="shared" si="60"/>
+        <v>0.18422005066956207</v>
+      </c>
+      <c r="P42" s="3">
+        <f t="shared" si="61"/>
+        <v>0.51610568222946074</v>
+      </c>
+      <c r="Q42" s="3">
+        <f t="shared" si="62"/>
+        <v>0.19761129207383279</v>
+      </c>
+      <c r="R42" s="3">
+        <f t="shared" si="63"/>
+        <v>5.7546145494028228E-2</v>
+      </c>
+      <c r="S42" s="3">
+        <f t="shared" si="64"/>
+        <v>1.2667390517553384E-2</v>
+      </c>
+      <c r="T42" s="3">
+        <f t="shared" si="65"/>
+        <v>4.7050307636626858E-3</v>
+      </c>
+      <c r="U42" s="3">
+        <f t="shared" si="37"/>
+        <v>6.5146579804560263E-3</v>
+      </c>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="L43" s="3"/>
-      <c r="M43" s="3"/>
-      <c r="N43" s="3"/>
-      <c r="O43" s="3"/>
-      <c r="P43" s="3"/>
-      <c r="Q43" s="3"/>
-      <c r="R43" s="3"/>
-      <c r="S43" s="3"/>
-      <c r="T43" s="3"/>
-      <c r="U43" s="3"/>
+      <c r="A43" s="29">
+        <v>42727</v>
+      </c>
+      <c r="B43" s="2">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>18</v>
+      </c>
+      <c r="D43">
+        <v>96</v>
+      </c>
+      <c r="E43">
+        <v>662</v>
+      </c>
+      <c r="F43">
+        <v>1376</v>
+      </c>
+      <c r="G43" s="2">
+        <v>464</v>
+      </c>
+      <c r="H43" s="9">
+        <v>102</v>
+      </c>
+      <c r="I43" s="9">
+        <v>27</v>
+      </c>
+      <c r="J43" s="9">
+        <v>12</v>
+      </c>
+      <c r="K43" s="9">
+        <v>9</v>
+      </c>
+      <c r="L43" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M43" s="3">
+        <f t="shared" si="49"/>
+        <v>6.5075921908893707E-3</v>
+      </c>
+      <c r="N43" s="3">
+        <f t="shared" si="59"/>
+        <v>3.4707158351409979E-2</v>
+      </c>
+      <c r="O43" s="3">
+        <f t="shared" si="60"/>
+        <v>0.23933477946493131</v>
+      </c>
+      <c r="P43" s="3">
+        <f t="shared" si="61"/>
+        <v>0.49746926970354305</v>
+      </c>
+      <c r="Q43" s="3">
+        <f t="shared" si="62"/>
+        <v>0.16775126536514823</v>
+      </c>
+      <c r="R43" s="3">
+        <f t="shared" si="63"/>
+        <v>3.6876355748373099E-2</v>
+      </c>
+      <c r="S43" s="3">
+        <f t="shared" si="64"/>
+        <v>9.7613882863340565E-3</v>
+      </c>
+      <c r="T43" s="3">
+        <f t="shared" si="65"/>
+        <v>4.3383947939262474E-3</v>
+      </c>
+      <c r="U43" s="3">
+        <f t="shared" si="37"/>
+        <v>3.2537960954446853E-3</v>
+      </c>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="L44" s="3"/>
-      <c r="M44" s="3"/>
-      <c r="N44" s="3"/>
-      <c r="O44" s="3"/>
-      <c r="P44" s="3"/>
-      <c r="Q44" s="3"/>
-      <c r="R44" s="3"/>
-      <c r="S44" s="3"/>
-      <c r="T44" s="3"/>
-      <c r="U44" s="3"/>
+      <c r="A44" s="29">
+        <v>42730</v>
+      </c>
+      <c r="B44" s="2">
+        <v>1</v>
+      </c>
+      <c r="C44">
+        <v>8</v>
+      </c>
+      <c r="D44">
+        <v>77</v>
+      </c>
+      <c r="E44">
+        <v>470</v>
+      </c>
+      <c r="F44">
+        <v>1507</v>
+      </c>
+      <c r="G44" s="2">
+        <v>523</v>
+      </c>
+      <c r="H44" s="9">
+        <v>136</v>
+      </c>
+      <c r="I44" s="9">
+        <v>31</v>
+      </c>
+      <c r="J44" s="9">
+        <v>8</v>
+      </c>
+      <c r="K44" s="9">
+        <v>13</v>
+      </c>
+      <c r="L44" s="3">
+        <f t="shared" si="0"/>
+        <v>3.6049026676279738E-4</v>
+      </c>
+      <c r="M44" s="3">
+        <f t="shared" si="49"/>
+        <v>2.8839221341023791E-3</v>
+      </c>
+      <c r="N44" s="3">
+        <f t="shared" si="59"/>
+        <v>2.7757750540735399E-2</v>
+      </c>
+      <c r="O44" s="3">
+        <f t="shared" si="60"/>
+        <v>0.16943042537851477</v>
+      </c>
+      <c r="P44" s="3">
+        <f t="shared" si="61"/>
+        <v>0.54325883201153569</v>
+      </c>
+      <c r="Q44" s="3">
+        <f t="shared" si="62"/>
+        <v>0.18853640951694303</v>
+      </c>
+      <c r="R44" s="3">
+        <f t="shared" si="63"/>
+        <v>4.9026676279740444E-2</v>
+      </c>
+      <c r="S44" s="3">
+        <f t="shared" si="64"/>
+        <v>1.1175198269646719E-2</v>
+      </c>
+      <c r="T44" s="3">
+        <f t="shared" si="65"/>
+        <v>2.8839221341023791E-3</v>
+      </c>
+      <c r="U44" s="3">
+        <f t="shared" si="37"/>
+        <v>4.686373467916366E-3</v>
+      </c>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="L45" s="3"/>
-      <c r="M45" s="3"/>
-      <c r="N45" s="3"/>
-      <c r="O45" s="3"/>
-      <c r="P45" s="3"/>
-      <c r="Q45" s="3"/>
-      <c r="R45" s="3"/>
-      <c r="S45" s="3"/>
-      <c r="T45" s="3"/>
-      <c r="U45" s="3"/>
+      <c r="A45" s="29">
+        <v>42731</v>
+      </c>
+      <c r="B45" s="2">
+        <v>1</v>
+      </c>
+      <c r="C45">
+        <v>5</v>
+      </c>
+      <c r="D45">
+        <v>71</v>
+      </c>
+      <c r="E45">
+        <v>397</v>
+      </c>
+      <c r="F45">
+        <v>1466</v>
+      </c>
+      <c r="G45" s="2">
+        <v>614</v>
+      </c>
+      <c r="H45" s="9">
+        <v>162</v>
+      </c>
+      <c r="I45" s="9">
+        <v>39</v>
+      </c>
+      <c r="J45" s="9">
+        <v>9</v>
+      </c>
+      <c r="K45" s="9">
+        <v>17</v>
+      </c>
+      <c r="L45" s="3">
+        <f t="shared" si="0"/>
+        <v>3.595828838547285E-4</v>
+      </c>
+      <c r="M45" s="3">
+        <f t="shared" si="49"/>
+        <v>1.7979144192736426E-3</v>
+      </c>
+      <c r="N45" s="3">
+        <f t="shared" si="59"/>
+        <v>2.5530384753685725E-2</v>
+      </c>
+      <c r="O45" s="3">
+        <f t="shared" si="60"/>
+        <v>0.14275440489032723</v>
+      </c>
+      <c r="P45" s="3">
+        <f t="shared" si="61"/>
+        <v>0.52714850773103206</v>
+      </c>
+      <c r="Q45" s="3">
+        <f t="shared" si="62"/>
+        <v>0.22078389068680332</v>
+      </c>
+      <c r="R45" s="3">
+        <f t="shared" si="63"/>
+        <v>5.8252427184466021E-2</v>
+      </c>
+      <c r="S45" s="3">
+        <f t="shared" si="64"/>
+        <v>1.4023732470334413E-2</v>
+      </c>
+      <c r="T45" s="3">
+        <f t="shared" si="65"/>
+        <v>3.2362459546925568E-3</v>
+      </c>
+      <c r="U45" s="3">
+        <f t="shared" si="37"/>
+        <v>6.1129090255303848E-3</v>
+      </c>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="L46" s="3"/>
-      <c r="M46" s="3"/>
-      <c r="N46" s="3"/>
-      <c r="O46" s="3"/>
-      <c r="P46" s="3"/>
-      <c r="Q46" s="3"/>
-      <c r="R46" s="3"/>
-      <c r="S46" s="3"/>
-      <c r="T46" s="3"/>
-      <c r="U46" s="3"/>
+      <c r="A46" s="29">
+        <v>42732</v>
+      </c>
+      <c r="B46" s="2">
+        <v>1</v>
+      </c>
+      <c r="C46">
+        <v>10</v>
+      </c>
+      <c r="D46">
+        <v>57</v>
+      </c>
+      <c r="E46">
+        <v>396</v>
+      </c>
+      <c r="F46">
+        <v>1519</v>
+      </c>
+      <c r="G46" s="2">
+        <v>602</v>
+      </c>
+      <c r="H46" s="9">
+        <v>136</v>
+      </c>
+      <c r="I46" s="9">
+        <v>30</v>
+      </c>
+      <c r="J46" s="9">
+        <v>14</v>
+      </c>
+      <c r="K46" s="9">
+        <v>16</v>
+      </c>
+      <c r="L46" s="3">
+        <f t="shared" si="0"/>
+        <v>3.595828838547285E-4</v>
+      </c>
+      <c r="M46" s="3">
+        <f t="shared" si="49"/>
+        <v>3.5958288385472851E-3</v>
+      </c>
+      <c r="N46" s="3">
+        <f t="shared" si="59"/>
+        <v>2.0496224379719527E-2</v>
+      </c>
+      <c r="O46" s="3">
+        <f t="shared" si="60"/>
+        <v>0.14239482200647249</v>
+      </c>
+      <c r="P46" s="3">
+        <f t="shared" si="61"/>
+        <v>0.54620640057533265</v>
+      </c>
+      <c r="Q46" s="3">
+        <f t="shared" si="62"/>
+        <v>0.21646889608054656</v>
+      </c>
+      <c r="R46" s="3">
+        <f t="shared" si="63"/>
+        <v>4.8903272204243078E-2</v>
+      </c>
+      <c r="S46" s="3">
+        <f t="shared" si="64"/>
+        <v>1.0787486515641856E-2</v>
+      </c>
+      <c r="T46" s="3">
+        <f t="shared" si="65"/>
+        <v>5.0341603739661994E-3</v>
+      </c>
+      <c r="U46" s="3">
+        <f t="shared" si="37"/>
+        <v>5.753326141675656E-3</v>
+      </c>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="L47" s="3"/>
-      <c r="M47" s="3"/>
-      <c r="N47" s="3"/>
-      <c r="O47" s="3"/>
-      <c r="P47" s="3"/>
-      <c r="Q47" s="3"/>
-      <c r="R47" s="3"/>
-      <c r="S47" s="3"/>
-      <c r="T47" s="3"/>
-      <c r="U47" s="3"/>
+      <c r="A47" s="29">
+        <v>42733</v>
+      </c>
+      <c r="B47" s="2">
+        <v>3</v>
+      </c>
+      <c r="C47">
+        <v>7</v>
+      </c>
+      <c r="D47">
+        <v>62</v>
+      </c>
+      <c r="E47">
+        <v>351</v>
+      </c>
+      <c r="F47">
+        <v>1527</v>
+      </c>
+      <c r="G47" s="2">
+        <v>674</v>
+      </c>
+      <c r="H47" s="9">
+        <v>103</v>
+      </c>
+      <c r="I47" s="9">
+        <v>33</v>
+      </c>
+      <c r="J47" s="9">
+        <v>16</v>
+      </c>
+      <c r="K47" s="9">
+        <v>14</v>
+      </c>
+      <c r="L47" s="3">
+        <f t="shared" si="0"/>
+        <v>1.0752688172043011E-3</v>
+      </c>
+      <c r="M47" s="3">
+        <f t="shared" si="49"/>
+        <v>2.5089605734767025E-3</v>
+      </c>
+      <c r="N47" s="3">
+        <f t="shared" si="59"/>
+        <v>2.2222222222222223E-2</v>
+      </c>
+      <c r="O47" s="3">
+        <f t="shared" si="60"/>
+        <v>0.12580645161290321</v>
+      </c>
+      <c r="P47" s="3">
+        <f t="shared" si="61"/>
+        <v>0.54731182795698929</v>
+      </c>
+      <c r="Q47" s="3">
+        <f t="shared" si="62"/>
+        <v>0.24157706093189965</v>
+      </c>
+      <c r="R47" s="3">
+        <f t="shared" si="63"/>
+        <v>3.6917562724014336E-2</v>
+      </c>
+      <c r="S47" s="3">
+        <f t="shared" si="64"/>
+        <v>1.1827956989247311E-2</v>
+      </c>
+      <c r="T47" s="3">
+        <f t="shared" si="65"/>
+        <v>5.7347670250896057E-3</v>
+      </c>
+      <c r="U47" s="3">
+        <f t="shared" si="37"/>
+        <v>5.017921146953405E-3</v>
+      </c>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.15">
       <c r="L48" s="3"/>

--- a/趋势.xlsx
+++ b/趋势.xlsx
@@ -4,19 +4,22 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="330" windowWidth="27795" windowHeight="12990" tabRatio="505"/>
+    <workbookView xWindow="480" yWindow="330" windowWidth="27795" windowHeight="12990" tabRatio="505" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="趋势" sheetId="1" r:id="rId1"/>
-    <sheet name="行业前五" sheetId="2" r:id="rId2"/>
-    <sheet name="行业后五" sheetId="5" r:id="rId3"/>
+    <sheet name="涨幅" sheetId="9" r:id="rId2"/>
+    <sheet name="行业前五" sheetId="2" r:id="rId3"/>
+    <sheet name="行业后五" sheetId="5" r:id="rId4"/>
+    <sheet name="沪" sheetId="6" r:id="rId5"/>
+    <sheet name="深" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="89">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -235,6 +238,86 @@
   <si>
     <t>代码</t>
   </si>
+  <si>
+    <t>涨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15分钟(93)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30分钟(94)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60分钟(95)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日(96)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周(97)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月(98)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>季(911)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r&lt;0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.1&lt;=r&lt;0.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.3&lt;=r&lt;0.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5&lt;=r&lt;0.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.8&lt;=r&lt;1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5&lt;=r&lt;2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1&lt;=r&lt;1.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2&lt;=X&lt;3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3&lt;=r&lt;4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4&lt;=X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -316,7 +399,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -371,6 +454,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -410,7 +499,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -499,6 +588,24 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -804,29 +911,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U247"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B26" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D54" sqref="D54"/>
+      <selection pane="bottomRight" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="13.375" customWidth="1"/>
-    <col min="2" max="2" width="7.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.75" style="2" customWidth="1"/>
-    <col min="8" max="10" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8.25" customWidth="1"/>
     <col min="15" max="15" width="8.875" customWidth="1"/>
-    <col min="16" max="17" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="18" max="20" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.15">
@@ -929,7 +1036,7 @@
         <v>21</v>
       </c>
       <c r="L2" s="3">
-        <f t="shared" ref="L2:L47" si="0">B2/SUM($B2:$K2)</f>
+        <f t="shared" ref="L2:L53" si="0">B2/SUM($B2:$K2)</f>
         <v>0</v>
       </c>
       <c r="M2" s="3">
@@ -1265,7 +1372,7 @@
         <v>1.1119347664936991E-2</v>
       </c>
       <c r="U6" s="3">
-        <f t="shared" ref="U6:U47" si="37">K6/SUM($B6:$K6)</f>
+        <f t="shared" ref="U6:U53" si="37">K6/SUM($B6:$K6)</f>
         <v>8.1541882876204601E-3</v>
       </c>
     </row>
@@ -3483,7 +3590,7 @@
         <v>2.8954035468693449E-3</v>
       </c>
       <c r="M36" s="3">
-        <f t="shared" ref="M36:M47" si="49">C36/SUM($B36:$K36)</f>
+        <f t="shared" ref="M36:M53" si="49">C36/SUM($B36:$K36)</f>
         <v>5.1755338400289543E-2</v>
       </c>
       <c r="N36" s="3">
@@ -3787,31 +3894,31 @@
         <v>5.0687907313540911E-3</v>
       </c>
       <c r="N40" s="3">
-        <f t="shared" ref="N40:N47" si="59">D40/SUM($B40:$K40)</f>
+        <f t="shared" ref="N40:N53" si="59">D40/SUM($B40:$K40)</f>
         <v>5.0325850832729904E-2</v>
       </c>
       <c r="O40" s="3">
-        <f t="shared" ref="O40:O47" si="60">E40/SUM($B40:$K40)</f>
+        <f t="shared" ref="O40:O53" si="60">E40/SUM($B40:$K40)</f>
         <v>0.30702389572773353</v>
       </c>
       <c r="P40" s="3">
-        <f t="shared" ref="P40:P47" si="61">F40/SUM($B40:$K40)</f>
+        <f t="shared" ref="P40:P53" si="61">F40/SUM($B40:$K40)</f>
         <v>0.4225199131064446</v>
       </c>
       <c r="Q40" s="3">
-        <f t="shared" ref="Q40:Q47" si="62">G40/SUM($B40:$K40)</f>
+        <f t="shared" ref="Q40:Q53" si="62">G40/SUM($B40:$K40)</f>
         <v>0.14808110065170166</v>
       </c>
       <c r="R40" s="3">
-        <f t="shared" ref="R40:R47" si="63">H40/SUM($B40:$K40)</f>
+        <f t="shared" ref="R40:R53" si="63">H40/SUM($B40:$K40)</f>
         <v>4.1998551774076756E-2</v>
       </c>
       <c r="S40" s="3">
-        <f t="shared" ref="S40:S47" si="64">I40/SUM($B40:$K40)</f>
+        <f t="shared" ref="S40:S53" si="64">I40/SUM($B40:$K40)</f>
         <v>1.4482259232440261E-2</v>
       </c>
       <c r="T40" s="3">
-        <f t="shared" ref="T40:T47" si="65">J40/SUM($B40:$K40)</f>
+        <f t="shared" ref="T40:T53" si="65">J40/SUM($B40:$K40)</f>
         <v>3.6205648081100651E-3</v>
       </c>
       <c r="U40" s="3">
@@ -4345,16 +4452,3514 @@
       </c>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A48" s="29">
+        <v>42738</v>
+      </c>
+      <c r="B48" s="2">
+        <v>1</v>
+      </c>
+      <c r="C48">
+        <v>6</v>
+      </c>
+      <c r="D48">
+        <v>30</v>
+      </c>
+      <c r="E48">
+        <v>198</v>
+      </c>
+      <c r="F48">
+        <v>1238</v>
+      </c>
+      <c r="G48" s="2">
+        <v>1088</v>
+      </c>
+      <c r="H48" s="9">
+        <v>175</v>
+      </c>
+      <c r="I48" s="9">
+        <v>32</v>
+      </c>
+      <c r="J48" s="9">
+        <v>5</v>
+      </c>
+      <c r="K48" s="9">
+        <v>15</v>
+      </c>
+      <c r="L48" s="3">
+        <f t="shared" si="0"/>
+        <v>3.586800573888092E-4</v>
+      </c>
+      <c r="M48" s="3">
+        <f t="shared" si="49"/>
+        <v>2.152080344332855E-3</v>
+      </c>
+      <c r="N48" s="13">
+        <f t="shared" si="59"/>
+        <v>1.0760401721664276E-2</v>
+      </c>
+      <c r="O48" s="13">
+        <f t="shared" si="60"/>
+        <v>7.1018651362984214E-2</v>
+      </c>
+      <c r="P48" s="13">
+        <f t="shared" si="61"/>
+        <v>0.44404591104734575</v>
+      </c>
+      <c r="Q48" s="13">
+        <f t="shared" si="62"/>
+        <v>0.3902439024390244</v>
+      </c>
+      <c r="R48" s="13">
+        <f t="shared" si="63"/>
+        <v>6.2769010043041612E-2</v>
+      </c>
+      <c r="S48" s="3">
+        <f t="shared" si="64"/>
+        <v>1.1477761836441894E-2</v>
+      </c>
+      <c r="T48" s="3">
+        <f t="shared" si="65"/>
+        <v>1.7934002869440459E-3</v>
+      </c>
+      <c r="U48" s="3">
+        <f t="shared" si="37"/>
+        <v>5.3802008608321381E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A49" s="29">
+        <v>42739</v>
+      </c>
+      <c r="B49" s="2">
+        <v>1</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <v>9</v>
+      </c>
+      <c r="E49">
+        <v>110</v>
+      </c>
+      <c r="F49">
+        <v>871</v>
+      </c>
+      <c r="G49" s="2">
+        <v>1489</v>
+      </c>
+      <c r="H49" s="9">
+        <v>224</v>
+      </c>
+      <c r="I49" s="9">
+        <v>56</v>
+      </c>
+      <c r="J49" s="9">
+        <v>15</v>
+      </c>
+      <c r="K49" s="9">
+        <v>19</v>
+      </c>
+      <c r="L49" s="3">
+        <f t="shared" si="0"/>
+        <v>3.5778175313059033E-4</v>
+      </c>
+      <c r="M49" s="4">
+        <f t="shared" si="49"/>
+        <v>3.5778175313059033E-4</v>
+      </c>
+      <c r="N49" s="30">
+        <f t="shared" si="59"/>
+        <v>3.2200357781753132E-3</v>
+      </c>
+      <c r="O49" s="30">
+        <f t="shared" si="60"/>
+        <v>3.9355992844364938E-2</v>
+      </c>
+      <c r="P49" s="30">
+        <f t="shared" si="61"/>
+        <v>0.3116279069767442</v>
+      </c>
+      <c r="Q49" s="30">
+        <f t="shared" si="62"/>
+        <v>0.53273703041144904</v>
+      </c>
+      <c r="R49" s="30">
+        <f t="shared" si="63"/>
+        <v>8.0143112701252239E-2</v>
+      </c>
+      <c r="S49" s="30">
+        <f t="shared" si="64"/>
+        <v>2.003577817531306E-2</v>
+      </c>
+      <c r="T49" s="30">
+        <f t="shared" si="65"/>
+        <v>5.3667262969588547E-3</v>
+      </c>
+      <c r="U49" s="4">
+        <f t="shared" si="37"/>
+        <v>6.7978533094812162E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A50" s="29">
+        <v>42744</v>
+      </c>
+      <c r="B50" s="2">
+        <v>2</v>
+      </c>
+      <c r="C50">
+        <v>6</v>
+      </c>
+      <c r="D50">
+        <v>49</v>
+      </c>
+      <c r="E50">
+        <v>175</v>
+      </c>
+      <c r="F50">
+        <v>748</v>
+      </c>
+      <c r="G50" s="2">
+        <v>1355</v>
+      </c>
+      <c r="H50" s="9">
+        <v>355</v>
+      </c>
+      <c r="I50" s="9">
+        <v>72</v>
+      </c>
+      <c r="J50" s="9">
+        <v>17</v>
+      </c>
+      <c r="K50" s="9">
+        <v>20</v>
+      </c>
+      <c r="L50" s="3">
+        <f t="shared" si="0"/>
+        <v>7.1454090746695244E-4</v>
+      </c>
+      <c r="M50" s="4">
+        <f t="shared" si="49"/>
+        <v>2.1436227224008574E-3</v>
+      </c>
+      <c r="N50" s="4">
+        <f t="shared" si="59"/>
+        <v>1.7506252232940337E-2</v>
+      </c>
+      <c r="O50" s="4">
+        <f t="shared" si="60"/>
+        <v>6.2522329403358348E-2</v>
+      </c>
+      <c r="P50" s="4">
+        <f t="shared" si="61"/>
+        <v>0.26723829939264021</v>
+      </c>
+      <c r="Q50" s="4">
+        <f t="shared" si="62"/>
+        <v>0.48410146480886029</v>
+      </c>
+      <c r="R50" s="4">
+        <f t="shared" si="63"/>
+        <v>0.12683101107538405</v>
+      </c>
+      <c r="S50" s="4">
+        <f t="shared" si="64"/>
+        <v>2.5723472668810289E-2</v>
+      </c>
+      <c r="T50" s="4">
+        <f t="shared" si="65"/>
+        <v>6.0735977134690963E-3</v>
+      </c>
+      <c r="U50" s="4">
+        <f t="shared" si="37"/>
+        <v>7.145409074669525E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A51" s="29">
+        <v>42745</v>
+      </c>
+      <c r="B51" s="2">
+        <v>2</v>
+      </c>
+      <c r="C51">
+        <v>4</v>
+      </c>
+      <c r="D51">
+        <v>59</v>
+      </c>
+      <c r="E51">
+        <v>183</v>
+      </c>
+      <c r="F51">
+        <v>807</v>
+      </c>
+      <c r="G51" s="2">
+        <v>1410</v>
+      </c>
+      <c r="H51" s="9">
+        <v>249</v>
+      </c>
+      <c r="I51" s="9">
+        <v>50</v>
+      </c>
+      <c r="J51" s="9">
+        <v>14</v>
+      </c>
+      <c r="K51" s="9">
+        <v>25</v>
+      </c>
+      <c r="L51" s="3">
+        <f t="shared" si="0"/>
+        <v>7.1352122725651087E-4</v>
+      </c>
+      <c r="M51" s="4">
+        <f t="shared" si="49"/>
+        <v>1.4270424545130217E-3</v>
+      </c>
+      <c r="N51" s="4">
+        <f t="shared" si="59"/>
+        <v>2.104887620406707E-2</v>
+      </c>
+      <c r="O51" s="4">
+        <f t="shared" si="60"/>
+        <v>6.5287192293970744E-2</v>
+      </c>
+      <c r="P51" s="4">
+        <f t="shared" si="61"/>
+        <v>0.28790581519800212</v>
+      </c>
+      <c r="Q51" s="4">
+        <f t="shared" si="62"/>
+        <v>0.50303246521584022</v>
+      </c>
+      <c r="R51" s="4">
+        <f t="shared" si="63"/>
+        <v>8.8833392793435606E-2</v>
+      </c>
+      <c r="S51" s="4">
+        <f t="shared" si="64"/>
+        <v>1.7838030681412771E-2</v>
+      </c>
+      <c r="T51" s="4">
+        <f t="shared" si="65"/>
+        <v>4.9946485907955765E-3</v>
+      </c>
+      <c r="U51" s="4">
+        <f t="shared" si="37"/>
+        <v>8.9190153407063856E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" s="27" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="25">
+        <v>42747</v>
+      </c>
+      <c r="B52" s="26">
+        <v>5</v>
+      </c>
+      <c r="C52" s="27">
+        <v>25</v>
+      </c>
+      <c r="D52" s="27">
+        <v>102</v>
+      </c>
+      <c r="E52" s="27">
+        <v>332</v>
+      </c>
+      <c r="F52" s="27">
+        <v>1388</v>
+      </c>
+      <c r="G52" s="26">
+        <v>793</v>
+      </c>
+      <c r="H52" s="28">
+        <v>105</v>
+      </c>
+      <c r="I52" s="28">
+        <v>26</v>
+      </c>
+      <c r="J52" s="28">
+        <v>14</v>
+      </c>
+      <c r="K52" s="28">
+        <v>15</v>
+      </c>
+      <c r="L52" s="11">
+        <f t="shared" si="0"/>
+        <v>1.7825311942959001E-3</v>
+      </c>
+      <c r="M52" s="31">
+        <f t="shared" si="49"/>
+        <v>8.9126559714795012E-3</v>
+      </c>
+      <c r="N52" s="31">
+        <f t="shared" si="59"/>
+        <v>3.6363636363636362E-2</v>
+      </c>
+      <c r="O52" s="31">
+        <f t="shared" si="60"/>
+        <v>0.11836007130124777</v>
+      </c>
+      <c r="P52" s="31">
+        <f t="shared" si="61"/>
+        <v>0.49483065953654187</v>
+      </c>
+      <c r="Q52" s="31">
+        <f t="shared" si="62"/>
+        <v>0.28270944741532977</v>
+      </c>
+      <c r="R52" s="31">
+        <f t="shared" si="63"/>
+        <v>3.7433155080213901E-2</v>
+      </c>
+      <c r="S52" s="31">
+        <f t="shared" si="64"/>
+        <v>9.2691622103386814E-3</v>
+      </c>
+      <c r="T52" s="31">
+        <f t="shared" si="65"/>
+        <v>4.9910873440285209E-3</v>
+      </c>
+      <c r="U52" s="31">
+        <f t="shared" si="37"/>
+        <v>5.3475935828877002E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21" s="27" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="25">
+        <v>42751</v>
+      </c>
+      <c r="B53" s="26">
+        <v>62</v>
+      </c>
+      <c r="C53" s="27">
+        <v>195</v>
+      </c>
+      <c r="D53" s="27">
+        <v>518</v>
+      </c>
+      <c r="E53" s="27">
+        <v>972</v>
+      </c>
+      <c r="F53" s="27">
+        <v>721</v>
+      </c>
+      <c r="G53" s="26">
+        <v>269</v>
+      </c>
+      <c r="H53" s="28">
+        <v>42</v>
+      </c>
+      <c r="I53" s="28">
+        <v>14</v>
+      </c>
+      <c r="J53" s="28">
+        <v>3</v>
+      </c>
+      <c r="K53" s="28">
+        <v>7</v>
+      </c>
+      <c r="L53" s="11">
+        <f t="shared" si="0"/>
+        <v>2.2119158044951837E-2</v>
+      </c>
+      <c r="M53" s="31">
+        <f t="shared" si="49"/>
+        <v>6.9568319657509814E-2</v>
+      </c>
+      <c r="N53" s="31">
+        <f t="shared" si="59"/>
+        <v>0.18480199785943632</v>
+      </c>
+      <c r="O53" s="31">
+        <f t="shared" si="60"/>
+        <v>0.34677131644666431</v>
+      </c>
+      <c r="P53" s="31">
+        <f t="shared" si="61"/>
+        <v>0.25722440242597217</v>
+      </c>
+      <c r="Q53" s="31">
+        <f t="shared" si="62"/>
+        <v>9.5968605066000717E-2</v>
+      </c>
+      <c r="R53" s="31">
+        <f t="shared" si="63"/>
+        <v>1.4983945772386728E-2</v>
+      </c>
+      <c r="S53" s="31">
+        <f t="shared" si="64"/>
+        <v>4.9946485907955765E-3</v>
+      </c>
+      <c r="T53" s="31">
+        <f t="shared" si="65"/>
+        <v>1.0702818408847663E-3</v>
+      </c>
+      <c r="U53" s="31">
+        <f t="shared" si="37"/>
+        <v>2.4973242953977882E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="L54" s="3"/>
+      <c r="M54" s="4"/>
+      <c r="N54" s="4"/>
+      <c r="O54" s="4"/>
+      <c r="P54" s="4"/>
+      <c r="Q54" s="4"/>
+      <c r="R54" s="4"/>
+      <c r="S54" s="4"/>
+      <c r="T54" s="4"/>
+      <c r="U54" s="4"/>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="L55" s="3"/>
+      <c r="M55" s="4"/>
+      <c r="N55" s="4"/>
+      <c r="O55" s="4"/>
+      <c r="P55" s="4"/>
+      <c r="Q55" s="4"/>
+      <c r="R55" s="4"/>
+      <c r="S55" s="4"/>
+      <c r="T55" s="4"/>
+      <c r="U55" s="4"/>
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="L56" s="3"/>
+      <c r="M56" s="4"/>
+      <c r="N56" s="4"/>
+      <c r="O56" s="4"/>
+      <c r="P56" s="4"/>
+      <c r="Q56" s="4"/>
+      <c r="R56" s="4"/>
+      <c r="S56" s="4"/>
+      <c r="T56" s="4"/>
+      <c r="U56" s="4"/>
+    </row>
+    <row r="57" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="L57" s="3"/>
+      <c r="M57" s="4"/>
+      <c r="N57" s="4"/>
+      <c r="O57" s="4"/>
+      <c r="P57" s="4"/>
+      <c r="Q57" s="4"/>
+      <c r="R57" s="4"/>
+      <c r="S57" s="4"/>
+      <c r="T57" s="4"/>
+      <c r="U57" s="4"/>
+    </row>
+    <row r="58" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="L58" s="3"/>
+      <c r="M58" s="4"/>
+      <c r="N58" s="4"/>
+      <c r="O58" s="4"/>
+      <c r="P58" s="4"/>
+      <c r="Q58" s="4"/>
+      <c r="R58" s="4"/>
+      <c r="S58" s="4"/>
+      <c r="T58" s="4"/>
+      <c r="U58" s="4"/>
+    </row>
+    <row r="59" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="L59" s="3"/>
+      <c r="M59" s="4"/>
+      <c r="N59" s="4"/>
+      <c r="O59" s="4"/>
+      <c r="P59" s="4"/>
+      <c r="Q59" s="4"/>
+      <c r="R59" s="4"/>
+      <c r="S59" s="4"/>
+      <c r="T59" s="4"/>
+      <c r="U59" s="4"/>
+    </row>
+    <row r="60" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="L60" s="3"/>
+      <c r="M60" s="4"/>
+      <c r="N60" s="4"/>
+      <c r="O60" s="4"/>
+      <c r="P60" s="4"/>
+      <c r="Q60" s="4"/>
+      <c r="R60" s="4"/>
+      <c r="S60" s="4"/>
+      <c r="T60" s="4"/>
+      <c r="U60" s="4"/>
+    </row>
+    <row r="61" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="L61" s="3"/>
+      <c r="M61" s="4"/>
+      <c r="N61" s="4"/>
+      <c r="O61" s="4"/>
+      <c r="P61" s="4"/>
+      <c r="Q61" s="4"/>
+      <c r="R61" s="4"/>
+      <c r="S61" s="4"/>
+      <c r="T61" s="4"/>
+      <c r="U61" s="4"/>
+    </row>
+    <row r="62" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="L62" s="3"/>
+      <c r="M62" s="4"/>
+      <c r="N62" s="4"/>
+      <c r="O62" s="4"/>
+      <c r="P62" s="4"/>
+      <c r="Q62" s="4"/>
+      <c r="R62" s="4"/>
+      <c r="S62" s="4"/>
+      <c r="T62" s="4"/>
+      <c r="U62" s="4"/>
+    </row>
+    <row r="63" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="L63" s="3"/>
+      <c r="M63" s="4"/>
+      <c r="N63" s="4"/>
+      <c r="O63" s="4"/>
+      <c r="P63" s="4"/>
+      <c r="Q63" s="4"/>
+      <c r="R63" s="4"/>
+      <c r="S63" s="4"/>
+      <c r="T63" s="4"/>
+      <c r="U63" s="4"/>
+    </row>
+    <row r="64" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="L64" s="3"/>
+      <c r="M64" s="4"/>
+      <c r="N64" s="4"/>
+      <c r="O64" s="4"/>
+      <c r="P64" s="4"/>
+      <c r="Q64" s="4"/>
+      <c r="R64" s="4"/>
+      <c r="S64" s="4"/>
+      <c r="T64" s="4"/>
+      <c r="U64" s="4"/>
+    </row>
+    <row r="65" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L65" s="3"/>
+      <c r="M65" s="4"/>
+      <c r="N65" s="4"/>
+      <c r="O65" s="4"/>
+      <c r="P65" s="4"/>
+      <c r="Q65" s="4"/>
+      <c r="R65" s="4"/>
+      <c r="S65" s="4"/>
+      <c r="T65" s="4"/>
+      <c r="U65" s="4"/>
+    </row>
+    <row r="66" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L66" s="3"/>
+      <c r="M66" s="4"/>
+      <c r="N66" s="4"/>
+      <c r="O66" s="4"/>
+      <c r="P66" s="4"/>
+      <c r="Q66" s="4"/>
+      <c r="R66" s="4"/>
+      <c r="S66" s="4"/>
+      <c r="T66" s="4"/>
+      <c r="U66" s="4"/>
+    </row>
+    <row r="67" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L67" s="3"/>
+      <c r="M67" s="4"/>
+      <c r="N67" s="4"/>
+      <c r="O67" s="4"/>
+      <c r="P67" s="4"/>
+      <c r="Q67" s="4"/>
+      <c r="R67" s="4"/>
+      <c r="S67" s="4"/>
+      <c r="T67" s="4"/>
+      <c r="U67" s="4"/>
+    </row>
+    <row r="68" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L68" s="3"/>
+      <c r="M68" s="4"/>
+      <c r="N68" s="4"/>
+      <c r="O68" s="4"/>
+      <c r="P68" s="4"/>
+      <c r="Q68" s="4"/>
+      <c r="R68" s="4"/>
+      <c r="S68" s="4"/>
+      <c r="T68" s="4"/>
+      <c r="U68" s="4"/>
+    </row>
+    <row r="69" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L69" s="3"/>
+      <c r="M69" s="4"/>
+      <c r="N69" s="4"/>
+      <c r="O69" s="4"/>
+      <c r="P69" s="4"/>
+      <c r="Q69" s="4"/>
+      <c r="R69" s="4"/>
+      <c r="S69" s="4"/>
+      <c r="T69" s="4"/>
+      <c r="U69" s="4"/>
+    </row>
+    <row r="70" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L70" s="3"/>
+      <c r="M70" s="4"/>
+      <c r="N70" s="4"/>
+      <c r="O70" s="4"/>
+      <c r="P70" s="4"/>
+      <c r="Q70" s="4"/>
+      <c r="R70" s="4"/>
+      <c r="S70" s="4"/>
+      <c r="T70" s="4"/>
+      <c r="U70" s="4"/>
+    </row>
+    <row r="71" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L71" s="3"/>
+      <c r="M71" s="4"/>
+      <c r="N71" s="4"/>
+      <c r="O71" s="4"/>
+      <c r="P71" s="4"/>
+      <c r="Q71" s="4"/>
+      <c r="R71" s="4"/>
+      <c r="S71" s="4"/>
+      <c r="T71" s="4"/>
+      <c r="U71" s="4"/>
+    </row>
+    <row r="72" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L72" s="3"/>
+      <c r="M72" s="4"/>
+      <c r="N72" s="4"/>
+      <c r="O72" s="4"/>
+      <c r="P72" s="4"/>
+      <c r="Q72" s="4"/>
+      <c r="R72" s="4"/>
+      <c r="S72" s="4"/>
+      <c r="T72" s="4"/>
+      <c r="U72" s="4"/>
+    </row>
+    <row r="73" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L73" s="3"/>
+      <c r="M73" s="4"/>
+      <c r="N73" s="4"/>
+      <c r="O73" s="4"/>
+      <c r="P73" s="4"/>
+      <c r="Q73" s="4"/>
+      <c r="R73" s="4"/>
+      <c r="S73" s="4"/>
+      <c r="T73" s="4"/>
+      <c r="U73" s="4"/>
+    </row>
+    <row r="74" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L74" s="3"/>
+      <c r="M74" s="4"/>
+      <c r="N74" s="4"/>
+      <c r="O74" s="4"/>
+      <c r="P74" s="4"/>
+      <c r="Q74" s="4"/>
+      <c r="R74" s="4"/>
+      <c r="S74" s="4"/>
+      <c r="T74" s="4"/>
+      <c r="U74" s="4"/>
+    </row>
+    <row r="75" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L75" s="3"/>
+      <c r="M75" s="4"/>
+      <c r="N75" s="4"/>
+      <c r="O75" s="4"/>
+      <c r="P75" s="4"/>
+      <c r="Q75" s="4"/>
+      <c r="R75" s="4"/>
+      <c r="S75" s="4"/>
+      <c r="T75" s="4"/>
+      <c r="U75" s="4"/>
+    </row>
+    <row r="76" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L76" s="3"/>
+      <c r="M76" s="4"/>
+      <c r="N76" s="4"/>
+      <c r="O76" s="4"/>
+      <c r="P76" s="4"/>
+      <c r="Q76" s="4"/>
+      <c r="R76" s="4"/>
+      <c r="S76" s="4"/>
+      <c r="T76" s="4"/>
+      <c r="U76" s="4"/>
+    </row>
+    <row r="77" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L77" s="3"/>
+      <c r="M77" s="4"/>
+      <c r="N77" s="4"/>
+      <c r="O77" s="4"/>
+      <c r="P77" s="4"/>
+      <c r="Q77" s="4"/>
+      <c r="R77" s="4"/>
+      <c r="S77" s="4"/>
+      <c r="T77" s="4"/>
+      <c r="U77" s="4"/>
+    </row>
+    <row r="78" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L78" s="3"/>
+      <c r="M78" s="4"/>
+      <c r="N78" s="4"/>
+      <c r="O78" s="4"/>
+      <c r="P78" s="4"/>
+      <c r="Q78" s="4"/>
+      <c r="R78" s="4"/>
+      <c r="S78" s="4"/>
+      <c r="T78" s="4"/>
+      <c r="U78" s="4"/>
+    </row>
+    <row r="79" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L79" s="3"/>
+      <c r="M79" s="4"/>
+      <c r="N79" s="4"/>
+      <c r="O79" s="4"/>
+      <c r="P79" s="4"/>
+      <c r="Q79" s="4"/>
+      <c r="R79" s="4"/>
+      <c r="S79" s="4"/>
+      <c r="T79" s="4"/>
+      <c r="U79" s="4"/>
+    </row>
+    <row r="80" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L80" s="3"/>
+      <c r="M80" s="4"/>
+      <c r="N80" s="4"/>
+      <c r="O80" s="4"/>
+      <c r="P80" s="4"/>
+      <c r="Q80" s="4"/>
+      <c r="R80" s="4"/>
+      <c r="S80" s="4"/>
+      <c r="T80" s="4"/>
+      <c r="U80" s="4"/>
+    </row>
+    <row r="81" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L81" s="3"/>
+      <c r="M81" s="4"/>
+      <c r="N81" s="4"/>
+      <c r="O81" s="4"/>
+      <c r="P81" s="4"/>
+      <c r="Q81" s="4"/>
+      <c r="R81" s="4"/>
+      <c r="S81" s="4"/>
+      <c r="T81" s="4"/>
+      <c r="U81" s="4"/>
+    </row>
+    <row r="82" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L82" s="3"/>
+      <c r="M82" s="4"/>
+      <c r="N82" s="4"/>
+      <c r="O82" s="4"/>
+      <c r="P82" s="4"/>
+      <c r="Q82" s="4"/>
+      <c r="R82" s="4"/>
+      <c r="S82" s="4"/>
+      <c r="T82" s="4"/>
+      <c r="U82" s="4"/>
+    </row>
+    <row r="83" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L83" s="3"/>
+      <c r="M83" s="4"/>
+      <c r="N83" s="4"/>
+      <c r="O83" s="4"/>
+      <c r="P83" s="4"/>
+      <c r="Q83" s="4"/>
+      <c r="R83" s="4"/>
+      <c r="S83" s="4"/>
+      <c r="T83" s="4"/>
+      <c r="U83" s="4"/>
+    </row>
+    <row r="84" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L84" s="3"/>
+      <c r="M84" s="4"/>
+      <c r="N84" s="4"/>
+      <c r="O84" s="4"/>
+      <c r="P84" s="4"/>
+      <c r="Q84" s="4"/>
+      <c r="R84" s="4"/>
+      <c r="S84" s="4"/>
+      <c r="T84" s="4"/>
+      <c r="U84" s="4"/>
+    </row>
+    <row r="85" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L85" s="3"/>
+      <c r="M85" s="4"/>
+      <c r="N85" s="4"/>
+      <c r="O85" s="4"/>
+      <c r="P85" s="4"/>
+      <c r="Q85" s="4"/>
+      <c r="R85" s="4"/>
+      <c r="S85" s="4"/>
+      <c r="T85" s="4"/>
+      <c r="U85" s="4"/>
+    </row>
+    <row r="86" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L86" s="3"/>
+      <c r="M86" s="4"/>
+      <c r="N86" s="4"/>
+      <c r="O86" s="4"/>
+      <c r="P86" s="4"/>
+      <c r="Q86" s="4"/>
+      <c r="R86" s="4"/>
+      <c r="S86" s="4"/>
+      <c r="T86" s="4"/>
+      <c r="U86" s="4"/>
+    </row>
+    <row r="87" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L87" s="3"/>
+      <c r="M87" s="4"/>
+      <c r="N87" s="4"/>
+      <c r="O87" s="4"/>
+      <c r="P87" s="4"/>
+      <c r="Q87" s="4"/>
+      <c r="R87" s="4"/>
+      <c r="S87" s="4"/>
+      <c r="T87" s="4"/>
+      <c r="U87" s="4"/>
+    </row>
+    <row r="88" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L88" s="3"/>
+      <c r="M88" s="4"/>
+      <c r="N88" s="4"/>
+      <c r="O88" s="4"/>
+      <c r="P88" s="4"/>
+      <c r="Q88" s="4"/>
+      <c r="R88" s="4"/>
+      <c r="S88" s="4"/>
+      <c r="T88" s="4"/>
+      <c r="U88" s="4"/>
+    </row>
+    <row r="89" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L89" s="3"/>
+      <c r="M89" s="4"/>
+      <c r="N89" s="4"/>
+      <c r="O89" s="4"/>
+      <c r="P89" s="4"/>
+      <c r="Q89" s="4"/>
+      <c r="R89" s="4"/>
+      <c r="S89" s="4"/>
+      <c r="T89" s="4"/>
+      <c r="U89" s="4"/>
+    </row>
+    <row r="90" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L90" s="3"/>
+      <c r="M90" s="4"/>
+      <c r="N90" s="4"/>
+      <c r="O90" s="4"/>
+      <c r="P90" s="4"/>
+      <c r="Q90" s="4"/>
+      <c r="R90" s="4"/>
+      <c r="S90" s="4"/>
+      <c r="T90" s="4"/>
+      <c r="U90" s="4"/>
+    </row>
+    <row r="91" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L91" s="3"/>
+      <c r="M91" s="4"/>
+      <c r="N91" s="4"/>
+      <c r="O91" s="4"/>
+      <c r="P91" s="4"/>
+      <c r="Q91" s="4"/>
+      <c r="R91" s="4"/>
+      <c r="S91" s="4"/>
+      <c r="T91" s="4"/>
+      <c r="U91" s="4"/>
+    </row>
+    <row r="92" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L92" s="3"/>
+      <c r="M92" s="4"/>
+      <c r="N92" s="4"/>
+      <c r="O92" s="4"/>
+      <c r="P92" s="4"/>
+      <c r="Q92" s="4"/>
+      <c r="R92" s="4"/>
+      <c r="S92" s="4"/>
+      <c r="T92" s="4"/>
+      <c r="U92" s="4"/>
+    </row>
+    <row r="93" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L93" s="3"/>
+      <c r="M93" s="4"/>
+      <c r="N93" s="4"/>
+      <c r="O93" s="4"/>
+      <c r="P93" s="4"/>
+      <c r="Q93" s="4"/>
+      <c r="R93" s="4"/>
+      <c r="S93" s="4"/>
+      <c r="T93" s="4"/>
+      <c r="U93" s="4"/>
+    </row>
+    <row r="94" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L94" s="3"/>
+      <c r="M94" s="4"/>
+      <c r="N94" s="4"/>
+      <c r="O94" s="4"/>
+      <c r="P94" s="4"/>
+      <c r="Q94" s="4"/>
+      <c r="R94" s="4"/>
+      <c r="S94" s="4"/>
+      <c r="T94" s="4"/>
+      <c r="U94" s="4"/>
+    </row>
+    <row r="95" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L95" s="3"/>
+      <c r="M95" s="4"/>
+      <c r="N95" s="4"/>
+      <c r="O95" s="4"/>
+      <c r="P95" s="4"/>
+      <c r="Q95" s="4"/>
+      <c r="R95" s="4"/>
+      <c r="S95" s="4"/>
+      <c r="T95" s="4"/>
+      <c r="U95" s="4"/>
+    </row>
+    <row r="96" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L96" s="3"/>
+      <c r="M96" s="4"/>
+      <c r="N96" s="4"/>
+      <c r="O96" s="4"/>
+      <c r="P96" s="4"/>
+      <c r="Q96" s="4"/>
+      <c r="R96" s="4"/>
+      <c r="S96" s="4"/>
+      <c r="T96" s="4"/>
+      <c r="U96" s="4"/>
+    </row>
+    <row r="97" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L97" s="3"/>
+      <c r="M97" s="4"/>
+      <c r="N97" s="4"/>
+      <c r="O97" s="4"/>
+      <c r="P97" s="4"/>
+      <c r="Q97" s="4"/>
+      <c r="R97" s="4"/>
+      <c r="S97" s="4"/>
+      <c r="T97" s="4"/>
+      <c r="U97" s="4"/>
+    </row>
+    <row r="98" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L98" s="3"/>
+      <c r="M98" s="4"/>
+      <c r="N98" s="4"/>
+      <c r="O98" s="4"/>
+      <c r="P98" s="4"/>
+      <c r="Q98" s="4"/>
+      <c r="R98" s="4"/>
+      <c r="S98" s="4"/>
+      <c r="T98" s="4"/>
+      <c r="U98" s="4"/>
+    </row>
+    <row r="99" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L99" s="3"/>
+      <c r="M99" s="4"/>
+      <c r="N99" s="4"/>
+      <c r="O99" s="4"/>
+      <c r="P99" s="4"/>
+      <c r="Q99" s="4"/>
+      <c r="R99" s="4"/>
+      <c r="S99" s="4"/>
+      <c r="T99" s="4"/>
+      <c r="U99" s="4"/>
+    </row>
+    <row r="100" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L100" s="3"/>
+      <c r="M100" s="4"/>
+      <c r="N100" s="4"/>
+      <c r="O100" s="4"/>
+      <c r="P100" s="4"/>
+      <c r="Q100" s="4"/>
+      <c r="R100" s="4"/>
+      <c r="S100" s="4"/>
+      <c r="T100" s="4"/>
+      <c r="U100" s="4"/>
+    </row>
+    <row r="101" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L101" s="3"/>
+      <c r="M101" s="4"/>
+      <c r="N101" s="4"/>
+      <c r="O101" s="4"/>
+      <c r="P101" s="4"/>
+      <c r="Q101" s="4"/>
+      <c r="R101" s="4"/>
+      <c r="S101" s="4"/>
+      <c r="T101" s="4"/>
+      <c r="U101" s="4"/>
+    </row>
+    <row r="102" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L102" s="3"/>
+      <c r="M102" s="4"/>
+      <c r="N102" s="4"/>
+      <c r="O102" s="4"/>
+      <c r="P102" s="4"/>
+      <c r="Q102" s="4"/>
+      <c r="R102" s="4"/>
+      <c r="S102" s="4"/>
+      <c r="T102" s="4"/>
+      <c r="U102" s="4"/>
+    </row>
+    <row r="103" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L103" s="3"/>
+      <c r="M103" s="4"/>
+      <c r="N103" s="4"/>
+      <c r="O103" s="4"/>
+      <c r="P103" s="4"/>
+      <c r="Q103" s="4"/>
+      <c r="R103" s="4"/>
+      <c r="S103" s="4"/>
+      <c r="T103" s="4"/>
+      <c r="U103" s="4"/>
+    </row>
+    <row r="104" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L104" s="3"/>
+      <c r="M104" s="4"/>
+      <c r="N104" s="4"/>
+      <c r="O104" s="4"/>
+      <c r="P104" s="4"/>
+      <c r="Q104" s="4"/>
+      <c r="R104" s="4"/>
+      <c r="S104" s="4"/>
+      <c r="T104" s="4"/>
+      <c r="U104" s="4"/>
+    </row>
+    <row r="105" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L105" s="3"/>
+      <c r="M105" s="4"/>
+      <c r="N105" s="4"/>
+      <c r="O105" s="4"/>
+      <c r="P105" s="4"/>
+      <c r="Q105" s="4"/>
+      <c r="R105" s="4"/>
+      <c r="S105" s="4"/>
+      <c r="T105" s="4"/>
+      <c r="U105" s="4"/>
+    </row>
+    <row r="106" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L106" s="3"/>
+      <c r="M106" s="4"/>
+      <c r="N106" s="4"/>
+      <c r="O106" s="4"/>
+      <c r="P106" s="4"/>
+      <c r="Q106" s="4"/>
+      <c r="R106" s="4"/>
+      <c r="S106" s="4"/>
+      <c r="T106" s="4"/>
+      <c r="U106" s="4"/>
+    </row>
+    <row r="107" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L107" s="3"/>
+      <c r="M107" s="4"/>
+      <c r="N107" s="4"/>
+      <c r="O107" s="4"/>
+      <c r="P107" s="4"/>
+      <c r="Q107" s="4"/>
+      <c r="R107" s="4"/>
+      <c r="S107" s="4"/>
+      <c r="T107" s="4"/>
+      <c r="U107" s="4"/>
+    </row>
+    <row r="108" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L108" s="3"/>
+      <c r="M108" s="4"/>
+      <c r="N108" s="4"/>
+      <c r="O108" s="4"/>
+      <c r="P108" s="4"/>
+      <c r="Q108" s="4"/>
+      <c r="R108" s="4"/>
+      <c r="S108" s="4"/>
+      <c r="T108" s="4"/>
+      <c r="U108" s="4"/>
+    </row>
+    <row r="109" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L109" s="3"/>
+      <c r="M109" s="4"/>
+      <c r="N109" s="4"/>
+      <c r="O109" s="4"/>
+      <c r="P109" s="4"/>
+      <c r="Q109" s="4"/>
+      <c r="R109" s="4"/>
+      <c r="S109" s="4"/>
+      <c r="T109" s="4"/>
+      <c r="U109" s="4"/>
+    </row>
+    <row r="110" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L110" s="3"/>
+      <c r="M110" s="4"/>
+      <c r="N110" s="4"/>
+      <c r="O110" s="4"/>
+      <c r="P110" s="4"/>
+      <c r="Q110" s="4"/>
+      <c r="R110" s="4"/>
+      <c r="S110" s="4"/>
+      <c r="T110" s="4"/>
+      <c r="U110" s="4"/>
+    </row>
+    <row r="111" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L111" s="3"/>
+      <c r="M111" s="4"/>
+      <c r="N111" s="4"/>
+      <c r="O111" s="4"/>
+      <c r="P111" s="4"/>
+      <c r="Q111" s="4"/>
+      <c r="R111" s="4"/>
+      <c r="S111" s="4"/>
+      <c r="T111" s="4"/>
+      <c r="U111" s="4"/>
+    </row>
+    <row r="112" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L112" s="3"/>
+      <c r="M112" s="4"/>
+      <c r="N112" s="4"/>
+      <c r="O112" s="4"/>
+      <c r="P112" s="4"/>
+      <c r="Q112" s="4"/>
+      <c r="R112" s="4"/>
+      <c r="S112" s="4"/>
+      <c r="T112" s="4"/>
+      <c r="U112" s="4"/>
+    </row>
+    <row r="113" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L113" s="3"/>
+      <c r="M113" s="4"/>
+      <c r="N113" s="4"/>
+      <c r="O113" s="4"/>
+      <c r="P113" s="4"/>
+      <c r="Q113" s="4"/>
+      <c r="R113" s="4"/>
+      <c r="S113" s="4"/>
+      <c r="T113" s="4"/>
+      <c r="U113" s="4"/>
+    </row>
+    <row r="114" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L114" s="3"/>
+      <c r="M114" s="4"/>
+      <c r="N114" s="4"/>
+      <c r="O114" s="4"/>
+      <c r="P114" s="4"/>
+      <c r="Q114" s="4"/>
+      <c r="R114" s="4"/>
+      <c r="S114" s="4"/>
+      <c r="T114" s="4"/>
+      <c r="U114" s="4"/>
+    </row>
+    <row r="115" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L115" s="3"/>
+      <c r="M115" s="4"/>
+      <c r="N115" s="4"/>
+      <c r="O115" s="4"/>
+      <c r="P115" s="4"/>
+      <c r="Q115" s="4"/>
+      <c r="R115" s="4"/>
+      <c r="S115" s="4"/>
+      <c r="T115" s="4"/>
+      <c r="U115" s="4"/>
+    </row>
+    <row r="116" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L116" s="3"/>
+      <c r="M116" s="4"/>
+      <c r="N116" s="4"/>
+      <c r="O116" s="4"/>
+      <c r="P116" s="4"/>
+      <c r="Q116" s="4"/>
+      <c r="R116" s="4"/>
+      <c r="S116" s="4"/>
+      <c r="T116" s="4"/>
+      <c r="U116" s="4"/>
+    </row>
+    <row r="117" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L117" s="3"/>
+      <c r="M117" s="4"/>
+      <c r="N117" s="4"/>
+      <c r="O117" s="4"/>
+      <c r="P117" s="4"/>
+      <c r="Q117" s="4"/>
+      <c r="R117" s="4"/>
+      <c r="S117" s="4"/>
+      <c r="T117" s="4"/>
+      <c r="U117" s="4"/>
+    </row>
+    <row r="118" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L118" s="3"/>
+      <c r="M118" s="4"/>
+      <c r="N118" s="4"/>
+      <c r="O118" s="4"/>
+      <c r="P118" s="4"/>
+      <c r="Q118" s="4"/>
+      <c r="R118" s="4"/>
+      <c r="S118" s="4"/>
+      <c r="T118" s="4"/>
+      <c r="U118" s="4"/>
+    </row>
+    <row r="119" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L119" s="3"/>
+      <c r="M119" s="4"/>
+      <c r="N119" s="4"/>
+      <c r="O119" s="4"/>
+      <c r="P119" s="4"/>
+      <c r="Q119" s="4"/>
+      <c r="R119" s="4"/>
+      <c r="S119" s="4"/>
+      <c r="T119" s="4"/>
+      <c r="U119" s="4"/>
+    </row>
+    <row r="120" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L120" s="3"/>
+      <c r="M120" s="4"/>
+      <c r="N120" s="4"/>
+      <c r="O120" s="4"/>
+      <c r="P120" s="4"/>
+      <c r="Q120" s="4"/>
+      <c r="R120" s="4"/>
+      <c r="S120" s="4"/>
+      <c r="T120" s="4"/>
+      <c r="U120" s="4"/>
+    </row>
+    <row r="121" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L121" s="3"/>
+      <c r="M121" s="4"/>
+      <c r="N121" s="4"/>
+      <c r="O121" s="4"/>
+      <c r="P121" s="4"/>
+      <c r="Q121" s="4"/>
+      <c r="R121" s="4"/>
+      <c r="S121" s="4"/>
+      <c r="T121" s="4"/>
+      <c r="U121" s="4"/>
+    </row>
+    <row r="122" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L122" s="3"/>
+      <c r="M122" s="4"/>
+      <c r="N122" s="4"/>
+      <c r="O122" s="4"/>
+      <c r="P122" s="4"/>
+      <c r="Q122" s="4"/>
+      <c r="R122" s="4"/>
+      <c r="S122" s="4"/>
+      <c r="T122" s="4"/>
+      <c r="U122" s="4"/>
+    </row>
+    <row r="123" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L123" s="3"/>
+      <c r="M123" s="4"/>
+      <c r="N123" s="4"/>
+      <c r="O123" s="4"/>
+      <c r="P123" s="4"/>
+      <c r="Q123" s="4"/>
+      <c r="R123" s="4"/>
+      <c r="S123" s="4"/>
+      <c r="T123" s="4"/>
+      <c r="U123" s="4"/>
+    </row>
+    <row r="124" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L124" s="3"/>
+      <c r="M124" s="4"/>
+      <c r="N124" s="4"/>
+      <c r="O124" s="4"/>
+      <c r="P124" s="4"/>
+      <c r="Q124" s="4"/>
+      <c r="R124" s="4"/>
+      <c r="S124" s="4"/>
+      <c r="T124" s="4"/>
+      <c r="U124" s="4"/>
+    </row>
+    <row r="125" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L125" s="3"/>
+      <c r="M125" s="4"/>
+      <c r="N125" s="4"/>
+      <c r="O125" s="4"/>
+      <c r="P125" s="4"/>
+      <c r="Q125" s="4"/>
+      <c r="R125" s="4"/>
+      <c r="S125" s="4"/>
+      <c r="T125" s="4"/>
+      <c r="U125" s="4"/>
+    </row>
+    <row r="126" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L126" s="3"/>
+      <c r="M126" s="4"/>
+      <c r="N126" s="4"/>
+      <c r="O126" s="4"/>
+      <c r="P126" s="4"/>
+      <c r="Q126" s="4"/>
+      <c r="R126" s="4"/>
+      <c r="S126" s="4"/>
+      <c r="T126" s="4"/>
+      <c r="U126" s="4"/>
+    </row>
+    <row r="127" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L127" s="3"/>
+      <c r="M127" s="4"/>
+      <c r="N127" s="4"/>
+      <c r="O127" s="4"/>
+      <c r="P127" s="4"/>
+      <c r="Q127" s="4"/>
+      <c r="R127" s="4"/>
+      <c r="S127" s="4"/>
+      <c r="T127" s="4"/>
+      <c r="U127" s="4"/>
+    </row>
+    <row r="128" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L128" s="3"/>
+      <c r="M128" s="4"/>
+      <c r="N128" s="4"/>
+      <c r="O128" s="4"/>
+      <c r="P128" s="4"/>
+      <c r="Q128" s="4"/>
+      <c r="R128" s="4"/>
+      <c r="S128" s="4"/>
+      <c r="T128" s="4"/>
+      <c r="U128" s="4"/>
+    </row>
+    <row r="129" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L129" s="3"/>
+      <c r="M129" s="4"/>
+      <c r="N129" s="4"/>
+      <c r="O129" s="4"/>
+      <c r="P129" s="4"/>
+      <c r="Q129" s="4"/>
+      <c r="R129" s="4"/>
+      <c r="S129" s="4"/>
+      <c r="T129" s="4"/>
+      <c r="U129" s="4"/>
+    </row>
+    <row r="130" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L130" s="3"/>
+      <c r="M130" s="4"/>
+      <c r="N130" s="4"/>
+      <c r="O130" s="4"/>
+      <c r="P130" s="4"/>
+      <c r="Q130" s="4"/>
+      <c r="R130" s="4"/>
+      <c r="S130" s="4"/>
+      <c r="T130" s="4"/>
+      <c r="U130" s="4"/>
+    </row>
+    <row r="131" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L131" s="3"/>
+      <c r="M131" s="4"/>
+      <c r="N131" s="4"/>
+      <c r="O131" s="4"/>
+      <c r="P131" s="4"/>
+      <c r="Q131" s="4"/>
+      <c r="R131" s="4"/>
+      <c r="S131" s="4"/>
+      <c r="T131" s="4"/>
+      <c r="U131" s="4"/>
+    </row>
+    <row r="132" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L132" s="3"/>
+      <c r="M132" s="4"/>
+      <c r="N132" s="4"/>
+      <c r="O132" s="4"/>
+      <c r="P132" s="4"/>
+      <c r="Q132" s="4"/>
+      <c r="R132" s="4"/>
+      <c r="S132" s="4"/>
+      <c r="T132" s="4"/>
+      <c r="U132" s="4"/>
+    </row>
+    <row r="133" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L133" s="3"/>
+      <c r="M133" s="4"/>
+      <c r="N133" s="4"/>
+      <c r="O133" s="4"/>
+      <c r="P133" s="4"/>
+      <c r="Q133" s="4"/>
+      <c r="R133" s="4"/>
+      <c r="S133" s="4"/>
+      <c r="T133" s="4"/>
+      <c r="U133" s="4"/>
+    </row>
+    <row r="134" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L134" s="3"/>
+      <c r="M134" s="4"/>
+      <c r="N134" s="4"/>
+      <c r="O134" s="4"/>
+      <c r="P134" s="4"/>
+      <c r="Q134" s="4"/>
+      <c r="R134" s="4"/>
+      <c r="S134" s="4"/>
+      <c r="T134" s="4"/>
+      <c r="U134" s="4"/>
+    </row>
+    <row r="135" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L135" s="3"/>
+      <c r="M135" s="4"/>
+      <c r="N135" s="4"/>
+      <c r="O135" s="4"/>
+      <c r="P135" s="4"/>
+      <c r="Q135" s="4"/>
+      <c r="R135" s="4"/>
+      <c r="S135" s="4"/>
+      <c r="T135" s="4"/>
+      <c r="U135" s="4"/>
+    </row>
+    <row r="136" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L136" s="3"/>
+      <c r="M136" s="4"/>
+      <c r="N136" s="4"/>
+      <c r="O136" s="4"/>
+      <c r="P136" s="4"/>
+      <c r="Q136" s="4"/>
+      <c r="R136" s="4"/>
+      <c r="S136" s="4"/>
+      <c r="T136" s="4"/>
+      <c r="U136" s="4"/>
+    </row>
+    <row r="137" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L137" s="3"/>
+      <c r="M137" s="4"/>
+      <c r="N137" s="4"/>
+      <c r="O137" s="4"/>
+      <c r="P137" s="4"/>
+      <c r="Q137" s="4"/>
+      <c r="R137" s="4"/>
+      <c r="S137" s="4"/>
+      <c r="T137" s="4"/>
+      <c r="U137" s="4"/>
+    </row>
+    <row r="138" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L138" s="3"/>
+      <c r="M138" s="4"/>
+      <c r="N138" s="4"/>
+      <c r="O138" s="4"/>
+      <c r="P138" s="4"/>
+      <c r="Q138" s="4"/>
+      <c r="R138" s="4"/>
+      <c r="S138" s="4"/>
+      <c r="T138" s="4"/>
+      <c r="U138" s="4"/>
+    </row>
+    <row r="139" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L139" s="3"/>
+      <c r="M139" s="4"/>
+      <c r="N139" s="4"/>
+      <c r="O139" s="4"/>
+      <c r="P139" s="4"/>
+      <c r="Q139" s="4"/>
+      <c r="R139" s="4"/>
+      <c r="S139" s="4"/>
+      <c r="T139" s="4"/>
+      <c r="U139" s="4"/>
+    </row>
+    <row r="140" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L140" s="3"/>
+      <c r="M140" s="4"/>
+      <c r="N140" s="4"/>
+      <c r="O140" s="4"/>
+      <c r="P140" s="4"/>
+      <c r="Q140" s="4"/>
+      <c r="R140" s="4"/>
+      <c r="S140" s="4"/>
+      <c r="T140" s="4"/>
+      <c r="U140" s="4"/>
+    </row>
+    <row r="141" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L141" s="3"/>
+      <c r="M141" s="4"/>
+      <c r="N141" s="4"/>
+      <c r="O141" s="4"/>
+      <c r="P141" s="4"/>
+      <c r="Q141" s="4"/>
+      <c r="R141" s="4"/>
+      <c r="S141" s="4"/>
+      <c r="T141" s="4"/>
+      <c r="U141" s="4"/>
+    </row>
+    <row r="142" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L142" s="3"/>
+      <c r="M142" s="4"/>
+      <c r="N142" s="4"/>
+      <c r="O142" s="4"/>
+      <c r="P142" s="4"/>
+      <c r="Q142" s="4"/>
+      <c r="R142" s="4"/>
+      <c r="S142" s="4"/>
+      <c r="T142" s="4"/>
+      <c r="U142" s="4"/>
+    </row>
+    <row r="143" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L143" s="3"/>
+      <c r="M143" s="4"/>
+      <c r="N143" s="4"/>
+      <c r="O143" s="4"/>
+      <c r="P143" s="4"/>
+      <c r="Q143" s="4"/>
+      <c r="R143" s="4"/>
+      <c r="S143" s="4"/>
+      <c r="T143" s="4"/>
+      <c r="U143" s="4"/>
+    </row>
+    <row r="144" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L144" s="3"/>
+      <c r="M144" s="4"/>
+      <c r="N144" s="4"/>
+      <c r="O144" s="4"/>
+      <c r="P144" s="4"/>
+      <c r="Q144" s="4"/>
+      <c r="R144" s="4"/>
+      <c r="S144" s="4"/>
+      <c r="T144" s="4"/>
+      <c r="U144" s="4"/>
+    </row>
+    <row r="145" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L145" s="3"/>
+      <c r="M145" s="4"/>
+      <c r="N145" s="4"/>
+      <c r="O145" s="4"/>
+      <c r="P145" s="4"/>
+      <c r="Q145" s="4"/>
+      <c r="R145" s="4"/>
+      <c r="S145" s="4"/>
+      <c r="T145" s="4"/>
+      <c r="U145" s="4"/>
+    </row>
+    <row r="146" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L146" s="3"/>
+      <c r="M146" s="4"/>
+      <c r="N146" s="4"/>
+      <c r="O146" s="4"/>
+      <c r="P146" s="4"/>
+      <c r="Q146" s="4"/>
+      <c r="R146" s="4"/>
+      <c r="S146" s="4"/>
+      <c r="T146" s="4"/>
+      <c r="U146" s="4"/>
+    </row>
+    <row r="147" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L147" s="3"/>
+      <c r="M147" s="4"/>
+      <c r="N147" s="4"/>
+      <c r="O147" s="4"/>
+      <c r="P147" s="4"/>
+      <c r="Q147" s="4"/>
+      <c r="R147" s="4"/>
+      <c r="S147" s="4"/>
+      <c r="T147" s="4"/>
+      <c r="U147" s="4"/>
+    </row>
+    <row r="148" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L148" s="3"/>
+      <c r="M148" s="4"/>
+      <c r="N148" s="4"/>
+      <c r="O148" s="4"/>
+      <c r="P148" s="4"/>
+      <c r="Q148" s="4"/>
+      <c r="R148" s="4"/>
+      <c r="S148" s="4"/>
+      <c r="T148" s="4"/>
+      <c r="U148" s="4"/>
+    </row>
+    <row r="149" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L149" s="3"/>
+      <c r="M149" s="4"/>
+      <c r="N149" s="4"/>
+      <c r="O149" s="4"/>
+      <c r="P149" s="4"/>
+      <c r="Q149" s="4"/>
+      <c r="R149" s="4"/>
+      <c r="S149" s="4"/>
+      <c r="T149" s="4"/>
+      <c r="U149" s="4"/>
+    </row>
+    <row r="150" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L150" s="3"/>
+      <c r="M150" s="4"/>
+      <c r="N150" s="4"/>
+      <c r="O150" s="4"/>
+      <c r="P150" s="4"/>
+      <c r="Q150" s="4"/>
+      <c r="R150" s="4"/>
+      <c r="S150" s="4"/>
+      <c r="T150" s="4"/>
+      <c r="U150" s="4"/>
+    </row>
+    <row r="151" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L151" s="3"/>
+      <c r="M151" s="4"/>
+      <c r="N151" s="4"/>
+      <c r="O151" s="4"/>
+      <c r="P151" s="4"/>
+      <c r="Q151" s="4"/>
+      <c r="R151" s="4"/>
+      <c r="S151" s="4"/>
+      <c r="T151" s="4"/>
+      <c r="U151" s="4"/>
+    </row>
+    <row r="152" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L152" s="3"/>
+      <c r="M152" s="4"/>
+      <c r="N152" s="4"/>
+      <c r="O152" s="4"/>
+      <c r="P152" s="4"/>
+      <c r="Q152" s="4"/>
+      <c r="R152" s="4"/>
+      <c r="S152" s="4"/>
+      <c r="T152" s="4"/>
+      <c r="U152" s="4"/>
+    </row>
+    <row r="153" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L153" s="3"/>
+      <c r="M153" s="4"/>
+      <c r="N153" s="4"/>
+      <c r="O153" s="4"/>
+      <c r="P153" s="4"/>
+      <c r="Q153" s="4"/>
+      <c r="R153" s="4"/>
+      <c r="S153" s="4"/>
+      <c r="T153" s="4"/>
+      <c r="U153" s="4"/>
+    </row>
+    <row r="154" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L154" s="3"/>
+      <c r="M154" s="4"/>
+      <c r="N154" s="4"/>
+      <c r="O154" s="4"/>
+      <c r="P154" s="4"/>
+      <c r="Q154" s="4"/>
+      <c r="R154" s="4"/>
+      <c r="S154" s="4"/>
+      <c r="T154" s="4"/>
+      <c r="U154" s="4"/>
+    </row>
+    <row r="155" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L155" s="3"/>
+      <c r="M155" s="4"/>
+      <c r="N155" s="4"/>
+      <c r="O155" s="4"/>
+      <c r="P155" s="4"/>
+      <c r="Q155" s="4"/>
+      <c r="R155" s="4"/>
+      <c r="S155" s="4"/>
+      <c r="T155" s="4"/>
+      <c r="U155" s="4"/>
+    </row>
+    <row r="156" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L156" s="3"/>
+      <c r="M156" s="4"/>
+      <c r="N156" s="4"/>
+      <c r="O156" s="4"/>
+      <c r="P156" s="4"/>
+      <c r="Q156" s="4"/>
+      <c r="R156" s="4"/>
+      <c r="S156" s="4"/>
+      <c r="T156" s="4"/>
+      <c r="U156" s="4"/>
+    </row>
+    <row r="157" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L157" s="3"/>
+      <c r="M157" s="4"/>
+      <c r="N157" s="4"/>
+      <c r="O157" s="4"/>
+      <c r="P157" s="4"/>
+      <c r="Q157" s="4"/>
+      <c r="R157" s="4"/>
+      <c r="S157" s="4"/>
+      <c r="T157" s="4"/>
+      <c r="U157" s="4"/>
+    </row>
+    <row r="158" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L158" s="3"/>
+      <c r="M158" s="4"/>
+      <c r="N158" s="4"/>
+      <c r="O158" s="4"/>
+      <c r="P158" s="4"/>
+      <c r="Q158" s="4"/>
+      <c r="R158" s="4"/>
+      <c r="S158" s="4"/>
+      <c r="T158" s="4"/>
+      <c r="U158" s="4"/>
+    </row>
+    <row r="159" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L159" s="3"/>
+      <c r="M159" s="4"/>
+      <c r="N159" s="4"/>
+      <c r="O159" s="4"/>
+      <c r="P159" s="4"/>
+      <c r="Q159" s="4"/>
+      <c r="R159" s="4"/>
+      <c r="S159" s="4"/>
+      <c r="T159" s="4"/>
+      <c r="U159" s="4"/>
+    </row>
+    <row r="160" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L160" s="3"/>
+      <c r="M160" s="4"/>
+      <c r="N160" s="4"/>
+      <c r="O160" s="4"/>
+      <c r="P160" s="4"/>
+      <c r="Q160" s="4"/>
+      <c r="R160" s="4"/>
+      <c r="S160" s="4"/>
+      <c r="T160" s="4"/>
+      <c r="U160" s="4"/>
+    </row>
+    <row r="161" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L161" s="3"/>
+      <c r="M161" s="4"/>
+      <c r="N161" s="4"/>
+      <c r="O161" s="4"/>
+      <c r="P161" s="4"/>
+      <c r="Q161" s="4"/>
+      <c r="R161" s="4"/>
+      <c r="S161" s="4"/>
+      <c r="T161" s="4"/>
+      <c r="U161" s="4"/>
+    </row>
+    <row r="162" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L162" s="3"/>
+      <c r="M162" s="4"/>
+      <c r="N162" s="4"/>
+      <c r="O162" s="4"/>
+      <c r="P162" s="4"/>
+      <c r="Q162" s="4"/>
+      <c r="R162" s="4"/>
+      <c r="S162" s="4"/>
+      <c r="T162" s="4"/>
+      <c r="U162" s="4"/>
+    </row>
+    <row r="163" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L163" s="3"/>
+      <c r="M163" s="4"/>
+      <c r="N163" s="4"/>
+      <c r="O163" s="4"/>
+      <c r="P163" s="4"/>
+      <c r="Q163" s="4"/>
+      <c r="R163" s="4"/>
+      <c r="S163" s="4"/>
+      <c r="T163" s="4"/>
+      <c r="U163" s="4"/>
+    </row>
+    <row r="164" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L164" s="3"/>
+      <c r="M164" s="4"/>
+      <c r="N164" s="4"/>
+      <c r="O164" s="4"/>
+      <c r="P164" s="4"/>
+      <c r="Q164" s="4"/>
+      <c r="R164" s="4"/>
+      <c r="S164" s="4"/>
+      <c r="T164" s="4"/>
+      <c r="U164" s="4"/>
+    </row>
+    <row r="165" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L165" s="3"/>
+      <c r="M165" s="4"/>
+      <c r="N165" s="4"/>
+      <c r="O165" s="4"/>
+      <c r="P165" s="4"/>
+      <c r="Q165" s="4"/>
+      <c r="R165" s="4"/>
+      <c r="S165" s="4"/>
+      <c r="T165" s="4"/>
+      <c r="U165" s="4"/>
+    </row>
+    <row r="166" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L166" s="3"/>
+      <c r="M166" s="4"/>
+      <c r="N166" s="4"/>
+      <c r="O166" s="4"/>
+      <c r="P166" s="4"/>
+      <c r="Q166" s="4"/>
+      <c r="R166" s="4"/>
+      <c r="S166" s="4"/>
+      <c r="T166" s="4"/>
+      <c r="U166" s="4"/>
+    </row>
+    <row r="167" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L167" s="3"/>
+      <c r="M167" s="4"/>
+      <c r="N167" s="4"/>
+      <c r="O167" s="4"/>
+      <c r="P167" s="4"/>
+      <c r="Q167" s="4"/>
+      <c r="R167" s="4"/>
+      <c r="S167" s="4"/>
+      <c r="T167" s="4"/>
+      <c r="U167" s="4"/>
+    </row>
+    <row r="168" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L168" s="3"/>
+      <c r="M168" s="4"/>
+      <c r="N168" s="4"/>
+      <c r="O168" s="4"/>
+      <c r="P168" s="4"/>
+      <c r="Q168" s="4"/>
+      <c r="R168" s="4"/>
+      <c r="S168" s="4"/>
+      <c r="T168" s="4"/>
+      <c r="U168" s="4"/>
+    </row>
+    <row r="169" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L169" s="3"/>
+      <c r="M169" s="4"/>
+      <c r="N169" s="4"/>
+      <c r="O169" s="4"/>
+      <c r="P169" s="4"/>
+      <c r="Q169" s="4"/>
+      <c r="R169" s="4"/>
+      <c r="S169" s="4"/>
+      <c r="T169" s="4"/>
+      <c r="U169" s="4"/>
+    </row>
+    <row r="170" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L170" s="3"/>
+      <c r="M170" s="4"/>
+      <c r="N170" s="4"/>
+      <c r="O170" s="4"/>
+      <c r="P170" s="4"/>
+      <c r="Q170" s="4"/>
+      <c r="R170" s="4"/>
+      <c r="S170" s="4"/>
+      <c r="T170" s="4"/>
+      <c r="U170" s="4"/>
+    </row>
+    <row r="171" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L171" s="3"/>
+      <c r="M171" s="4"/>
+      <c r="N171" s="4"/>
+      <c r="O171" s="4"/>
+      <c r="P171" s="4"/>
+      <c r="Q171" s="4"/>
+      <c r="R171" s="4"/>
+      <c r="S171" s="4"/>
+      <c r="T171" s="4"/>
+      <c r="U171" s="4"/>
+    </row>
+    <row r="172" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L172" s="3"/>
+      <c r="M172" s="4"/>
+      <c r="N172" s="4"/>
+      <c r="O172" s="4"/>
+      <c r="P172" s="4"/>
+      <c r="Q172" s="4"/>
+      <c r="R172" s="4"/>
+      <c r="S172" s="4"/>
+      <c r="T172" s="4"/>
+      <c r="U172" s="4"/>
+    </row>
+    <row r="173" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L173" s="3"/>
+      <c r="M173" s="4"/>
+      <c r="N173" s="4"/>
+      <c r="O173" s="4"/>
+      <c r="P173" s="4"/>
+      <c r="Q173" s="4"/>
+      <c r="R173" s="4"/>
+      <c r="S173" s="4"/>
+      <c r="T173" s="4"/>
+      <c r="U173" s="4"/>
+    </row>
+    <row r="174" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L174" s="3"/>
+      <c r="M174" s="4"/>
+      <c r="N174" s="4"/>
+      <c r="O174" s="4"/>
+      <c r="P174" s="4"/>
+      <c r="Q174" s="4"/>
+      <c r="R174" s="4"/>
+      <c r="S174" s="4"/>
+      <c r="T174" s="4"/>
+      <c r="U174" s="4"/>
+    </row>
+    <row r="175" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L175" s="3"/>
+      <c r="M175" s="4"/>
+      <c r="N175" s="4"/>
+      <c r="O175" s="4"/>
+      <c r="P175" s="4"/>
+      <c r="Q175" s="4"/>
+      <c r="R175" s="4"/>
+      <c r="S175" s="4"/>
+      <c r="T175" s="4"/>
+      <c r="U175" s="4"/>
+    </row>
+    <row r="176" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L176" s="3"/>
+      <c r="M176" s="4"/>
+      <c r="N176" s="4"/>
+      <c r="O176" s="4"/>
+      <c r="P176" s="4"/>
+      <c r="Q176" s="4"/>
+      <c r="R176" s="4"/>
+      <c r="S176" s="4"/>
+      <c r="T176" s="4"/>
+      <c r="U176" s="4"/>
+    </row>
+    <row r="177" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L177" s="3"/>
+      <c r="M177" s="4"/>
+      <c r="N177" s="4"/>
+      <c r="O177" s="4"/>
+      <c r="P177" s="4"/>
+      <c r="Q177" s="4"/>
+      <c r="R177" s="4"/>
+      <c r="S177" s="4"/>
+      <c r="T177" s="4"/>
+      <c r="U177" s="4"/>
+    </row>
+    <row r="178" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L178" s="3"/>
+      <c r="M178" s="4"/>
+      <c r="N178" s="4"/>
+      <c r="O178" s="4"/>
+      <c r="P178" s="4"/>
+      <c r="Q178" s="4"/>
+      <c r="R178" s="4"/>
+      <c r="S178" s="4"/>
+      <c r="T178" s="4"/>
+      <c r="U178" s="4"/>
+    </row>
+    <row r="179" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L179" s="3"/>
+      <c r="M179" s="4"/>
+      <c r="N179" s="4"/>
+      <c r="O179" s="4"/>
+      <c r="P179" s="4"/>
+      <c r="Q179" s="4"/>
+      <c r="R179" s="4"/>
+      <c r="S179" s="4"/>
+      <c r="T179" s="4"/>
+      <c r="U179" s="4"/>
+    </row>
+    <row r="180" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L180" s="3"/>
+      <c r="M180" s="4"/>
+      <c r="N180" s="4"/>
+      <c r="O180" s="4"/>
+      <c r="P180" s="4"/>
+      <c r="Q180" s="4"/>
+      <c r="R180" s="4"/>
+      <c r="S180" s="4"/>
+      <c r="T180" s="4"/>
+      <c r="U180" s="4"/>
+    </row>
+    <row r="181" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L181" s="3"/>
+      <c r="M181" s="4"/>
+      <c r="N181" s="4"/>
+      <c r="O181" s="4"/>
+      <c r="P181" s="4"/>
+      <c r="Q181" s="4"/>
+      <c r="R181" s="4"/>
+      <c r="S181" s="4"/>
+      <c r="T181" s="4"/>
+      <c r="U181" s="4"/>
+    </row>
+    <row r="182" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L182" s="3"/>
+      <c r="M182" s="4"/>
+      <c r="N182" s="4"/>
+      <c r="O182" s="4"/>
+      <c r="P182" s="4"/>
+      <c r="Q182" s="4"/>
+      <c r="R182" s="4"/>
+      <c r="S182" s="4"/>
+      <c r="T182" s="4"/>
+      <c r="U182" s="4"/>
+    </row>
+    <row r="183" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L183" s="3"/>
+      <c r="M183" s="4"/>
+      <c r="N183" s="4"/>
+      <c r="O183" s="4"/>
+      <c r="P183" s="4"/>
+      <c r="Q183" s="4"/>
+      <c r="R183" s="4"/>
+      <c r="S183" s="4"/>
+      <c r="T183" s="4"/>
+      <c r="U183" s="4"/>
+    </row>
+    <row r="184" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L184" s="3"/>
+      <c r="M184" s="4"/>
+      <c r="N184" s="4"/>
+      <c r="O184" s="4"/>
+      <c r="P184" s="4"/>
+      <c r="Q184" s="4"/>
+      <c r="R184" s="4"/>
+      <c r="S184" s="4"/>
+      <c r="T184" s="4"/>
+      <c r="U184" s="4"/>
+    </row>
+    <row r="185" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L185" s="3"/>
+      <c r="M185" s="4"/>
+      <c r="N185" s="4"/>
+      <c r="O185" s="4"/>
+      <c r="P185" s="4"/>
+      <c r="Q185" s="4"/>
+      <c r="R185" s="4"/>
+      <c r="S185" s="4"/>
+      <c r="T185" s="4"/>
+      <c r="U185" s="4"/>
+    </row>
+    <row r="186" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L186" s="3"/>
+      <c r="M186" s="4"/>
+      <c r="N186" s="4"/>
+      <c r="O186" s="4"/>
+      <c r="P186" s="4"/>
+      <c r="Q186" s="4"/>
+      <c r="R186" s="4"/>
+      <c r="S186" s="4"/>
+      <c r="T186" s="4"/>
+      <c r="U186" s="4"/>
+    </row>
+    <row r="187" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L187" s="3"/>
+      <c r="M187" s="4"/>
+      <c r="N187" s="4"/>
+      <c r="O187" s="4"/>
+      <c r="P187" s="4"/>
+      <c r="Q187" s="4"/>
+      <c r="R187" s="4"/>
+      <c r="S187" s="4"/>
+      <c r="T187" s="4"/>
+      <c r="U187" s="4"/>
+    </row>
+    <row r="188" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L188" s="3"/>
+      <c r="M188" s="4"/>
+      <c r="N188" s="4"/>
+      <c r="O188" s="4"/>
+      <c r="P188" s="4"/>
+      <c r="Q188" s="4"/>
+      <c r="R188" s="4"/>
+      <c r="S188" s="4"/>
+      <c r="T188" s="4"/>
+      <c r="U188" s="4"/>
+    </row>
+    <row r="189" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L189" s="3"/>
+      <c r="M189" s="4"/>
+      <c r="N189" s="4"/>
+      <c r="O189" s="4"/>
+      <c r="P189" s="4"/>
+      <c r="Q189" s="4"/>
+      <c r="R189" s="4"/>
+      <c r="S189" s="4"/>
+      <c r="T189" s="4"/>
+      <c r="U189" s="4"/>
+    </row>
+    <row r="190" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L190" s="3"/>
+      <c r="M190" s="4"/>
+      <c r="N190" s="4"/>
+      <c r="O190" s="4"/>
+      <c r="P190" s="4"/>
+      <c r="Q190" s="4"/>
+      <c r="R190" s="4"/>
+      <c r="S190" s="4"/>
+      <c r="T190" s="4"/>
+      <c r="U190" s="4"/>
+    </row>
+    <row r="191" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L191" s="3"/>
+      <c r="M191" s="4"/>
+      <c r="N191" s="4"/>
+      <c r="O191" s="4"/>
+      <c r="P191" s="4"/>
+      <c r="Q191" s="4"/>
+      <c r="R191" s="4"/>
+      <c r="S191" s="4"/>
+      <c r="T191" s="4"/>
+      <c r="U191" s="4"/>
+    </row>
+    <row r="192" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L192" s="3"/>
+      <c r="M192" s="4"/>
+      <c r="N192" s="4"/>
+      <c r="O192" s="4"/>
+      <c r="P192" s="4"/>
+      <c r="Q192" s="4"/>
+      <c r="R192" s="4"/>
+      <c r="S192" s="4"/>
+      <c r="T192" s="4"/>
+      <c r="U192" s="4"/>
+    </row>
+    <row r="193" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L193" s="3"/>
+      <c r="M193" s="4"/>
+      <c r="N193" s="4"/>
+      <c r="O193" s="4"/>
+      <c r="P193" s="4"/>
+      <c r="Q193" s="4"/>
+      <c r="R193" s="4"/>
+      <c r="S193" s="4"/>
+      <c r="T193" s="4"/>
+      <c r="U193" s="4"/>
+    </row>
+    <row r="194" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L194" s="3"/>
+      <c r="M194" s="4"/>
+      <c r="N194" s="4"/>
+      <c r="O194" s="4"/>
+      <c r="P194" s="4"/>
+      <c r="Q194" s="4"/>
+      <c r="R194" s="4"/>
+      <c r="S194" s="4"/>
+      <c r="T194" s="4"/>
+      <c r="U194" s="4"/>
+    </row>
+    <row r="195" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L195" s="3"/>
+      <c r="M195" s="4"/>
+      <c r="N195" s="4"/>
+      <c r="O195" s="4"/>
+      <c r="P195" s="4"/>
+      <c r="Q195" s="4"/>
+      <c r="R195" s="4"/>
+      <c r="S195" s="4"/>
+      <c r="T195" s="4"/>
+      <c r="U195" s="4"/>
+    </row>
+    <row r="196" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L196" s="3"/>
+      <c r="M196" s="4"/>
+      <c r="N196" s="4"/>
+      <c r="O196" s="4"/>
+      <c r="P196" s="4"/>
+      <c r="Q196" s="4"/>
+      <c r="R196" s="4"/>
+      <c r="S196" s="4"/>
+      <c r="T196" s="4"/>
+      <c r="U196" s="4"/>
+    </row>
+    <row r="197" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L197" s="3"/>
+      <c r="M197" s="4"/>
+      <c r="N197" s="4"/>
+      <c r="O197" s="4"/>
+      <c r="P197" s="4"/>
+      <c r="Q197" s="4"/>
+      <c r="R197" s="4"/>
+      <c r="S197" s="4"/>
+      <c r="T197" s="4"/>
+      <c r="U197" s="4"/>
+    </row>
+    <row r="198" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L198" s="3"/>
+      <c r="M198" s="4"/>
+      <c r="N198" s="4"/>
+      <c r="O198" s="4"/>
+      <c r="P198" s="4"/>
+      <c r="Q198" s="4"/>
+      <c r="R198" s="4"/>
+      <c r="S198" s="4"/>
+      <c r="T198" s="4"/>
+      <c r="U198" s="4"/>
+    </row>
+    <row r="199" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L199" s="3"/>
+      <c r="M199" s="4"/>
+      <c r="N199" s="4"/>
+      <c r="O199" s="4"/>
+      <c r="P199" s="4"/>
+      <c r="Q199" s="4"/>
+      <c r="R199" s="4"/>
+      <c r="S199" s="4"/>
+      <c r="T199" s="4"/>
+      <c r="U199" s="4"/>
+    </row>
+    <row r="200" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L200" s="3"/>
+      <c r="M200" s="4"/>
+      <c r="N200" s="4"/>
+      <c r="O200" s="4"/>
+      <c r="P200" s="4"/>
+      <c r="Q200" s="4"/>
+      <c r="R200" s="4"/>
+      <c r="S200" s="4"/>
+      <c r="T200" s="4"/>
+      <c r="U200" s="4"/>
+    </row>
+    <row r="201" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L201" s="3"/>
+      <c r="M201" s="4"/>
+      <c r="N201" s="4"/>
+      <c r="O201" s="4"/>
+      <c r="P201" s="4"/>
+      <c r="Q201" s="4"/>
+      <c r="R201" s="4"/>
+      <c r="S201" s="4"/>
+      <c r="T201" s="4"/>
+      <c r="U201" s="4"/>
+    </row>
+    <row r="202" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L202" s="3"/>
+      <c r="M202" s="4"/>
+      <c r="N202" s="4"/>
+      <c r="O202" s="4"/>
+      <c r="P202" s="4"/>
+      <c r="Q202" s="4"/>
+      <c r="R202" s="4"/>
+      <c r="S202" s="4"/>
+      <c r="T202" s="4"/>
+      <c r="U202" s="4"/>
+    </row>
+    <row r="203" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L203" s="3"/>
+      <c r="M203" s="4"/>
+      <c r="N203" s="4"/>
+      <c r="O203" s="4"/>
+      <c r="P203" s="4"/>
+      <c r="Q203" s="4"/>
+      <c r="R203" s="4"/>
+      <c r="S203" s="4"/>
+      <c r="T203" s="4"/>
+      <c r="U203" s="4"/>
+    </row>
+    <row r="204" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L204" s="3"/>
+      <c r="M204" s="4"/>
+      <c r="N204" s="4"/>
+      <c r="O204" s="4"/>
+      <c r="P204" s="4"/>
+      <c r="Q204" s="4"/>
+      <c r="R204" s="4"/>
+      <c r="S204" s="4"/>
+      <c r="T204" s="4"/>
+      <c r="U204" s="4"/>
+    </row>
+    <row r="205" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L205" s="3"/>
+      <c r="M205" s="4"/>
+      <c r="N205" s="4"/>
+      <c r="O205" s="4"/>
+      <c r="P205" s="4"/>
+      <c r="Q205" s="4"/>
+      <c r="R205" s="4"/>
+      <c r="S205" s="4"/>
+      <c r="T205" s="4"/>
+      <c r="U205" s="4"/>
+    </row>
+    <row r="206" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L206" s="3"/>
+      <c r="M206" s="4"/>
+      <c r="N206" s="4"/>
+      <c r="O206" s="4"/>
+      <c r="P206" s="4"/>
+      <c r="Q206" s="4"/>
+      <c r="R206" s="4"/>
+      <c r="S206" s="4"/>
+      <c r="T206" s="4"/>
+      <c r="U206" s="4"/>
+    </row>
+    <row r="207" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L207" s="3"/>
+      <c r="M207" s="4"/>
+      <c r="N207" s="4"/>
+      <c r="O207" s="4"/>
+      <c r="P207" s="4"/>
+      <c r="Q207" s="4"/>
+      <c r="R207" s="4"/>
+      <c r="S207" s="4"/>
+      <c r="T207" s="4"/>
+      <c r="U207" s="4"/>
+    </row>
+    <row r="208" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L208" s="3"/>
+      <c r="M208" s="4"/>
+      <c r="N208" s="4"/>
+      <c r="O208" s="4"/>
+      <c r="P208" s="4"/>
+      <c r="Q208" s="4"/>
+      <c r="R208" s="4"/>
+      <c r="S208" s="4"/>
+      <c r="T208" s="4"/>
+      <c r="U208" s="4"/>
+    </row>
+    <row r="209" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L209" s="3"/>
+      <c r="M209" s="4"/>
+      <c r="N209" s="4"/>
+      <c r="O209" s="4"/>
+      <c r="P209" s="4"/>
+      <c r="Q209" s="4"/>
+      <c r="R209" s="4"/>
+      <c r="S209" s="4"/>
+      <c r="T209" s="4"/>
+      <c r="U209" s="4"/>
+    </row>
+    <row r="210" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L210" s="3"/>
+      <c r="M210" s="4"/>
+      <c r="N210" s="4"/>
+      <c r="O210" s="4"/>
+      <c r="P210" s="4"/>
+      <c r="Q210" s="4"/>
+      <c r="R210" s="4"/>
+      <c r="S210" s="4"/>
+      <c r="T210" s="4"/>
+      <c r="U210" s="4"/>
+    </row>
+    <row r="211" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L211" s="3"/>
+      <c r="M211" s="4"/>
+      <c r="N211" s="4"/>
+      <c r="O211" s="4"/>
+      <c r="P211" s="4"/>
+      <c r="Q211" s="4"/>
+      <c r="R211" s="4"/>
+      <c r="S211" s="4"/>
+      <c r="T211" s="4"/>
+      <c r="U211" s="4"/>
+    </row>
+    <row r="212" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L212" s="3"/>
+      <c r="M212" s="4"/>
+      <c r="N212" s="4"/>
+      <c r="O212" s="4"/>
+      <c r="P212" s="4"/>
+      <c r="Q212" s="4"/>
+      <c r="R212" s="4"/>
+      <c r="S212" s="4"/>
+      <c r="T212" s="4"/>
+      <c r="U212" s="4"/>
+    </row>
+    <row r="213" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L213" s="3"/>
+      <c r="M213" s="4"/>
+      <c r="N213" s="4"/>
+      <c r="O213" s="4"/>
+      <c r="P213" s="4"/>
+      <c r="Q213" s="4"/>
+      <c r="R213" s="4"/>
+      <c r="S213" s="4"/>
+      <c r="T213" s="4"/>
+      <c r="U213" s="4"/>
+    </row>
+    <row r="214" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L214" s="3"/>
+      <c r="M214" s="4"/>
+      <c r="N214" s="4"/>
+      <c r="O214" s="4"/>
+      <c r="P214" s="4"/>
+      <c r="Q214" s="4"/>
+      <c r="R214" s="4"/>
+      <c r="S214" s="4"/>
+      <c r="T214" s="4"/>
+      <c r="U214" s="4"/>
+    </row>
+    <row r="215" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L215" s="3"/>
+      <c r="M215" s="4"/>
+      <c r="N215" s="4"/>
+      <c r="O215" s="4"/>
+      <c r="P215" s="4"/>
+      <c r="Q215" s="4"/>
+      <c r="R215" s="4"/>
+      <c r="S215" s="4"/>
+      <c r="T215" s="4"/>
+      <c r="U215" s="4"/>
+    </row>
+    <row r="216" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L216" s="3"/>
+      <c r="M216" s="4"/>
+      <c r="N216" s="4"/>
+      <c r="O216" s="4"/>
+      <c r="P216" s="4"/>
+      <c r="Q216" s="4"/>
+      <c r="R216" s="4"/>
+      <c r="S216" s="4"/>
+      <c r="T216" s="4"/>
+      <c r="U216" s="4"/>
+    </row>
+    <row r="217" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L217" s="3"/>
+      <c r="M217" s="4"/>
+      <c r="N217" s="4"/>
+      <c r="O217" s="4"/>
+      <c r="P217" s="4"/>
+      <c r="Q217" s="4"/>
+      <c r="R217" s="4"/>
+      <c r="S217" s="4"/>
+      <c r="T217" s="4"/>
+      <c r="U217" s="4"/>
+    </row>
+    <row r="218" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L218" s="3"/>
+      <c r="M218" s="4"/>
+      <c r="N218" s="4"/>
+      <c r="O218" s="4"/>
+      <c r="P218" s="4"/>
+      <c r="Q218" s="4"/>
+      <c r="R218" s="4"/>
+      <c r="S218" s="4"/>
+      <c r="T218" s="4"/>
+      <c r="U218" s="4"/>
+    </row>
+    <row r="219" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L219" s="3"/>
+      <c r="M219" s="4"/>
+      <c r="N219" s="4"/>
+      <c r="O219" s="4"/>
+      <c r="P219" s="4"/>
+      <c r="Q219" s="4"/>
+      <c r="R219" s="4"/>
+      <c r="S219" s="4"/>
+      <c r="T219" s="4"/>
+      <c r="U219" s="4"/>
+    </row>
+    <row r="220" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L220" s="3"/>
+      <c r="M220" s="4"/>
+      <c r="N220" s="4"/>
+      <c r="O220" s="4"/>
+      <c r="P220" s="4"/>
+      <c r="Q220" s="4"/>
+      <c r="R220" s="4"/>
+      <c r="S220" s="4"/>
+      <c r="T220" s="4"/>
+      <c r="U220" s="4"/>
+    </row>
+    <row r="221" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L221" s="3"/>
+      <c r="M221" s="4"/>
+      <c r="N221" s="4"/>
+      <c r="O221" s="4"/>
+      <c r="P221" s="4"/>
+      <c r="Q221" s="4"/>
+      <c r="R221" s="4"/>
+      <c r="S221" s="4"/>
+      <c r="T221" s="4"/>
+      <c r="U221" s="4"/>
+    </row>
+    <row r="222" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L222" s="3"/>
+      <c r="M222" s="4"/>
+      <c r="N222" s="4"/>
+      <c r="O222" s="4"/>
+      <c r="P222" s="4"/>
+      <c r="Q222" s="4"/>
+      <c r="R222" s="4"/>
+      <c r="S222" s="4"/>
+      <c r="T222" s="4"/>
+      <c r="U222" s="4"/>
+    </row>
+    <row r="223" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L223" s="3"/>
+      <c r="M223" s="4"/>
+      <c r="N223" s="4"/>
+      <c r="O223" s="4"/>
+      <c r="P223" s="4"/>
+      <c r="Q223" s="4"/>
+      <c r="R223" s="4"/>
+      <c r="S223" s="4"/>
+      <c r="T223" s="4"/>
+      <c r="U223" s="4"/>
+    </row>
+    <row r="224" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L224" s="3"/>
+      <c r="M224" s="4"/>
+      <c r="N224" s="4"/>
+      <c r="O224" s="4"/>
+      <c r="P224" s="4"/>
+      <c r="Q224" s="4"/>
+      <c r="R224" s="4"/>
+      <c r="S224" s="4"/>
+      <c r="T224" s="4"/>
+      <c r="U224" s="4"/>
+    </row>
+    <row r="225" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L225" s="3"/>
+      <c r="M225" s="4"/>
+      <c r="N225" s="4"/>
+      <c r="O225" s="4"/>
+      <c r="P225" s="4"/>
+      <c r="Q225" s="4"/>
+      <c r="R225" s="4"/>
+      <c r="S225" s="4"/>
+      <c r="T225" s="4"/>
+      <c r="U225" s="4"/>
+    </row>
+    <row r="226" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L226" s="3"/>
+      <c r="M226" s="4"/>
+      <c r="N226" s="4"/>
+      <c r="O226" s="4"/>
+      <c r="P226" s="4"/>
+      <c r="Q226" s="4"/>
+      <c r="R226" s="4"/>
+      <c r="S226" s="4"/>
+      <c r="T226" s="4"/>
+      <c r="U226" s="4"/>
+    </row>
+    <row r="227" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L227" s="3"/>
+      <c r="M227" s="4"/>
+      <c r="N227" s="4"/>
+      <c r="O227" s="4"/>
+      <c r="P227" s="4"/>
+      <c r="Q227" s="4"/>
+      <c r="R227" s="4"/>
+      <c r="S227" s="4"/>
+      <c r="T227" s="4"/>
+      <c r="U227" s="4"/>
+    </row>
+    <row r="228" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L228" s="3"/>
+      <c r="M228" s="4"/>
+      <c r="N228" s="4"/>
+      <c r="O228" s="4"/>
+      <c r="P228" s="4"/>
+      <c r="Q228" s="4"/>
+      <c r="R228" s="4"/>
+      <c r="S228" s="4"/>
+      <c r="T228" s="4"/>
+      <c r="U228" s="4"/>
+    </row>
+    <row r="229" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L229" s="3"/>
+      <c r="M229" s="4"/>
+      <c r="N229" s="4"/>
+      <c r="O229" s="4"/>
+      <c r="P229" s="4"/>
+      <c r="Q229" s="4"/>
+      <c r="R229" s="4"/>
+      <c r="S229" s="4"/>
+      <c r="T229" s="4"/>
+      <c r="U229" s="4"/>
+    </row>
+    <row r="230" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L230" s="3"/>
+      <c r="M230" s="4"/>
+      <c r="N230" s="4"/>
+      <c r="O230" s="4"/>
+      <c r="P230" s="4"/>
+      <c r="Q230" s="4"/>
+      <c r="R230" s="4"/>
+      <c r="S230" s="4"/>
+      <c r="T230" s="4"/>
+      <c r="U230" s="4"/>
+    </row>
+    <row r="231" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L231" s="3"/>
+      <c r="M231" s="4"/>
+      <c r="N231" s="4"/>
+      <c r="O231" s="4"/>
+      <c r="P231" s="4"/>
+      <c r="Q231" s="4"/>
+      <c r="R231" s="4"/>
+      <c r="S231" s="4"/>
+      <c r="T231" s="4"/>
+      <c r="U231" s="4"/>
+    </row>
+    <row r="232" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L232" s="3"/>
+      <c r="M232" s="4"/>
+      <c r="N232" s="4"/>
+      <c r="O232" s="4"/>
+      <c r="P232" s="4"/>
+      <c r="Q232" s="4"/>
+      <c r="R232" s="4"/>
+      <c r="S232" s="4"/>
+      <c r="T232" s="4"/>
+      <c r="U232" s="4"/>
+    </row>
+    <row r="233" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L233" s="3"/>
+      <c r="M233" s="4"/>
+      <c r="N233" s="4"/>
+      <c r="O233" s="4"/>
+      <c r="P233" s="4"/>
+      <c r="Q233" s="4"/>
+      <c r="R233" s="4"/>
+      <c r="S233" s="4"/>
+      <c r="T233" s="4"/>
+      <c r="U233" s="4"/>
+    </row>
+    <row r="234" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L234" s="3"/>
+      <c r="M234" s="4"/>
+      <c r="N234" s="4"/>
+      <c r="O234" s="4"/>
+      <c r="P234" s="4"/>
+      <c r="Q234" s="4"/>
+      <c r="R234" s="4"/>
+      <c r="S234" s="4"/>
+      <c r="T234" s="4"/>
+      <c r="U234" s="4"/>
+    </row>
+    <row r="235" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L235" s="3"/>
+      <c r="M235" s="4"/>
+      <c r="N235" s="4"/>
+      <c r="O235" s="4"/>
+      <c r="P235" s="4"/>
+      <c r="Q235" s="4"/>
+      <c r="R235" s="4"/>
+      <c r="S235" s="4"/>
+      <c r="T235" s="4"/>
+      <c r="U235" s="4"/>
+    </row>
+    <row r="236" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L236" s="3"/>
+      <c r="M236" s="4"/>
+      <c r="N236" s="4"/>
+      <c r="O236" s="4"/>
+      <c r="P236" s="4"/>
+      <c r="Q236" s="4"/>
+      <c r="R236" s="4"/>
+      <c r="S236" s="4"/>
+      <c r="T236" s="4"/>
+      <c r="U236" s="4"/>
+    </row>
+    <row r="237" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L237" s="3"/>
+      <c r="M237" s="4"/>
+      <c r="N237" s="4"/>
+      <c r="O237" s="4"/>
+      <c r="P237" s="4"/>
+      <c r="Q237" s="4"/>
+      <c r="R237" s="4"/>
+      <c r="S237" s="4"/>
+      <c r="T237" s="4"/>
+      <c r="U237" s="4"/>
+    </row>
+    <row r="238" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L238" s="3"/>
+      <c r="M238" s="4"/>
+      <c r="N238" s="4"/>
+      <c r="O238" s="4"/>
+      <c r="P238" s="4"/>
+      <c r="Q238" s="4"/>
+      <c r="R238" s="4"/>
+      <c r="S238" s="4"/>
+      <c r="T238" s="4"/>
+      <c r="U238" s="4"/>
+    </row>
+    <row r="239" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L239" s="3"/>
+      <c r="M239" s="4"/>
+      <c r="N239" s="4"/>
+      <c r="O239" s="4"/>
+      <c r="P239" s="4"/>
+      <c r="Q239" s="4"/>
+      <c r="R239" s="4"/>
+      <c r="S239" s="4"/>
+      <c r="T239" s="4"/>
+      <c r="U239" s="4"/>
+    </row>
+    <row r="240" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L240" s="3"/>
+      <c r="M240" s="4"/>
+      <c r="N240" s="4"/>
+      <c r="O240" s="4"/>
+      <c r="P240" s="4"/>
+      <c r="Q240" s="4"/>
+      <c r="R240" s="4"/>
+      <c r="S240" s="4"/>
+      <c r="T240" s="4"/>
+      <c r="U240" s="4"/>
+    </row>
+    <row r="241" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L241" s="3"/>
+      <c r="M241" s="4"/>
+      <c r="N241" s="4"/>
+      <c r="O241" s="4"/>
+      <c r="P241" s="4"/>
+      <c r="Q241" s="4"/>
+      <c r="R241" s="4"/>
+      <c r="S241" s="4"/>
+      <c r="T241" s="4"/>
+      <c r="U241" s="4"/>
+    </row>
+    <row r="242" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L242" s="3"/>
+      <c r="M242" s="4"/>
+      <c r="N242" s="4"/>
+      <c r="O242" s="4"/>
+      <c r="P242" s="4"/>
+      <c r="Q242" s="4"/>
+      <c r="R242" s="4"/>
+      <c r="S242" s="4"/>
+      <c r="T242" s="4"/>
+      <c r="U242" s="4"/>
+    </row>
+    <row r="243" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L243" s="3"/>
+      <c r="M243" s="4"/>
+      <c r="N243" s="4"/>
+      <c r="O243" s="4"/>
+      <c r="P243" s="4"/>
+      <c r="Q243" s="4"/>
+      <c r="R243" s="4"/>
+      <c r="S243" s="4"/>
+      <c r="T243" s="4"/>
+      <c r="U243" s="4"/>
+    </row>
+    <row r="244" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L244" s="3"/>
+      <c r="M244" s="4"/>
+      <c r="N244" s="4"/>
+      <c r="O244" s="4"/>
+      <c r="P244" s="4"/>
+      <c r="Q244" s="4"/>
+      <c r="R244" s="4"/>
+      <c r="S244" s="4"/>
+      <c r="T244" s="4"/>
+      <c r="U244" s="4"/>
+    </row>
+    <row r="245" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L245" s="3"/>
+      <c r="M245" s="4"/>
+      <c r="N245" s="4"/>
+      <c r="O245" s="4"/>
+      <c r="P245" s="4"/>
+      <c r="Q245" s="4"/>
+      <c r="R245" s="4"/>
+      <c r="S245" s="4"/>
+      <c r="T245" s="4"/>
+      <c r="U245" s="4"/>
+    </row>
+    <row r="246" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L246" s="3"/>
+      <c r="M246" s="4"/>
+      <c r="N246" s="4"/>
+      <c r="O246" s="4"/>
+      <c r="P246" s="4"/>
+      <c r="Q246" s="4"/>
+      <c r="R246" s="4"/>
+      <c r="S246" s="4"/>
+      <c r="T246" s="4"/>
+      <c r="U246" s="4"/>
+    </row>
+    <row r="247" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L247" s="3"/>
+      <c r="M247" s="4"/>
+      <c r="N247" s="4"/>
+      <c r="O247" s="4"/>
+      <c r="P247" s="4"/>
+      <c r="Q247" s="4"/>
+      <c r="R247" s="4"/>
+      <c r="S247" s="4"/>
+      <c r="T247" s="4"/>
+      <c r="U247" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U195"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="13.375" customWidth="1"/>
+    <col min="2" max="2" width="7.5" style="2" customWidth="1"/>
+    <col min="3" max="4" width="11.125" customWidth="1"/>
+    <col min="5" max="5" width="11.625" customWidth="1"/>
+    <col min="6" max="6" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.75" style="2" customWidth="1"/>
+    <col min="8" max="8" width="11" customWidth="1"/>
+    <col min="9" max="9" width="8.625" customWidth="1"/>
+    <col min="10" max="10" width="8.375" customWidth="1"/>
+    <col min="11" max="11" width="8" customWidth="1"/>
+    <col min="12" max="12" width="7.625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="11" customWidth="1"/>
+    <col min="14" max="15" width="11.25" customWidth="1"/>
+    <col min="16" max="17" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.125" customWidth="1"/>
+    <col min="19" max="19" width="9" customWidth="1"/>
+    <col min="20" max="20" width="9.5" customWidth="1"/>
+    <col min="21" max="21" width="7.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="L1" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="M1" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="N1" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="O1" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="P1" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q1" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="R1" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="S1" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="T1" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="U1" s="35" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
+        <v>42802</v>
+      </c>
+      <c r="B2" s="2">
+        <v>162</v>
+      </c>
+      <c r="C2">
+        <v>890</v>
+      </c>
+      <c r="D2">
+        <v>703</v>
+      </c>
+      <c r="E2">
+        <v>621</v>
+      </c>
+      <c r="F2">
+        <v>163</v>
+      </c>
+      <c r="G2" s="2">
+        <v>200</v>
+      </c>
+      <c r="H2" s="9">
+        <v>63</v>
+      </c>
+      <c r="I2" s="9">
+        <v>114</v>
+      </c>
+      <c r="J2" s="9">
+        <v>64</v>
+      </c>
+      <c r="K2" s="9">
+        <v>50</v>
+      </c>
+      <c r="L2" s="3">
+        <f t="shared" ref="L2" si="0">B2/SUM($B2:$K2)</f>
+        <v>5.3465346534653464E-2</v>
+      </c>
+      <c r="M2" s="3">
+        <f t="shared" ref="M2" si="1">C2/SUM($B2:$K2)</f>
+        <v>0.29372937293729373</v>
+      </c>
+      <c r="N2" s="3">
+        <f t="shared" ref="N2" si="2">D2/SUM($B2:$K2)</f>
+        <v>0.23201320132013201</v>
+      </c>
+      <c r="O2" s="3">
+        <f t="shared" ref="O2" si="3">E2/SUM($B2:$K2)</f>
+        <v>0.20495049504950494</v>
+      </c>
+      <c r="P2" s="3">
+        <f t="shared" ref="P2" si="4">F2/SUM($B2:$K2)</f>
+        <v>5.3795379537953797E-2</v>
+      </c>
+      <c r="Q2" s="3">
+        <f t="shared" ref="Q2" si="5">G2/SUM($B2:$K2)</f>
+        <v>6.6006600660066E-2</v>
+      </c>
+      <c r="R2" s="3">
+        <f t="shared" ref="R2" si="6">H2/SUM($B2:$K2)</f>
+        <v>2.0792079207920793E-2</v>
+      </c>
+      <c r="S2" s="3">
+        <f t="shared" ref="S2" si="7">I2/SUM($B2:$K2)</f>
+        <v>3.7623762376237622E-2</v>
+      </c>
+      <c r="T2" s="3">
+        <f t="shared" ref="T2" si="8">J2/SUM($B2:$K2)</f>
+        <v>2.1122112211221122E-2</v>
+      </c>
+      <c r="U2" s="3">
+        <f t="shared" ref="U2" si="9">K2/SUM($B2:$K2)</f>
+        <v>1.65016501650165E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="L3" s="3"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="L4" s="3"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="L5" s="3"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="L6" s="3"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="L7" s="3"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="L8" s="3"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="L9" s="3"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4"/>
+      <c r="U9" s="4"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="L10" s="3"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="4"/>
+      <c r="U10" s="4"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="L11" s="3"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="4"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="L12" s="3"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
+      <c r="U12" s="4"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="L13" s="3"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="4"/>
+      <c r="U13" s="4"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="L14" s="3"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="4"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="L15" s="3"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="4"/>
+      <c r="U15" s="4"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="L16" s="3"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="4"/>
+      <c r="U16" s="4"/>
+    </row>
+    <row r="17" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L17" s="3"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="4"/>
+      <c r="U17" s="4"/>
+    </row>
+    <row r="18" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L18" s="3"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4"/>
+      <c r="S18" s="4"/>
+      <c r="T18" s="4"/>
+      <c r="U18" s="4"/>
+    </row>
+    <row r="19" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L19" s="3"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4"/>
+      <c r="S19" s="4"/>
+      <c r="T19" s="4"/>
+      <c r="U19" s="4"/>
+    </row>
+    <row r="20" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L20" s="3"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="4"/>
+      <c r="T20" s="4"/>
+      <c r="U20" s="4"/>
+    </row>
+    <row r="21" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L21" s="3"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="4"/>
+      <c r="S21" s="4"/>
+      <c r="T21" s="4"/>
+      <c r="U21" s="4"/>
+    </row>
+    <row r="22" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L22" s="3"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4"/>
+      <c r="S22" s="4"/>
+      <c r="T22" s="4"/>
+      <c r="U22" s="4"/>
+    </row>
+    <row r="23" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L23" s="3"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="4"/>
+      <c r="S23" s="4"/>
+      <c r="T23" s="4"/>
+      <c r="U23" s="4"/>
+    </row>
+    <row r="24" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L24" s="3"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="4"/>
+      <c r="S24" s="4"/>
+      <c r="T24" s="4"/>
+      <c r="U24" s="4"/>
+    </row>
+    <row r="25" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L25" s="3"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="4"/>
+      <c r="S25" s="4"/>
+      <c r="T25" s="4"/>
+      <c r="U25" s="4"/>
+    </row>
+    <row r="26" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L26" s="3"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="4"/>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="4"/>
+      <c r="S26" s="4"/>
+      <c r="T26" s="4"/>
+      <c r="U26" s="4"/>
+    </row>
+    <row r="27" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L27" s="3"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4"/>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="4"/>
+      <c r="S27" s="4"/>
+      <c r="T27" s="4"/>
+      <c r="U27" s="4"/>
+    </row>
+    <row r="28" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L28" s="3"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="4"/>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="4"/>
+      <c r="S28" s="4"/>
+      <c r="T28" s="4"/>
+      <c r="U28" s="4"/>
+    </row>
+    <row r="29" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L29" s="3"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="4"/>
+      <c r="S29" s="4"/>
+      <c r="T29" s="4"/>
+      <c r="U29" s="4"/>
+    </row>
+    <row r="30" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L30" s="3"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="4"/>
+      <c r="O30" s="4"/>
+      <c r="P30" s="4"/>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="4"/>
+      <c r="S30" s="4"/>
+      <c r="T30" s="4"/>
+      <c r="U30" s="4"/>
+    </row>
+    <row r="31" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L31" s="3"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="4"/>
+      <c r="O31" s="4"/>
+      <c r="P31" s="4"/>
+      <c r="Q31" s="4"/>
+      <c r="R31" s="4"/>
+      <c r="S31" s="4"/>
+      <c r="T31" s="4"/>
+      <c r="U31" s="4"/>
+    </row>
+    <row r="32" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L32" s="3"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="4"/>
+      <c r="O32" s="4"/>
+      <c r="P32" s="4"/>
+      <c r="Q32" s="4"/>
+      <c r="R32" s="4"/>
+      <c r="S32" s="4"/>
+      <c r="T32" s="4"/>
+      <c r="U32" s="4"/>
+    </row>
+    <row r="33" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L33" s="3"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="4"/>
+      <c r="O33" s="4"/>
+      <c r="P33" s="4"/>
+      <c r="Q33" s="4"/>
+      <c r="R33" s="4"/>
+      <c r="S33" s="4"/>
+      <c r="T33" s="4"/>
+      <c r="U33" s="4"/>
+    </row>
+    <row r="34" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L34" s="3"/>
+      <c r="M34" s="4"/>
+      <c r="N34" s="4"/>
+      <c r="O34" s="4"/>
+      <c r="P34" s="4"/>
+      <c r="Q34" s="4"/>
+      <c r="R34" s="4"/>
+      <c r="S34" s="4"/>
+      <c r="T34" s="4"/>
+      <c r="U34" s="4"/>
+    </row>
+    <row r="35" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L35" s="3"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="4"/>
+      <c r="O35" s="4"/>
+      <c r="P35" s="4"/>
+      <c r="Q35" s="4"/>
+      <c r="R35" s="4"/>
+      <c r="S35" s="4"/>
+      <c r="T35" s="4"/>
+      <c r="U35" s="4"/>
+    </row>
+    <row r="36" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L36" s="3"/>
+      <c r="M36" s="4"/>
+      <c r="N36" s="4"/>
+      <c r="O36" s="4"/>
+      <c r="P36" s="4"/>
+      <c r="Q36" s="4"/>
+      <c r="R36" s="4"/>
+      <c r="S36" s="4"/>
+      <c r="T36" s="4"/>
+      <c r="U36" s="4"/>
+    </row>
+    <row r="37" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L37" s="3"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="4"/>
+      <c r="O37" s="4"/>
+      <c r="P37" s="4"/>
+      <c r="Q37" s="4"/>
+      <c r="R37" s="4"/>
+      <c r="S37" s="4"/>
+      <c r="T37" s="4"/>
+      <c r="U37" s="4"/>
+    </row>
+    <row r="38" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L38" s="3"/>
+      <c r="M38" s="4"/>
+      <c r="N38" s="4"/>
+      <c r="O38" s="4"/>
+      <c r="P38" s="4"/>
+      <c r="Q38" s="4"/>
+      <c r="R38" s="4"/>
+      <c r="S38" s="4"/>
+      <c r="T38" s="4"/>
+      <c r="U38" s="4"/>
+    </row>
+    <row r="39" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L39" s="3"/>
+      <c r="M39" s="4"/>
+      <c r="N39" s="4"/>
+      <c r="O39" s="4"/>
+      <c r="P39" s="4"/>
+      <c r="Q39" s="4"/>
+      <c r="R39" s="4"/>
+      <c r="S39" s="4"/>
+      <c r="T39" s="4"/>
+      <c r="U39" s="4"/>
+    </row>
+    <row r="40" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L40" s="3"/>
+      <c r="M40" s="4"/>
+      <c r="N40" s="4"/>
+      <c r="O40" s="4"/>
+      <c r="P40" s="4"/>
+      <c r="Q40" s="4"/>
+      <c r="R40" s="4"/>
+      <c r="S40" s="4"/>
+      <c r="T40" s="4"/>
+      <c r="U40" s="4"/>
+    </row>
+    <row r="41" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L41" s="3"/>
+      <c r="M41" s="4"/>
+      <c r="N41" s="4"/>
+      <c r="O41" s="4"/>
+      <c r="P41" s="4"/>
+      <c r="Q41" s="4"/>
+      <c r="R41" s="4"/>
+      <c r="S41" s="4"/>
+      <c r="T41" s="4"/>
+      <c r="U41" s="4"/>
+    </row>
+    <row r="42" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L42" s="3"/>
+      <c r="M42" s="4"/>
+      <c r="N42" s="4"/>
+      <c r="O42" s="4"/>
+      <c r="P42" s="4"/>
+      <c r="Q42" s="4"/>
+      <c r="R42" s="4"/>
+      <c r="S42" s="4"/>
+      <c r="T42" s="4"/>
+      <c r="U42" s="4"/>
+    </row>
+    <row r="43" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L43" s="3"/>
+      <c r="M43" s="4"/>
+      <c r="N43" s="4"/>
+      <c r="O43" s="4"/>
+      <c r="P43" s="4"/>
+      <c r="Q43" s="4"/>
+      <c r="R43" s="4"/>
+      <c r="S43" s="4"/>
+      <c r="T43" s="4"/>
+      <c r="U43" s="4"/>
+    </row>
+    <row r="44" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L44" s="3"/>
+      <c r="M44" s="4"/>
+      <c r="N44" s="4"/>
+      <c r="O44" s="4"/>
+      <c r="P44" s="4"/>
+      <c r="Q44" s="4"/>
+      <c r="R44" s="4"/>
+      <c r="S44" s="4"/>
+      <c r="T44" s="4"/>
+      <c r="U44" s="4"/>
+    </row>
+    <row r="45" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L45" s="3"/>
+      <c r="M45" s="4"/>
+      <c r="N45" s="4"/>
+      <c r="O45" s="4"/>
+      <c r="P45" s="4"/>
+      <c r="Q45" s="4"/>
+      <c r="R45" s="4"/>
+      <c r="S45" s="4"/>
+      <c r="T45" s="4"/>
+      <c r="U45" s="4"/>
+    </row>
+    <row r="46" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L46" s="3"/>
+      <c r="M46" s="4"/>
+      <c r="N46" s="4"/>
+      <c r="O46" s="4"/>
+      <c r="P46" s="4"/>
+      <c r="Q46" s="4"/>
+      <c r="R46" s="4"/>
+      <c r="S46" s="4"/>
+      <c r="T46" s="4"/>
+      <c r="U46" s="4"/>
+    </row>
+    <row r="47" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L47" s="3"/>
+      <c r="M47" s="4"/>
+      <c r="N47" s="4"/>
+      <c r="O47" s="4"/>
+      <c r="P47" s="4"/>
+      <c r="Q47" s="4"/>
+      <c r="R47" s="4"/>
+      <c r="S47" s="4"/>
+      <c r="T47" s="4"/>
+      <c r="U47" s="4"/>
+    </row>
+    <row r="48" spans="12:21" x14ac:dyDescent="0.15">
       <c r="L48" s="3"/>
-      <c r="M48" s="3"/>
-      <c r="N48" s="3"/>
-      <c r="O48" s="3"/>
-      <c r="P48" s="3"/>
-      <c r="Q48" s="3"/>
-      <c r="R48" s="3"/>
-      <c r="S48" s="3"/>
-      <c r="T48" s="3"/>
-      <c r="U48" s="3"/>
+      <c r="M48" s="4"/>
+      <c r="N48" s="4"/>
+      <c r="O48" s="4"/>
+      <c r="P48" s="4"/>
+      <c r="Q48" s="4"/>
+      <c r="R48" s="4"/>
+      <c r="S48" s="4"/>
+      <c r="T48" s="4"/>
+      <c r="U48" s="4"/>
     </row>
     <row r="49" spans="12:21" x14ac:dyDescent="0.15">
       <c r="L49" s="3"/>
@@ -6120,630 +9725,6 @@
       <c r="T195" s="4"/>
       <c r="U195" s="4"/>
     </row>
-    <row r="196" spans="12:21" x14ac:dyDescent="0.15">
-      <c r="L196" s="3"/>
-      <c r="M196" s="4"/>
-      <c r="N196" s="4"/>
-      <c r="O196" s="4"/>
-      <c r="P196" s="4"/>
-      <c r="Q196" s="4"/>
-      <c r="R196" s="4"/>
-      <c r="S196" s="4"/>
-      <c r="T196" s="4"/>
-      <c r="U196" s="4"/>
-    </row>
-    <row r="197" spans="12:21" x14ac:dyDescent="0.15">
-      <c r="L197" s="3"/>
-      <c r="M197" s="4"/>
-      <c r="N197" s="4"/>
-      <c r="O197" s="4"/>
-      <c r="P197" s="4"/>
-      <c r="Q197" s="4"/>
-      <c r="R197" s="4"/>
-      <c r="S197" s="4"/>
-      <c r="T197" s="4"/>
-      <c r="U197" s="4"/>
-    </row>
-    <row r="198" spans="12:21" x14ac:dyDescent="0.15">
-      <c r="L198" s="3"/>
-      <c r="M198" s="4"/>
-      <c r="N198" s="4"/>
-      <c r="O198" s="4"/>
-      <c r="P198" s="4"/>
-      <c r="Q198" s="4"/>
-      <c r="R198" s="4"/>
-      <c r="S198" s="4"/>
-      <c r="T198" s="4"/>
-      <c r="U198" s="4"/>
-    </row>
-    <row r="199" spans="12:21" x14ac:dyDescent="0.15">
-      <c r="L199" s="3"/>
-      <c r="M199" s="4"/>
-      <c r="N199" s="4"/>
-      <c r="O199" s="4"/>
-      <c r="P199" s="4"/>
-      <c r="Q199" s="4"/>
-      <c r="R199" s="4"/>
-      <c r="S199" s="4"/>
-      <c r="T199" s="4"/>
-      <c r="U199" s="4"/>
-    </row>
-    <row r="200" spans="12:21" x14ac:dyDescent="0.15">
-      <c r="L200" s="3"/>
-      <c r="M200" s="4"/>
-      <c r="N200" s="4"/>
-      <c r="O200" s="4"/>
-      <c r="P200" s="4"/>
-      <c r="Q200" s="4"/>
-      <c r="R200" s="4"/>
-      <c r="S200" s="4"/>
-      <c r="T200" s="4"/>
-      <c r="U200" s="4"/>
-    </row>
-    <row r="201" spans="12:21" x14ac:dyDescent="0.15">
-      <c r="L201" s="3"/>
-      <c r="M201" s="4"/>
-      <c r="N201" s="4"/>
-      <c r="O201" s="4"/>
-      <c r="P201" s="4"/>
-      <c r="Q201" s="4"/>
-      <c r="R201" s="4"/>
-      <c r="S201" s="4"/>
-      <c r="T201" s="4"/>
-      <c r="U201" s="4"/>
-    </row>
-    <row r="202" spans="12:21" x14ac:dyDescent="0.15">
-      <c r="L202" s="3"/>
-      <c r="M202" s="4"/>
-      <c r="N202" s="4"/>
-      <c r="O202" s="4"/>
-      <c r="P202" s="4"/>
-      <c r="Q202" s="4"/>
-      <c r="R202" s="4"/>
-      <c r="S202" s="4"/>
-      <c r="T202" s="4"/>
-      <c r="U202" s="4"/>
-    </row>
-    <row r="203" spans="12:21" x14ac:dyDescent="0.15">
-      <c r="L203" s="3"/>
-      <c r="M203" s="4"/>
-      <c r="N203" s="4"/>
-      <c r="O203" s="4"/>
-      <c r="P203" s="4"/>
-      <c r="Q203" s="4"/>
-      <c r="R203" s="4"/>
-      <c r="S203" s="4"/>
-      <c r="T203" s="4"/>
-      <c r="U203" s="4"/>
-    </row>
-    <row r="204" spans="12:21" x14ac:dyDescent="0.15">
-      <c r="L204" s="3"/>
-      <c r="M204" s="4"/>
-      <c r="N204" s="4"/>
-      <c r="O204" s="4"/>
-      <c r="P204" s="4"/>
-      <c r="Q204" s="4"/>
-      <c r="R204" s="4"/>
-      <c r="S204" s="4"/>
-      <c r="T204" s="4"/>
-      <c r="U204" s="4"/>
-    </row>
-    <row r="205" spans="12:21" x14ac:dyDescent="0.15">
-      <c r="L205" s="3"/>
-      <c r="M205" s="4"/>
-      <c r="N205" s="4"/>
-      <c r="O205" s="4"/>
-      <c r="P205" s="4"/>
-      <c r="Q205" s="4"/>
-      <c r="R205" s="4"/>
-      <c r="S205" s="4"/>
-      <c r="T205" s="4"/>
-      <c r="U205" s="4"/>
-    </row>
-    <row r="206" spans="12:21" x14ac:dyDescent="0.15">
-      <c r="L206" s="3"/>
-      <c r="M206" s="4"/>
-      <c r="N206" s="4"/>
-      <c r="O206" s="4"/>
-      <c r="P206" s="4"/>
-      <c r="Q206" s="4"/>
-      <c r="R206" s="4"/>
-      <c r="S206" s="4"/>
-      <c r="T206" s="4"/>
-      <c r="U206" s="4"/>
-    </row>
-    <row r="207" spans="12:21" x14ac:dyDescent="0.15">
-      <c r="L207" s="3"/>
-      <c r="M207" s="4"/>
-      <c r="N207" s="4"/>
-      <c r="O207" s="4"/>
-      <c r="P207" s="4"/>
-      <c r="Q207" s="4"/>
-      <c r="R207" s="4"/>
-      <c r="S207" s="4"/>
-      <c r="T207" s="4"/>
-      <c r="U207" s="4"/>
-    </row>
-    <row r="208" spans="12:21" x14ac:dyDescent="0.15">
-      <c r="L208" s="3"/>
-      <c r="M208" s="4"/>
-      <c r="N208" s="4"/>
-      <c r="O208" s="4"/>
-      <c r="P208" s="4"/>
-      <c r="Q208" s="4"/>
-      <c r="R208" s="4"/>
-      <c r="S208" s="4"/>
-      <c r="T208" s="4"/>
-      <c r="U208" s="4"/>
-    </row>
-    <row r="209" spans="12:21" x14ac:dyDescent="0.15">
-      <c r="L209" s="3"/>
-      <c r="M209" s="4"/>
-      <c r="N209" s="4"/>
-      <c r="O209" s="4"/>
-      <c r="P209" s="4"/>
-      <c r="Q209" s="4"/>
-      <c r="R209" s="4"/>
-      <c r="S209" s="4"/>
-      <c r="T209" s="4"/>
-      <c r="U209" s="4"/>
-    </row>
-    <row r="210" spans="12:21" x14ac:dyDescent="0.15">
-      <c r="L210" s="3"/>
-      <c r="M210" s="4"/>
-      <c r="N210" s="4"/>
-      <c r="O210" s="4"/>
-      <c r="P210" s="4"/>
-      <c r="Q210" s="4"/>
-      <c r="R210" s="4"/>
-      <c r="S210" s="4"/>
-      <c r="T210" s="4"/>
-      <c r="U210" s="4"/>
-    </row>
-    <row r="211" spans="12:21" x14ac:dyDescent="0.15">
-      <c r="L211" s="3"/>
-      <c r="M211" s="4"/>
-      <c r="N211" s="4"/>
-      <c r="O211" s="4"/>
-      <c r="P211" s="4"/>
-      <c r="Q211" s="4"/>
-      <c r="R211" s="4"/>
-      <c r="S211" s="4"/>
-      <c r="T211" s="4"/>
-      <c r="U211" s="4"/>
-    </row>
-    <row r="212" spans="12:21" x14ac:dyDescent="0.15">
-      <c r="L212" s="3"/>
-      <c r="M212" s="4"/>
-      <c r="N212" s="4"/>
-      <c r="O212" s="4"/>
-      <c r="P212" s="4"/>
-      <c r="Q212" s="4"/>
-      <c r="R212" s="4"/>
-      <c r="S212" s="4"/>
-      <c r="T212" s="4"/>
-      <c r="U212" s="4"/>
-    </row>
-    <row r="213" spans="12:21" x14ac:dyDescent="0.15">
-      <c r="L213" s="3"/>
-      <c r="M213" s="4"/>
-      <c r="N213" s="4"/>
-      <c r="O213" s="4"/>
-      <c r="P213" s="4"/>
-      <c r="Q213" s="4"/>
-      <c r="R213" s="4"/>
-      <c r="S213" s="4"/>
-      <c r="T213" s="4"/>
-      <c r="U213" s="4"/>
-    </row>
-    <row r="214" spans="12:21" x14ac:dyDescent="0.15">
-      <c r="L214" s="3"/>
-      <c r="M214" s="4"/>
-      <c r="N214" s="4"/>
-      <c r="O214" s="4"/>
-      <c r="P214" s="4"/>
-      <c r="Q214" s="4"/>
-      <c r="R214" s="4"/>
-      <c r="S214" s="4"/>
-      <c r="T214" s="4"/>
-      <c r="U214" s="4"/>
-    </row>
-    <row r="215" spans="12:21" x14ac:dyDescent="0.15">
-      <c r="L215" s="3"/>
-      <c r="M215" s="4"/>
-      <c r="N215" s="4"/>
-      <c r="O215" s="4"/>
-      <c r="P215" s="4"/>
-      <c r="Q215" s="4"/>
-      <c r="R215" s="4"/>
-      <c r="S215" s="4"/>
-      <c r="T215" s="4"/>
-      <c r="U215" s="4"/>
-    </row>
-    <row r="216" spans="12:21" x14ac:dyDescent="0.15">
-      <c r="L216" s="3"/>
-      <c r="M216" s="4"/>
-      <c r="N216" s="4"/>
-      <c r="O216" s="4"/>
-      <c r="P216" s="4"/>
-      <c r="Q216" s="4"/>
-      <c r="R216" s="4"/>
-      <c r="S216" s="4"/>
-      <c r="T216" s="4"/>
-      <c r="U216" s="4"/>
-    </row>
-    <row r="217" spans="12:21" x14ac:dyDescent="0.15">
-      <c r="L217" s="3"/>
-      <c r="M217" s="4"/>
-      <c r="N217" s="4"/>
-      <c r="O217" s="4"/>
-      <c r="P217" s="4"/>
-      <c r="Q217" s="4"/>
-      <c r="R217" s="4"/>
-      <c r="S217" s="4"/>
-      <c r="T217" s="4"/>
-      <c r="U217" s="4"/>
-    </row>
-    <row r="218" spans="12:21" x14ac:dyDescent="0.15">
-      <c r="L218" s="3"/>
-      <c r="M218" s="4"/>
-      <c r="N218" s="4"/>
-      <c r="O218" s="4"/>
-      <c r="P218" s="4"/>
-      <c r="Q218" s="4"/>
-      <c r="R218" s="4"/>
-      <c r="S218" s="4"/>
-      <c r="T218" s="4"/>
-      <c r="U218" s="4"/>
-    </row>
-    <row r="219" spans="12:21" x14ac:dyDescent="0.15">
-      <c r="L219" s="3"/>
-      <c r="M219" s="4"/>
-      <c r="N219" s="4"/>
-      <c r="O219" s="4"/>
-      <c r="P219" s="4"/>
-      <c r="Q219" s="4"/>
-      <c r="R219" s="4"/>
-      <c r="S219" s="4"/>
-      <c r="T219" s="4"/>
-      <c r="U219" s="4"/>
-    </row>
-    <row r="220" spans="12:21" x14ac:dyDescent="0.15">
-      <c r="L220" s="3"/>
-      <c r="M220" s="4"/>
-      <c r="N220" s="4"/>
-      <c r="O220" s="4"/>
-      <c r="P220" s="4"/>
-      <c r="Q220" s="4"/>
-      <c r="R220" s="4"/>
-      <c r="S220" s="4"/>
-      <c r="T220" s="4"/>
-      <c r="U220" s="4"/>
-    </row>
-    <row r="221" spans="12:21" x14ac:dyDescent="0.15">
-      <c r="L221" s="3"/>
-      <c r="M221" s="4"/>
-      <c r="N221" s="4"/>
-      <c r="O221" s="4"/>
-      <c r="P221" s="4"/>
-      <c r="Q221" s="4"/>
-      <c r="R221" s="4"/>
-      <c r="S221" s="4"/>
-      <c r="T221" s="4"/>
-      <c r="U221" s="4"/>
-    </row>
-    <row r="222" spans="12:21" x14ac:dyDescent="0.15">
-      <c r="L222" s="3"/>
-      <c r="M222" s="4"/>
-      <c r="N222" s="4"/>
-      <c r="O222" s="4"/>
-      <c r="P222" s="4"/>
-      <c r="Q222" s="4"/>
-      <c r="R222" s="4"/>
-      <c r="S222" s="4"/>
-      <c r="T222" s="4"/>
-      <c r="U222" s="4"/>
-    </row>
-    <row r="223" spans="12:21" x14ac:dyDescent="0.15">
-      <c r="L223" s="3"/>
-      <c r="M223" s="4"/>
-      <c r="N223" s="4"/>
-      <c r="O223" s="4"/>
-      <c r="P223" s="4"/>
-      <c r="Q223" s="4"/>
-      <c r="R223" s="4"/>
-      <c r="S223" s="4"/>
-      <c r="T223" s="4"/>
-      <c r="U223" s="4"/>
-    </row>
-    <row r="224" spans="12:21" x14ac:dyDescent="0.15">
-      <c r="L224" s="3"/>
-      <c r="M224" s="4"/>
-      <c r="N224" s="4"/>
-      <c r="O224" s="4"/>
-      <c r="P224" s="4"/>
-      <c r="Q224" s="4"/>
-      <c r="R224" s="4"/>
-      <c r="S224" s="4"/>
-      <c r="T224" s="4"/>
-      <c r="U224" s="4"/>
-    </row>
-    <row r="225" spans="12:21" x14ac:dyDescent="0.15">
-      <c r="L225" s="3"/>
-      <c r="M225" s="4"/>
-      <c r="N225" s="4"/>
-      <c r="O225" s="4"/>
-      <c r="P225" s="4"/>
-      <c r="Q225" s="4"/>
-      <c r="R225" s="4"/>
-      <c r="S225" s="4"/>
-      <c r="T225" s="4"/>
-      <c r="U225" s="4"/>
-    </row>
-    <row r="226" spans="12:21" x14ac:dyDescent="0.15">
-      <c r="L226" s="3"/>
-      <c r="M226" s="4"/>
-      <c r="N226" s="4"/>
-      <c r="O226" s="4"/>
-      <c r="P226" s="4"/>
-      <c r="Q226" s="4"/>
-      <c r="R226" s="4"/>
-      <c r="S226" s="4"/>
-      <c r="T226" s="4"/>
-      <c r="U226" s="4"/>
-    </row>
-    <row r="227" spans="12:21" x14ac:dyDescent="0.15">
-      <c r="L227" s="3"/>
-      <c r="M227" s="4"/>
-      <c r="N227" s="4"/>
-      <c r="O227" s="4"/>
-      <c r="P227" s="4"/>
-      <c r="Q227" s="4"/>
-      <c r="R227" s="4"/>
-      <c r="S227" s="4"/>
-      <c r="T227" s="4"/>
-      <c r="U227" s="4"/>
-    </row>
-    <row r="228" spans="12:21" x14ac:dyDescent="0.15">
-      <c r="L228" s="3"/>
-      <c r="M228" s="4"/>
-      <c r="N228" s="4"/>
-      <c r="O228" s="4"/>
-      <c r="P228" s="4"/>
-      <c r="Q228" s="4"/>
-      <c r="R228" s="4"/>
-      <c r="S228" s="4"/>
-      <c r="T228" s="4"/>
-      <c r="U228" s="4"/>
-    </row>
-    <row r="229" spans="12:21" x14ac:dyDescent="0.15">
-      <c r="L229" s="3"/>
-      <c r="M229" s="4"/>
-      <c r="N229" s="4"/>
-      <c r="O229" s="4"/>
-      <c r="P229" s="4"/>
-      <c r="Q229" s="4"/>
-      <c r="R229" s="4"/>
-      <c r="S229" s="4"/>
-      <c r="T229" s="4"/>
-      <c r="U229" s="4"/>
-    </row>
-    <row r="230" spans="12:21" x14ac:dyDescent="0.15">
-      <c r="L230" s="3"/>
-      <c r="M230" s="4"/>
-      <c r="N230" s="4"/>
-      <c r="O230" s="4"/>
-      <c r="P230" s="4"/>
-      <c r="Q230" s="4"/>
-      <c r="R230" s="4"/>
-      <c r="S230" s="4"/>
-      <c r="T230" s="4"/>
-      <c r="U230" s="4"/>
-    </row>
-    <row r="231" spans="12:21" x14ac:dyDescent="0.15">
-      <c r="L231" s="3"/>
-      <c r="M231" s="4"/>
-      <c r="N231" s="4"/>
-      <c r="O231" s="4"/>
-      <c r="P231" s="4"/>
-      <c r="Q231" s="4"/>
-      <c r="R231" s="4"/>
-      <c r="S231" s="4"/>
-      <c r="T231" s="4"/>
-      <c r="U231" s="4"/>
-    </row>
-    <row r="232" spans="12:21" x14ac:dyDescent="0.15">
-      <c r="L232" s="3"/>
-      <c r="M232" s="4"/>
-      <c r="N232" s="4"/>
-      <c r="O232" s="4"/>
-      <c r="P232" s="4"/>
-      <c r="Q232" s="4"/>
-      <c r="R232" s="4"/>
-      <c r="S232" s="4"/>
-      <c r="T232" s="4"/>
-      <c r="U232" s="4"/>
-    </row>
-    <row r="233" spans="12:21" x14ac:dyDescent="0.15">
-      <c r="L233" s="3"/>
-      <c r="M233" s="4"/>
-      <c r="N233" s="4"/>
-      <c r="O233" s="4"/>
-      <c r="P233" s="4"/>
-      <c r="Q233" s="4"/>
-      <c r="R233" s="4"/>
-      <c r="S233" s="4"/>
-      <c r="T233" s="4"/>
-      <c r="U233" s="4"/>
-    </row>
-    <row r="234" spans="12:21" x14ac:dyDescent="0.15">
-      <c r="L234" s="3"/>
-      <c r="M234" s="4"/>
-      <c r="N234" s="4"/>
-      <c r="O234" s="4"/>
-      <c r="P234" s="4"/>
-      <c r="Q234" s="4"/>
-      <c r="R234" s="4"/>
-      <c r="S234" s="4"/>
-      <c r="T234" s="4"/>
-      <c r="U234" s="4"/>
-    </row>
-    <row r="235" spans="12:21" x14ac:dyDescent="0.15">
-      <c r="L235" s="3"/>
-      <c r="M235" s="4"/>
-      <c r="N235" s="4"/>
-      <c r="O235" s="4"/>
-      <c r="P235" s="4"/>
-      <c r="Q235" s="4"/>
-      <c r="R235" s="4"/>
-      <c r="S235" s="4"/>
-      <c r="T235" s="4"/>
-      <c r="U235" s="4"/>
-    </row>
-    <row r="236" spans="12:21" x14ac:dyDescent="0.15">
-      <c r="L236" s="3"/>
-      <c r="M236" s="4"/>
-      <c r="N236" s="4"/>
-      <c r="O236" s="4"/>
-      <c r="P236" s="4"/>
-      <c r="Q236" s="4"/>
-      <c r="R236" s="4"/>
-      <c r="S236" s="4"/>
-      <c r="T236" s="4"/>
-      <c r="U236" s="4"/>
-    </row>
-    <row r="237" spans="12:21" x14ac:dyDescent="0.15">
-      <c r="L237" s="3"/>
-      <c r="M237" s="4"/>
-      <c r="N237" s="4"/>
-      <c r="O237" s="4"/>
-      <c r="P237" s="4"/>
-      <c r="Q237" s="4"/>
-      <c r="R237" s="4"/>
-      <c r="S237" s="4"/>
-      <c r="T237" s="4"/>
-      <c r="U237" s="4"/>
-    </row>
-    <row r="238" spans="12:21" x14ac:dyDescent="0.15">
-      <c r="L238" s="3"/>
-      <c r="M238" s="4"/>
-      <c r="N238" s="4"/>
-      <c r="O238" s="4"/>
-      <c r="P238" s="4"/>
-      <c r="Q238" s="4"/>
-      <c r="R238" s="4"/>
-      <c r="S238" s="4"/>
-      <c r="T238" s="4"/>
-      <c r="U238" s="4"/>
-    </row>
-    <row r="239" spans="12:21" x14ac:dyDescent="0.15">
-      <c r="L239" s="3"/>
-      <c r="M239" s="4"/>
-      <c r="N239" s="4"/>
-      <c r="O239" s="4"/>
-      <c r="P239" s="4"/>
-      <c r="Q239" s="4"/>
-      <c r="R239" s="4"/>
-      <c r="S239" s="4"/>
-      <c r="T239" s="4"/>
-      <c r="U239" s="4"/>
-    </row>
-    <row r="240" spans="12:21" x14ac:dyDescent="0.15">
-      <c r="L240" s="3"/>
-      <c r="M240" s="4"/>
-      <c r="N240" s="4"/>
-      <c r="O240" s="4"/>
-      <c r="P240" s="4"/>
-      <c r="Q240" s="4"/>
-      <c r="R240" s="4"/>
-      <c r="S240" s="4"/>
-      <c r="T240" s="4"/>
-      <c r="U240" s="4"/>
-    </row>
-    <row r="241" spans="12:21" x14ac:dyDescent="0.15">
-      <c r="L241" s="3"/>
-      <c r="M241" s="4"/>
-      <c r="N241" s="4"/>
-      <c r="O241" s="4"/>
-      <c r="P241" s="4"/>
-      <c r="Q241" s="4"/>
-      <c r="R241" s="4"/>
-      <c r="S241" s="4"/>
-      <c r="T241" s="4"/>
-      <c r="U241" s="4"/>
-    </row>
-    <row r="242" spans="12:21" x14ac:dyDescent="0.15">
-      <c r="L242" s="3"/>
-      <c r="M242" s="4"/>
-      <c r="N242" s="4"/>
-      <c r="O242" s="4"/>
-      <c r="P242" s="4"/>
-      <c r="Q242" s="4"/>
-      <c r="R242" s="4"/>
-      <c r="S242" s="4"/>
-      <c r="T242" s="4"/>
-      <c r="U242" s="4"/>
-    </row>
-    <row r="243" spans="12:21" x14ac:dyDescent="0.15">
-      <c r="L243" s="3"/>
-      <c r="M243" s="4"/>
-      <c r="N243" s="4"/>
-      <c r="O243" s="4"/>
-      <c r="P243" s="4"/>
-      <c r="Q243" s="4"/>
-      <c r="R243" s="4"/>
-      <c r="S243" s="4"/>
-      <c r="T243" s="4"/>
-      <c r="U243" s="4"/>
-    </row>
-    <row r="244" spans="12:21" x14ac:dyDescent="0.15">
-      <c r="L244" s="3"/>
-      <c r="M244" s="4"/>
-      <c r="N244" s="4"/>
-      <c r="O244" s="4"/>
-      <c r="P244" s="4"/>
-      <c r="Q244" s="4"/>
-      <c r="R244" s="4"/>
-      <c r="S244" s="4"/>
-      <c r="T244" s="4"/>
-      <c r="U244" s="4"/>
-    </row>
-    <row r="245" spans="12:21" x14ac:dyDescent="0.15">
-      <c r="L245" s="3"/>
-      <c r="M245" s="4"/>
-      <c r="N245" s="4"/>
-      <c r="O245" s="4"/>
-      <c r="P245" s="4"/>
-      <c r="Q245" s="4"/>
-      <c r="R245" s="4"/>
-      <c r="S245" s="4"/>
-      <c r="T245" s="4"/>
-      <c r="U245" s="4"/>
-    </row>
-    <row r="246" spans="12:21" x14ac:dyDescent="0.15">
-      <c r="L246" s="3"/>
-      <c r="M246" s="4"/>
-      <c r="N246" s="4"/>
-      <c r="O246" s="4"/>
-      <c r="P246" s="4"/>
-      <c r="Q246" s="4"/>
-      <c r="R246" s="4"/>
-      <c r="S246" s="4"/>
-      <c r="T246" s="4"/>
-      <c r="U246" s="4"/>
-    </row>
-    <row r="247" spans="12:21" x14ac:dyDescent="0.15">
-      <c r="L247" s="3"/>
-      <c r="M247" s="4"/>
-      <c r="N247" s="4"/>
-      <c r="O247" s="4"/>
-      <c r="P247" s="4"/>
-      <c r="Q247" s="4"/>
-      <c r="R247" s="4"/>
-      <c r="S247" s="4"/>
-      <c r="T247" s="4"/>
-      <c r="U247" s="4"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6751,7 +9732,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W57"/>
   <sheetViews>
@@ -8546,7 +11527,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W57"/>
   <sheetViews>
@@ -10336,4 +13317,148 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="13.375" customWidth="1"/>
+    <col min="5" max="5" width="17.875" customWidth="1"/>
+    <col min="6" max="6" width="18" customWidth="1"/>
+    <col min="7" max="7" width="18.125" customWidth="1"/>
+    <col min="8" max="8" width="18" customWidth="1"/>
+    <col min="9" max="9" width="18.125" customWidth="1"/>
+    <col min="10" max="10" width="18" customWidth="1"/>
+    <col min="11" max="11" width="18.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="I1" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="J1" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="K1" s="32" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2" s="25">
+        <v>42751</v>
+      </c>
+      <c r="B2">
+        <v>300</v>
+      </c>
+      <c r="D2">
+        <v>954</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="13.375" customWidth="1"/>
+    <col min="5" max="5" width="17.875" customWidth="1"/>
+    <col min="6" max="6" width="18" customWidth="1"/>
+    <col min="7" max="7" width="18.125" customWidth="1"/>
+    <col min="8" max="8" width="18" customWidth="1"/>
+    <col min="9" max="9" width="18.125" customWidth="1"/>
+    <col min="10" max="10" width="18" customWidth="1"/>
+    <col min="11" max="11" width="18.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="I1" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="J1" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="K1" s="32" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2" s="25">
+        <v>42751</v>
+      </c>
+      <c r="B2">
+        <v>190</v>
+      </c>
+      <c r="D2">
+        <v>2027</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>